--- a/JupyterNotebooks/AvgHW/CopperA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,34 +656,34 @@
         <v>1.004194210377972</v>
       </c>
       <c r="D3">
+        <v>1.004194210377972</v>
+      </c>
+      <c r="E3">
+        <v>1.00070414201034</v>
+      </c>
+      <c r="F3">
+        <v>1.002182822022073</v>
+      </c>
+      <c r="G3">
+        <v>1.003224711195178</v>
+      </c>
+      <c r="H3">
+        <v>0.9896809809555815</v>
+      </c>
+      <c r="I3">
         <v>0.9744913900606066</v>
       </c>
-      <c r="E3">
+      <c r="J3">
+        <v>1.003694798764261</v>
+      </c>
+      <c r="K3">
         <v>1.004992018729938</v>
       </c>
-      <c r="F3">
+      <c r="L3">
+        <v>0.9744913900606066</v>
+      </c>
+      <c r="M3">
         <v>1.004194210377972</v>
-      </c>
-      <c r="G3">
-        <v>1.00070414201034</v>
-      </c>
-      <c r="H3">
-        <v>1.002182822022073</v>
-      </c>
-      <c r="I3">
-        <v>1.004194210377972</v>
-      </c>
-      <c r="J3">
-        <v>0.9744913900606066</v>
-      </c>
-      <c r="K3">
-        <v>1.003694798764261</v>
-      </c>
-      <c r="L3">
-        <v>1.003224711195178</v>
-      </c>
-      <c r="M3">
-        <v>0.9896809809555815</v>
       </c>
       <c r="N3">
         <v>1.004194210377972</v>
@@ -764,7 +716,7 @@
         <v>0.9978956342644938</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,34 +727,34 @@
         <v>1.008458511609559</v>
       </c>
       <c r="D4">
+        <v>1.008458511609559</v>
+      </c>
+      <c r="E4">
+        <v>1.00114004576836</v>
+      </c>
+      <c r="F4">
+        <v>1.004504026413649</v>
+      </c>
+      <c r="G4">
+        <v>1.00635253165193</v>
+      </c>
+      <c r="H4">
+        <v>0.9803615324455899</v>
+      </c>
+      <c r="I4">
         <v>0.9519197750248702</v>
       </c>
-      <c r="E4">
+      <c r="J4">
+        <v>1.006304013726786</v>
+      </c>
+      <c r="K4">
         <v>1.009591948287714</v>
       </c>
-      <c r="F4">
+      <c r="L4">
+        <v>0.9519197750248702</v>
+      </c>
+      <c r="M4">
         <v>1.008458511609559</v>
-      </c>
-      <c r="G4">
-        <v>1.00114004576836</v>
-      </c>
-      <c r="H4">
-        <v>1.004504026413649</v>
-      </c>
-      <c r="I4">
-        <v>1.008458511609559</v>
-      </c>
-      <c r="J4">
-        <v>0.9519197750248702</v>
-      </c>
-      <c r="K4">
-        <v>1.006304013726786</v>
-      </c>
-      <c r="L4">
-        <v>1.00635253165193</v>
-      </c>
-      <c r="M4">
-        <v>0.9803615324455899</v>
       </c>
       <c r="N4">
         <v>1.008458511609559</v>
@@ -835,7 +787,7 @@
         <v>0.9960790481160574</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,34 +798,34 @@
         <v>1.016111940647824</v>
       </c>
       <c r="D5">
+        <v>1.016111940647824</v>
+      </c>
+      <c r="E5">
+        <v>1.002962558699947</v>
+      </c>
+      <c r="F5">
+        <v>1.007928667703986</v>
+      </c>
+      <c r="G5">
+        <v>1.012504058009541</v>
+      </c>
+      <c r="H5">
+        <v>0.9620340333123801</v>
+      </c>
+      <c r="I5">
         <v>0.9069182439379532</v>
       </c>
-      <c r="E5">
+      <c r="J5">
+        <v>1.012792140859174</v>
+      </c>
+      <c r="K5">
         <v>1.017680771769836</v>
       </c>
-      <c r="F5">
+      <c r="L5">
+        <v>0.9069182439379532</v>
+      </c>
+      <c r="M5">
         <v>1.016111940647824</v>
-      </c>
-      <c r="G5">
-        <v>1.002962558699947</v>
-      </c>
-      <c r="H5">
-        <v>1.007928667703986</v>
-      </c>
-      <c r="I5">
-        <v>1.016111940647824</v>
-      </c>
-      <c r="J5">
-        <v>0.9069182439379532</v>
-      </c>
-      <c r="K5">
-        <v>1.012792140859174</v>
-      </c>
-      <c r="L5">
-        <v>1.012504058009541</v>
-      </c>
-      <c r="M5">
-        <v>0.96203403331238</v>
       </c>
       <c r="N5">
         <v>1.016111940647824</v>
@@ -882,31 +834,31 @@
         <v>1.017680771769836</v>
       </c>
       <c r="P5">
-        <v>0.9622995078538945</v>
+        <v>0.9622995078538947</v>
       </c>
       <c r="Q5">
-        <v>1.010321665234891</v>
+        <v>1.010321665234892</v>
       </c>
       <c r="R5">
-        <v>0.9802369854518709</v>
+        <v>0.9802369854518712</v>
       </c>
       <c r="S5">
         <v>0.9758538581359121</v>
       </c>
       <c r="T5">
-        <v>0.9802369854518709</v>
+        <v>0.9802369854518712</v>
       </c>
       <c r="U5">
-        <v>0.9859183787638899</v>
+        <v>0.9859183787638901</v>
       </c>
       <c r="V5">
-        <v>0.9919570911406765</v>
+        <v>0.9919570911406769</v>
       </c>
       <c r="W5">
         <v>0.9923665518675802</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -917,34 +869,34 @@
         <v>1.034254123332702</v>
       </c>
       <c r="D6">
+        <v>1.034254123332702</v>
+      </c>
+      <c r="E6">
+        <v>1.004648415603268</v>
+      </c>
+      <c r="F6">
+        <v>1.008199877332493</v>
+      </c>
+      <c r="G6">
+        <v>1.014172981140968</v>
+      </c>
+      <c r="H6">
+        <v>0.9422452767854265</v>
+      </c>
+      <c r="I6">
         <v>0.8680588310891142</v>
       </c>
-      <c r="E6">
+      <c r="J6">
+        <v>1.022829906699252</v>
+      </c>
+      <c r="K6">
         <v>1.023283500785626</v>
       </c>
-      <c r="F6">
+      <c r="L6">
+        <v>0.8680588310891142</v>
+      </c>
+      <c r="M6">
         <v>1.034254123332702</v>
-      </c>
-      <c r="G6">
-        <v>1.004648415603268</v>
-      </c>
-      <c r="H6">
-        <v>1.008199877332493</v>
-      </c>
-      <c r="I6">
-        <v>1.034254123332702</v>
-      </c>
-      <c r="J6">
-        <v>0.8680588310891142</v>
-      </c>
-      <c r="K6">
-        <v>1.022829906699252</v>
-      </c>
-      <c r="L6">
-        <v>1.014172981140968</v>
-      </c>
-      <c r="M6">
-        <v>0.9422452767854265</v>
       </c>
       <c r="N6">
         <v>1.034254123332702</v>
@@ -974,10 +926,10 @@
         <v>0.9928997988286824</v>
       </c>
       <c r="W6">
-        <v>0.989711614096106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9897116140961061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +937,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001307411885747</v>
+        <v>1.001307411885746</v>
       </c>
       <c r="D7">
-        <v>0.9988622143851726</v>
+        <v>1.001307411885746</v>
       </c>
       <c r="E7">
-        <v>0.9993499849256179</v>
+        <v>1.000174947673731</v>
       </c>
       <c r="F7">
-        <v>1.001307411885747</v>
+        <v>1.000016888021242</v>
       </c>
       <c r="G7">
-        <v>1.00017494767373</v>
+        <v>1.00092094422915</v>
       </c>
       <c r="H7">
-        <v>1.000016888021242</v>
+        <v>0.9993815832958406</v>
       </c>
       <c r="I7">
-        <v>1.001307411885747</v>
+        <v>0.9988622143851729</v>
       </c>
       <c r="J7">
-        <v>0.9988622143851726</v>
+        <v>0.9994329196696426</v>
       </c>
       <c r="K7">
-        <v>0.9994329196696432</v>
+        <v>0.9993499849256167</v>
       </c>
       <c r="L7">
-        <v>1.00092094422915</v>
+        <v>0.9988622143851729</v>
       </c>
       <c r="M7">
-        <v>0.9993815832958408</v>
+        <v>1.001307411885746</v>
       </c>
       <c r="N7">
-        <v>1.001307411885747</v>
+        <v>1.001307411885746</v>
       </c>
       <c r="O7">
-        <v>0.9993499849256179</v>
+        <v>0.9993499849256167</v>
       </c>
       <c r="P7">
-        <v>0.9991060996553953</v>
+        <v>0.9991060996553948</v>
       </c>
       <c r="Q7">
-        <v>0.9997624662996742</v>
+        <v>0.9997624662996737</v>
       </c>
       <c r="R7">
-        <v>0.9998398703988457</v>
+        <v>0.9998398703988453</v>
       </c>
       <c r="S7">
-        <v>0.9994623823281737</v>
+        <v>0.9994623823281734</v>
       </c>
       <c r="T7">
-        <v>0.9998398703988457</v>
+        <v>0.9998398703988453</v>
       </c>
       <c r="U7">
-        <v>0.9999236397175669</v>
+        <v>0.9999236397175666</v>
       </c>
       <c r="V7">
         <v>1.000200394151203</v>
       </c>
       <c r="W7">
-        <v>0.9999308617607681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999308617607678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1059,58 +1011,58 @@
         <v>1.004109543326858</v>
       </c>
       <c r="D8">
-        <v>0.9970439035894296</v>
+        <v>1.004109543326858</v>
       </c>
       <c r="E8">
-        <v>0.9980551685454121</v>
+        <v>1.000208543893813</v>
       </c>
       <c r="F8">
+        <v>1.000169102069086</v>
+      </c>
+      <c r="G8">
+        <v>1.002523925386602</v>
+      </c>
+      <c r="H8">
+        <v>0.9980948646756863</v>
+      </c>
+      <c r="I8">
+        <v>0.9970439035894301</v>
+      </c>
+      <c r="J8">
+        <v>0.9983463609900242</v>
+      </c>
+      <c r="K8">
+        <v>0.9980551685454122</v>
+      </c>
+      <c r="L8">
+        <v>0.9970439035894301</v>
+      </c>
+      <c r="M8">
         <v>1.004109543326858</v>
-      </c>
-      <c r="G8">
-        <v>1.000208543893813</v>
-      </c>
-      <c r="H8">
-        <v>1.000169102069087</v>
-      </c>
-      <c r="I8">
-        <v>1.004109543326858</v>
-      </c>
-      <c r="J8">
-        <v>0.9970439035894296</v>
-      </c>
-      <c r="K8">
-        <v>0.9983463609900242</v>
-      </c>
-      <c r="L8">
-        <v>1.002523925386602</v>
-      </c>
-      <c r="M8">
-        <v>0.9980948646756862</v>
       </c>
       <c r="N8">
         <v>1.004109543326858</v>
       </c>
       <c r="O8">
-        <v>0.9980551685454121</v>
+        <v>0.9980551685454122</v>
       </c>
       <c r="P8">
-        <v>0.9975495360674209</v>
+        <v>0.9975495360674211</v>
       </c>
       <c r="Q8">
-        <v>0.9991318562196128</v>
+        <v>0.9991318562196126</v>
       </c>
       <c r="R8">
-        <v>0.9997362051539</v>
+        <v>0.9997362051539002</v>
       </c>
       <c r="S8">
         <v>0.9984358720095518</v>
       </c>
       <c r="T8">
-        <v>0.9997362051539</v>
+        <v>0.9997362051539002</v>
       </c>
       <c r="U8">
-        <v>0.9998542898388784</v>
+        <v>0.9998542898388785</v>
       </c>
       <c r="V8">
         <v>1.000705340536474</v>
@@ -1119,7 +1071,7 @@
         <v>0.9998189265596141</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1130,46 +1082,46 @@
         <v>1.008200115740088</v>
       </c>
       <c r="D9">
-        <v>0.9956700428736666</v>
+        <v>1.008200115740088</v>
       </c>
       <c r="E9">
-        <v>0.9973000873191211</v>
+        <v>0.9996961387580425</v>
       </c>
       <c r="F9">
+        <v>1.000289742228028</v>
+      </c>
+      <c r="G9">
+        <v>1.003151426885531</v>
+      </c>
+      <c r="H9">
+        <v>0.9971843083658073</v>
+      </c>
+      <c r="I9">
+        <v>0.9956700428736668</v>
+      </c>
+      <c r="J9">
+        <v>0.9974744687961057</v>
+      </c>
+      <c r="K9">
+        <v>0.9973000873191209</v>
+      </c>
+      <c r="L9">
+        <v>0.9956700428736668</v>
+      </c>
+      <c r="M9">
         <v>1.008200115740088</v>
-      </c>
-      <c r="G9">
-        <v>0.9996961387580425</v>
-      </c>
-      <c r="H9">
-        <v>1.000289742228028</v>
-      </c>
-      <c r="I9">
-        <v>1.008200115740088</v>
-      </c>
-      <c r="J9">
-        <v>0.9956700428736666</v>
-      </c>
-      <c r="K9">
-        <v>0.9974744687961055</v>
-      </c>
-      <c r="L9">
-        <v>1.003151426885531</v>
-      </c>
-      <c r="M9">
-        <v>0.9971843083658073</v>
       </c>
       <c r="N9">
         <v>1.008200115740088</v>
       </c>
       <c r="O9">
-        <v>0.9973000873191211</v>
+        <v>0.9973000873191209</v>
       </c>
       <c r="P9">
         <v>0.9964850650963939</v>
       </c>
       <c r="Q9">
-        <v>0.9984981130385818</v>
+        <v>0.9984981130385817</v>
       </c>
       <c r="R9">
         <v>1.000390081977625</v>
@@ -1181,7 +1133,7 @@
         <v>1.000390081977625</v>
       </c>
       <c r="U9">
-        <v>1.00021659617273</v>
+        <v>1.000216596172729</v>
       </c>
       <c r="V9">
         <v>1.001813300086201</v>
@@ -1190,7 +1142,7 @@
         <v>0.9998707913707987</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1201,34 +1153,34 @@
         <v>1.015305163021879</v>
       </c>
       <c r="D10">
+        <v>1.015305163021879</v>
+      </c>
+      <c r="E10">
+        <v>1.000066655057354</v>
+      </c>
+      <c r="F10">
+        <v>1.000457803378898</v>
+      </c>
+      <c r="G10">
+        <v>1.007080843681339</v>
+      </c>
+      <c r="H10">
+        <v>0.9940393541592164</v>
+      </c>
+      <c r="I10">
         <v>0.9901476951073744</v>
       </c>
-      <c r="E10">
+      <c r="J10">
+        <v>0.9950379282937707</v>
+      </c>
+      <c r="K10">
         <v>0.9943584727603056</v>
       </c>
-      <c r="F10">
+      <c r="L10">
+        <v>0.9901476951073744</v>
+      </c>
+      <c r="M10">
         <v>1.015305163021879</v>
-      </c>
-      <c r="G10">
-        <v>1.000066655057354</v>
-      </c>
-      <c r="H10">
-        <v>1.000457803378898</v>
-      </c>
-      <c r="I10">
-        <v>1.015305163021879</v>
-      </c>
-      <c r="J10">
-        <v>0.9901476951073744</v>
-      </c>
-      <c r="K10">
-        <v>0.9950379282937707</v>
-      </c>
-      <c r="L10">
-        <v>1.007080843681339</v>
-      </c>
-      <c r="M10">
-        <v>0.9940393541592164</v>
       </c>
       <c r="N10">
         <v>1.015305163021879</v>
@@ -1261,7 +1213,7 @@
         <v>0.9995617394325172</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1272,34 +1224,34 @@
         <v>1.030751830594453</v>
       </c>
       <c r="D11">
+        <v>1.030751830594453</v>
+      </c>
+      <c r="E11">
+        <v>0.9989639045815173</v>
+      </c>
+      <c r="F11">
+        <v>1.000824126437104</v>
+      </c>
+      <c r="G11">
+        <v>1.01186988831457</v>
+      </c>
+      <c r="H11">
+        <v>0.9896480407178534</v>
+      </c>
+      <c r="I11">
         <v>0.9846571589476557</v>
       </c>
-      <c r="E11">
+      <c r="J11">
+        <v>0.9905442976668357</v>
+      </c>
+      <c r="K11">
         <v>0.9892541801541402</v>
       </c>
-      <c r="F11">
+      <c r="L11">
+        <v>0.9846571589476557</v>
+      </c>
+      <c r="M11">
         <v>1.030751830594453</v>
-      </c>
-      <c r="G11">
-        <v>0.9989639045815173</v>
-      </c>
-      <c r="H11">
-        <v>1.000824126437104</v>
-      </c>
-      <c r="I11">
-        <v>1.030751830594453</v>
-      </c>
-      <c r="J11">
-        <v>0.9846571589476557</v>
-      </c>
-      <c r="K11">
-        <v>0.9905442976668357</v>
-      </c>
-      <c r="L11">
-        <v>1.01186988831457</v>
-      </c>
-      <c r="M11">
-        <v>0.9896480407178533</v>
       </c>
       <c r="N11">
         <v>1.030751830594453</v>
@@ -1329,10 +1281,10 @@
         <v>1.006875780974444</v>
       </c>
       <c r="W11">
-        <v>0.9995641784267661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9995641784267663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1343,67 +1295,67 @@
         <v>0.7548672593532204</v>
       </c>
       <c r="D12">
-        <v>0.9627277540342156</v>
+        <v>0.7548672593532204</v>
       </c>
       <c r="E12">
-        <v>0.8420337415758373</v>
+        <v>1.172089117468263</v>
       </c>
       <c r="F12">
+        <v>0.858168635575365</v>
+      </c>
+      <c r="G12">
+        <v>1.036562543089765</v>
+      </c>
+      <c r="H12">
+        <v>1.129939981651307</v>
+      </c>
+      <c r="I12">
+        <v>0.9627277540342154</v>
+      </c>
+      <c r="J12">
+        <v>1.097304415961282</v>
+      </c>
+      <c r="K12">
+        <v>0.8420337415758369</v>
+      </c>
+      <c r="L12">
+        <v>0.9627277540342154</v>
+      </c>
+      <c r="M12">
         <v>0.7548672593532204</v>
-      </c>
-      <c r="G12">
-        <v>1.172089117468263</v>
-      </c>
-      <c r="H12">
-        <v>0.858168635575365</v>
-      </c>
-      <c r="I12">
-        <v>0.7548672593532204</v>
-      </c>
-      <c r="J12">
-        <v>0.9627277540342156</v>
-      </c>
-      <c r="K12">
-        <v>1.097304415961282</v>
-      </c>
-      <c r="L12">
-        <v>1.036562543089765</v>
-      </c>
-      <c r="M12">
-        <v>1.129939981651308</v>
       </c>
       <c r="N12">
         <v>0.7548672593532204</v>
       </c>
       <c r="O12">
-        <v>0.8420337415758373</v>
+        <v>0.8420337415758369</v>
       </c>
       <c r="P12">
-        <v>0.9023807478050265</v>
+        <v>0.9023807478050261</v>
       </c>
       <c r="Q12">
         <v>1.00706142952205</v>
       </c>
       <c r="R12">
-        <v>0.8532095849877578</v>
+        <v>0.8532095849877575</v>
       </c>
       <c r="S12">
-        <v>0.992283537692772</v>
+        <v>0.9922835376927717</v>
       </c>
       <c r="T12">
-        <v>0.8532095849877578</v>
+        <v>0.8532095849877576</v>
       </c>
       <c r="U12">
-        <v>0.9329294681078841</v>
+        <v>0.9329294681078839</v>
       </c>
       <c r="V12">
-        <v>0.8973170263569514</v>
+        <v>0.8973170263569512</v>
       </c>
       <c r="W12">
-        <v>0.981711681088657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9817116810886569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1414,34 +1366,34 @@
         <v>1.085968231885332</v>
       </c>
       <c r="D13">
+        <v>1.085968231885332</v>
+      </c>
+      <c r="E13">
+        <v>0.8488265689022484</v>
+      </c>
+      <c r="F13">
+        <v>1.063142131349222</v>
+      </c>
+      <c r="G13">
+        <v>0.8659968581113571</v>
+      </c>
+      <c r="H13">
+        <v>1.035190179801377</v>
+      </c>
+      <c r="I13">
         <v>1.327818358188542</v>
       </c>
-      <c r="E13">
+      <c r="J13">
+        <v>0.9591680141669633</v>
+      </c>
+      <c r="K13">
         <v>1.13295623885233</v>
       </c>
-      <c r="F13">
+      <c r="L13">
+        <v>1.327818358188542</v>
+      </c>
+      <c r="M13">
         <v>1.085968231885332</v>
-      </c>
-      <c r="G13">
-        <v>0.8488265689022484</v>
-      </c>
-      <c r="H13">
-        <v>1.063142131349222</v>
-      </c>
-      <c r="I13">
-        <v>1.085968231885332</v>
-      </c>
-      <c r="J13">
-        <v>1.327818358188542</v>
-      </c>
-      <c r="K13">
-        <v>0.9591680141669633</v>
-      </c>
-      <c r="L13">
-        <v>0.8659968581113568</v>
-      </c>
-      <c r="M13">
-        <v>1.035190179801377</v>
       </c>
       <c r="N13">
         <v>1.085968231885332</v>
@@ -1474,7 +1426,7 @@
         <v>1.039883322657171</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1485,40 +1437,40 @@
         <v>0.6118761298839663</v>
       </c>
       <c r="D14">
-        <v>0.1309952242496457</v>
+        <v>0.6118761298839663</v>
       </c>
       <c r="E14">
-        <v>2.078925007802523</v>
+        <v>0.648247195792106</v>
       </c>
       <c r="F14">
+        <v>1.577416227217531</v>
+      </c>
+      <c r="G14">
+        <v>0.8003394716340935</v>
+      </c>
+      <c r="H14">
+        <v>0.3789046812554486</v>
+      </c>
+      <c r="I14">
+        <v>0.1309952242496458</v>
+      </c>
+      <c r="J14">
+        <v>1.162433604120343</v>
+      </c>
+      <c r="K14">
+        <v>2.078925007802522</v>
+      </c>
+      <c r="L14">
+        <v>0.1309952242496458</v>
+      </c>
+      <c r="M14">
         <v>0.6118761298839663</v>
-      </c>
-      <c r="G14">
-        <v>0.6482471957921063</v>
-      </c>
-      <c r="H14">
-        <v>1.577416227217531</v>
-      </c>
-      <c r="I14">
-        <v>0.6118761298839663</v>
-      </c>
-      <c r="J14">
-        <v>0.1309952242496457</v>
-      </c>
-      <c r="K14">
-        <v>1.162433604120343</v>
-      </c>
-      <c r="L14">
-        <v>0.8003394716340935</v>
-      </c>
-      <c r="M14">
-        <v>0.3789046812554486</v>
       </c>
       <c r="N14">
         <v>0.6118761298839663</v>
       </c>
       <c r="O14">
-        <v>2.078925007802523</v>
+        <v>2.078925007802522</v>
       </c>
       <c r="P14">
         <v>1.104960116026084</v>
@@ -1527,25 +1479,25 @@
         <v>1.363586101797314</v>
       </c>
       <c r="R14">
-        <v>0.9405987873120449</v>
+        <v>0.9405987873120448</v>
       </c>
       <c r="S14">
-        <v>0.9527224759480916</v>
+        <v>0.9527224759480913</v>
       </c>
       <c r="T14">
         <v>0.9405987873120448</v>
       </c>
       <c r="U14">
-        <v>0.8675108894320602</v>
+        <v>0.8675108894320601</v>
       </c>
       <c r="V14">
-        <v>0.8163839375224414</v>
+        <v>0.8163839375224413</v>
       </c>
       <c r="W14">
-        <v>0.9236421927444571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.923642192744457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1556,34 +1508,34 @@
         <v>1.385168613528747</v>
       </c>
       <c r="D15">
+        <v>1.385168613528747</v>
+      </c>
+      <c r="E15">
+        <v>1.165847523771667</v>
+      </c>
+      <c r="F15">
+        <v>0.8528757068022605</v>
+      </c>
+      <c r="G15">
+        <v>1.272094853981119</v>
+      </c>
+      <c r="H15">
+        <v>0.9767146643142903</v>
+      </c>
+      <c r="I15">
         <v>0.7272515901625779</v>
       </c>
-      <c r="E15">
+      <c r="J15">
+        <v>0.892326066088787</v>
+      </c>
+      <c r="K15">
         <v>0.5477037836539453</v>
       </c>
-      <c r="F15">
+      <c r="L15">
+        <v>0.7272515901625779</v>
+      </c>
+      <c r="M15">
         <v>1.385168613528747</v>
-      </c>
-      <c r="G15">
-        <v>1.165847523771667</v>
-      </c>
-      <c r="H15">
-        <v>0.8528757068022605</v>
-      </c>
-      <c r="I15">
-        <v>1.385168613528747</v>
-      </c>
-      <c r="J15">
-        <v>0.7272515901625779</v>
-      </c>
-      <c r="K15">
-        <v>0.892326066088787</v>
-      </c>
-      <c r="L15">
-        <v>1.272094853981119</v>
-      </c>
-      <c r="M15">
-        <v>0.9767146643142903</v>
       </c>
       <c r="N15">
         <v>1.385168613528747</v>
@@ -1610,13 +1562,13 @@
         <v>0.9564928777792341</v>
       </c>
       <c r="V15">
-        <v>1.042228024929137</v>
+        <v>1.042228024929136</v>
       </c>
       <c r="W15">
         <v>0.9774978502879241</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9970851739544483</v>
+        <v>1.08304563984062</v>
       </c>
       <c r="D16">
-        <v>0.9996415695687344</v>
+        <v>1.08304563984062</v>
       </c>
       <c r="E16">
-        <v>1.003151391647972</v>
+        <v>1.005475247388437</v>
       </c>
       <c r="F16">
-        <v>0.9970851739544483</v>
+        <v>1.053143755600687</v>
       </c>
       <c r="G16">
-        <v>0.999272785478775</v>
+        <v>1.064149254654318</v>
       </c>
       <c r="H16">
-        <v>1.001224065895117</v>
+        <v>0.8027036754991882</v>
       </c>
       <c r="I16">
-        <v>0.9970851739544483</v>
+        <v>0.5314495750803853</v>
       </c>
       <c r="J16">
-        <v>0.9996415695687344</v>
+        <v>1.054881873432218</v>
       </c>
       <c r="K16">
-        <v>1.000634829118338</v>
+        <v>1.095234167430473</v>
       </c>
       <c r="L16">
-        <v>0.9990902888750858</v>
+        <v>0.5314495750803853</v>
       </c>
       <c r="M16">
-        <v>0.9992645902037839</v>
+        <v>1.08304563984062</v>
       </c>
       <c r="N16">
-        <v>0.9970851739544483</v>
+        <v>1.08304563984062</v>
       </c>
       <c r="O16">
-        <v>1.003151391647972</v>
+        <v>1.095234167430473</v>
       </c>
       <c r="P16">
-        <v>1.001396480608353</v>
+        <v>0.813341871255429</v>
       </c>
       <c r="Q16">
-        <v>1.001212088563374</v>
+        <v>1.050354707409455</v>
       </c>
       <c r="R16">
-        <v>0.999959378390385</v>
+        <v>0.9032431274504927</v>
       </c>
       <c r="S16">
-        <v>1.000688582231827</v>
+        <v>0.8773863299664318</v>
       </c>
       <c r="T16">
-        <v>0.999959378390385</v>
+        <v>0.9032431274504927</v>
       </c>
       <c r="U16">
-        <v>0.9997877301624825</v>
+        <v>0.9288011574349789</v>
       </c>
       <c r="V16">
-        <v>0.9992472189208756</v>
+        <v>0.9596500539161072</v>
       </c>
       <c r="W16">
-        <v>0.9999205868427818</v>
+        <v>0.9612603986157908</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.005366309115325</v>
+        <v>1.089424574499348</v>
       </c>
       <c r="D17">
-        <v>0.9994767172975133</v>
+        <v>1.089424574499348</v>
       </c>
       <c r="E17">
-        <v>0.9944554110654791</v>
+        <v>1.00709726353879</v>
       </c>
       <c r="F17">
-        <v>1.005366309115325</v>
+        <v>1.040095801507258</v>
       </c>
       <c r="G17">
-        <v>1.001693287019259</v>
+        <v>1.068508401395452</v>
       </c>
       <c r="H17">
-        <v>0.9982113808024738</v>
+        <v>0.8466059781290125</v>
       </c>
       <c r="I17">
-        <v>1.005366309115325</v>
+        <v>0.6479072451055704</v>
       </c>
       <c r="J17">
-        <v>0.9994767172975133</v>
+        <v>1.021372019941795</v>
       </c>
       <c r="K17">
-        <v>0.9979338586651021</v>
+        <v>1.048777901748714</v>
       </c>
       <c r="L17">
-        <v>1.002775539558388</v>
+        <v>0.6479072451055704</v>
       </c>
       <c r="M17">
-        <v>1.00065776332163</v>
+        <v>1.089424574499348</v>
       </c>
       <c r="N17">
-        <v>1.005366309115325</v>
+        <v>1.089424574499348</v>
       </c>
       <c r="O17">
-        <v>0.9944554110654791</v>
+        <v>1.048777901748714</v>
       </c>
       <c r="P17">
-        <v>0.9969660641814961</v>
+        <v>0.8483425734271424</v>
       </c>
       <c r="Q17">
-        <v>0.9980743490423692</v>
+        <v>1.027937582643752</v>
       </c>
       <c r="R17">
-        <v>0.9997661458261057</v>
+        <v>0.9287032404512109</v>
       </c>
       <c r="S17">
-        <v>0.9985418051274172</v>
+        <v>0.9012608034643582</v>
       </c>
       <c r="T17">
-        <v>0.9997661458261057</v>
+        <v>0.9287032404512109</v>
       </c>
       <c r="U17">
-        <v>1.000247931124394</v>
+        <v>0.9483017462231056</v>
       </c>
       <c r="V17">
-        <v>1.00127160672258</v>
+        <v>0.976526311878354</v>
       </c>
       <c r="W17">
-        <v>1.000071283355646</v>
+        <v>0.9712236482332426</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9925128949938817</v>
+        <v>1.103792653977254</v>
       </c>
       <c r="D18">
-        <v>0.9911347858643219</v>
+        <v>1.103792653977254</v>
       </c>
       <c r="E18">
-        <v>1.013074878212906</v>
+        <v>1.009575874518605</v>
       </c>
       <c r="F18">
-        <v>0.9925128949938817</v>
+        <v>1.014245604741875</v>
       </c>
       <c r="G18">
-        <v>0.9980567588130609</v>
+        <v>1.076488900252678</v>
       </c>
       <c r="H18">
-        <v>1.004539406336826</v>
+        <v>0.9340810474557821</v>
       </c>
       <c r="I18">
-        <v>0.9925128949938817</v>
+        <v>0.880492546163145</v>
       </c>
       <c r="J18">
-        <v>0.9911347858643219</v>
+        <v>0.9545906115181881</v>
       </c>
       <c r="K18">
-        <v>1.002990489796099</v>
+        <v>0.9564860416415587</v>
       </c>
       <c r="L18">
-        <v>0.9975859272070859</v>
+        <v>0.880492546163145</v>
       </c>
       <c r="M18">
-        <v>0.9947735979400218</v>
+        <v>1.103792653977254</v>
       </c>
       <c r="N18">
-        <v>0.9925128949938817</v>
+        <v>1.103792653977254</v>
       </c>
       <c r="O18">
-        <v>1.013074878212906</v>
+        <v>0.9564860416415587</v>
       </c>
       <c r="P18">
-        <v>1.002104832038614</v>
+        <v>0.9184892939023519</v>
       </c>
       <c r="Q18">
-        <v>1.005565818512984</v>
+        <v>0.983030958080082</v>
       </c>
       <c r="R18">
-        <v>0.9989075196903699</v>
+        <v>0.980257080593986</v>
       </c>
       <c r="S18">
-        <v>1.000755474296763</v>
+        <v>0.948851487441103</v>
       </c>
       <c r="T18">
-        <v>0.9989075196903699</v>
+        <v>0.980257080593986</v>
       </c>
       <c r="U18">
-        <v>0.9986948294710427</v>
+        <v>0.9875867790751408</v>
       </c>
       <c r="V18">
-        <v>0.9974584425756106</v>
+        <v>1.010827954055564</v>
       </c>
       <c r="W18">
-        <v>0.9993335923955254</v>
+        <v>0.9912191600336359</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1789,351 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.106663092529688</v>
+      </c>
+      <c r="D19">
+        <v>1.106663092529688</v>
+      </c>
+      <c r="E19">
+        <v>1.034080543779235</v>
+      </c>
+      <c r="F19">
+        <v>0.9993337326571193</v>
+      </c>
+      <c r="G19">
+        <v>1.10505287416756</v>
+      </c>
+      <c r="H19">
+        <v>0.9316808205555763</v>
+      </c>
+      <c r="I19">
+        <v>0.8438284470336567</v>
+      </c>
+      <c r="J19">
+        <v>0.9517430778807192</v>
+      </c>
+      <c r="K19">
+        <v>0.9226970757784378</v>
+      </c>
+      <c r="L19">
+        <v>0.8438284470336567</v>
+      </c>
+      <c r="M19">
+        <v>1.106663092529688</v>
+      </c>
+      <c r="N19">
+        <v>1.106663092529688</v>
+      </c>
+      <c r="O19">
+        <v>0.9226970757784378</v>
+      </c>
+      <c r="P19">
+        <v>0.8832627614060473</v>
+      </c>
+      <c r="Q19">
+        <v>0.9783888097788364</v>
+      </c>
+      <c r="R19">
+        <v>0.9577295384472609</v>
+      </c>
+      <c r="S19">
+        <v>0.9335353555304432</v>
+      </c>
+      <c r="T19">
+        <v>0.9577295384472609</v>
+      </c>
+      <c r="U19">
+        <v>0.9768172897802544</v>
+      </c>
+      <c r="V19">
+        <v>1.002786450330141</v>
+      </c>
+      <c r="W19">
+        <v>0.986884958047749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9970851739544485</v>
+      </c>
+      <c r="D20">
+        <v>0.9970851739544485</v>
+      </c>
+      <c r="E20">
+        <v>0.9992727854787752</v>
+      </c>
+      <c r="F20">
+        <v>1.001224065895117</v>
+      </c>
+      <c r="G20">
+        <v>0.9990902888750861</v>
+      </c>
+      <c r="H20">
+        <v>0.9992645902037842</v>
+      </c>
+      <c r="I20">
+        <v>0.9996415695687344</v>
+      </c>
+      <c r="J20">
+        <v>1.000634829118338</v>
+      </c>
+      <c r="K20">
+        <v>1.003151391647973</v>
+      </c>
+      <c r="L20">
+        <v>0.9996415695687344</v>
+      </c>
+      <c r="M20">
+        <v>0.9970851739544485</v>
+      </c>
+      <c r="N20">
+        <v>0.9970851739544485</v>
+      </c>
+      <c r="O20">
+        <v>1.003151391647973</v>
+      </c>
+      <c r="P20">
+        <v>1.001396480608354</v>
+      </c>
+      <c r="Q20">
+        <v>1.001212088563374</v>
+      </c>
+      <c r="R20">
+        <v>0.9999593783903853</v>
+      </c>
+      <c r="S20">
+        <v>1.000688582231828</v>
+      </c>
+      <c r="T20">
+        <v>0.9999593783903853</v>
+      </c>
+      <c r="U20">
+        <v>0.9997877301624828</v>
+      </c>
+      <c r="V20">
+        <v>0.999247218920876</v>
+      </c>
+      <c r="W20">
+        <v>0.9999205868427821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.005366309115325</v>
+      </c>
+      <c r="D21">
+        <v>1.005366309115325</v>
+      </c>
+      <c r="E21">
+        <v>1.001693287019259</v>
+      </c>
+      <c r="F21">
+        <v>0.9982113808024738</v>
+      </c>
+      <c r="G21">
+        <v>1.002775539558388</v>
+      </c>
+      <c r="H21">
+        <v>1.00065776332163</v>
+      </c>
+      <c r="I21">
+        <v>0.9994767172975132</v>
+      </c>
+      <c r="J21">
+        <v>0.9979338586651018</v>
+      </c>
+      <c r="K21">
+        <v>0.9944554110654793</v>
+      </c>
+      <c r="L21">
+        <v>0.9994767172975132</v>
+      </c>
+      <c r="M21">
+        <v>1.005366309115325</v>
+      </c>
+      <c r="N21">
+        <v>1.005366309115325</v>
+      </c>
+      <c r="O21">
+        <v>0.9944554110654793</v>
+      </c>
+      <c r="P21">
+        <v>0.9969660641814962</v>
+      </c>
+      <c r="Q21">
+        <v>0.9980743490423694</v>
+      </c>
+      <c r="R21">
+        <v>0.9997661458261057</v>
+      </c>
+      <c r="S21">
+        <v>0.9985418051274172</v>
+      </c>
+      <c r="T21">
+        <v>0.9997661458261057</v>
+      </c>
+      <c r="U21">
+        <v>1.000247931124394</v>
+      </c>
+      <c r="V21">
+        <v>1.00127160672258</v>
+      </c>
+      <c r="W21">
+        <v>1.000071283355646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9925128949938824</v>
+      </c>
+      <c r="D22">
+        <v>0.9925128949938824</v>
+      </c>
+      <c r="E22">
+        <v>0.9980567588130609</v>
+      </c>
+      <c r="F22">
+        <v>1.004539406336826</v>
+      </c>
+      <c r="G22">
+        <v>0.9975859272070862</v>
+      </c>
+      <c r="H22">
+        <v>0.9947735979400218</v>
+      </c>
+      <c r="I22">
+        <v>0.9911347858643217</v>
+      </c>
+      <c r="J22">
+        <v>1.002990489796099</v>
+      </c>
+      <c r="K22">
+        <v>1.013074878212906</v>
+      </c>
+      <c r="L22">
+        <v>0.9911347858643217</v>
+      </c>
+      <c r="M22">
+        <v>0.9925128949938824</v>
+      </c>
+      <c r="N22">
+        <v>0.9925128949938824</v>
+      </c>
+      <c r="O22">
+        <v>1.013074878212906</v>
+      </c>
+      <c r="P22">
+        <v>1.002104832038614</v>
+      </c>
+      <c r="Q22">
+        <v>1.005565818512984</v>
+      </c>
+      <c r="R22">
+        <v>0.9989075196903702</v>
+      </c>
+      <c r="S22">
+        <v>1.000755474296763</v>
+      </c>
+      <c r="T22">
+        <v>0.9989075196903702</v>
+      </c>
+      <c r="U22">
+        <v>0.9986948294710428</v>
+      </c>
+      <c r="V22">
+        <v>0.9974584425756108</v>
+      </c>
+      <c r="W22">
+        <v>0.9993335923955255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9634660845554845</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.9634660845554845</v>
+      </c>
+      <c r="E23">
+        <v>0.9878961978487791</v>
+      </c>
+      <c r="F23">
+        <v>1.018206062012611</v>
+      </c>
+      <c r="G23">
+        <v>0.9861599853275357</v>
+      </c>
+      <c r="H23">
+        <v>0.9817923705744114</v>
+      </c>
+      <c r="I23">
         <v>0.9746422952160019</v>
       </c>
-      <c r="E19">
+      <c r="J23">
+        <v>1.015900945922867</v>
+      </c>
+      <c r="K23">
         <v>1.047357811339038</v>
       </c>
-      <c r="F19">
+      <c r="L23">
+        <v>0.9746422952160019</v>
+      </c>
+      <c r="M23">
         <v>0.9634660845554845</v>
       </c>
-      <c r="G19">
-        <v>0.9878961978487791</v>
-      </c>
-      <c r="H19">
-        <v>1.018206062012611</v>
-      </c>
-      <c r="I19">
+      <c r="N23">
         <v>0.9634660845554845</v>
       </c>
-      <c r="J19">
-        <v>0.9746422952160019</v>
-      </c>
-      <c r="K19">
-        <v>1.015900945922867</v>
-      </c>
-      <c r="L19">
-        <v>0.9861599853275357</v>
-      </c>
-      <c r="M19">
-        <v>0.981792370574411</v>
-      </c>
-      <c r="N19">
-        <v>0.9634660845554845</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.047357811339038</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.01100005327752</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.017627004593908</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9951553970368415</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.003298768134606</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9951553970368415</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9933405972398259</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9873656947029577</v>
       </c>
-      <c r="W19">
-        <v>0.9969277190995909</v>
+      <c r="W23">
+        <v>0.9969277190995911</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.004194210377972</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="D3">
-        <v>1.004194210377972</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="E3">
-        <v>1.00070414201034</v>
+        <v>1.015496367665705</v>
       </c>
       <c r="F3">
-        <v>1.002182822022073</v>
+        <v>1.013999022903457</v>
       </c>
       <c r="G3">
-        <v>1.003224711195178</v>
+        <v>1.09561753507925</v>
       </c>
       <c r="H3">
-        <v>0.9896809809555815</v>
+        <v>0.9221319798609521</v>
       </c>
       <c r="I3">
-        <v>0.9744913900606066</v>
+        <v>0.8572552172211805</v>
       </c>
       <c r="J3">
-        <v>1.003694798764261</v>
+        <v>0.9449443017269445</v>
       </c>
       <c r="K3">
-        <v>1.004992018729938</v>
+        <v>0.9449869739049024</v>
       </c>
       <c r="L3">
-        <v>0.9744913900606066</v>
+        <v>0.8572552172211805</v>
       </c>
       <c r="M3">
-        <v>1.004194210377972</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="N3">
-        <v>1.004194210377972</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="O3">
-        <v>1.004992018729938</v>
+        <v>0.9449869739049024</v>
       </c>
       <c r="P3">
-        <v>0.9897417043952725</v>
+        <v>0.9011210955630414</v>
       </c>
       <c r="Q3">
-        <v>1.002848080370139</v>
+        <v>0.9802416707853036</v>
       </c>
       <c r="R3">
-        <v>0.9945592063895056</v>
+        <v>0.9744412272202231</v>
       </c>
       <c r="S3">
-        <v>0.9933958502669616</v>
+        <v>0.9392461862639291</v>
       </c>
       <c r="T3">
-        <v>0.9945592063895056</v>
+        <v>0.9744412272202231</v>
       </c>
       <c r="U3">
-        <v>0.9960954402947141</v>
+        <v>0.9847050123315935</v>
       </c>
       <c r="V3">
-        <v>0.9977151943113656</v>
+        <v>1.011980307972192</v>
       </c>
       <c r="W3">
-        <v>0.9978956342644938</v>
+        <v>0.9894391111121222</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.008458511609559</v>
+        <v>1.108911223993665</v>
       </c>
       <c r="D4">
-        <v>1.008458511609559</v>
+        <v>1.108911223993665</v>
       </c>
       <c r="E4">
-        <v>1.00114004576836</v>
+        <v>1.012918171978197</v>
       </c>
       <c r="F4">
-        <v>1.004504026413649</v>
+        <v>1.013919675644796</v>
       </c>
       <c r="G4">
-        <v>1.00635253165193</v>
+        <v>1.085218809165118</v>
       </c>
       <c r="H4">
-        <v>0.9803615324455899</v>
+        <v>0.9294636681578532</v>
       </c>
       <c r="I4">
-        <v>0.9519197750248702</v>
+        <v>0.8711622345737154</v>
       </c>
       <c r="J4">
-        <v>1.006304013726786</v>
+        <v>0.9503642243854823</v>
       </c>
       <c r="K4">
-        <v>1.009591948287714</v>
+        <v>0.9512274201761097</v>
       </c>
       <c r="L4">
-        <v>0.9519197750248702</v>
+        <v>0.8711622345737154</v>
       </c>
       <c r="M4">
-        <v>1.008458511609559</v>
+        <v>1.108911223993665</v>
       </c>
       <c r="N4">
-        <v>1.008458511609559</v>
+        <v>1.108911223993665</v>
       </c>
       <c r="O4">
-        <v>1.009591948287714</v>
+        <v>0.9512274201761097</v>
       </c>
       <c r="P4">
-        <v>0.9807558616562922</v>
+        <v>0.9111948273749126</v>
       </c>
       <c r="Q4">
-        <v>1.005365997028037</v>
+        <v>0.9820727960771531</v>
       </c>
       <c r="R4">
-        <v>0.9899900783073812</v>
+        <v>0.9771002929144968</v>
       </c>
       <c r="S4">
-        <v>0.9875505896936483</v>
+        <v>0.9451026089093406</v>
       </c>
       <c r="T4">
-        <v>0.9899900783073812</v>
+        <v>0.9771002929144967</v>
       </c>
       <c r="U4">
-        <v>0.9927775701726259</v>
+        <v>0.9860547626804217</v>
       </c>
       <c r="V4">
-        <v>0.9959137584600125</v>
+        <v>1.01062605494307</v>
       </c>
       <c r="W4">
-        <v>0.9960790481160574</v>
+        <v>0.9903981785093671</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.016111940647824</v>
+        <v>1.145858887973045</v>
       </c>
       <c r="D5">
-        <v>1.016111940647824</v>
+        <v>1.145858887973045</v>
       </c>
       <c r="E5">
-        <v>1.002962558699947</v>
+        <v>1.020232867978436</v>
       </c>
       <c r="F5">
-        <v>1.007928667703986</v>
+        <v>1.014136333773585</v>
       </c>
       <c r="G5">
-        <v>1.012504058009541</v>
+        <v>1.115782784204852</v>
       </c>
       <c r="H5">
-        <v>0.9620340333123801</v>
+        <v>0.9079012019299199</v>
       </c>
       <c r="I5">
-        <v>0.9069182439379532</v>
+        <v>0.8305956957584899</v>
       </c>
       <c r="J5">
-        <v>1.012792140859174</v>
+        <v>0.9341574914743925</v>
       </c>
       <c r="K5">
-        <v>1.017680771769836</v>
+        <v>0.9325414794878707</v>
       </c>
       <c r="L5">
-        <v>0.9069182439379532</v>
+        <v>0.8305956957584899</v>
       </c>
       <c r="M5">
-        <v>1.016111940647824</v>
+        <v>1.145858887973045</v>
       </c>
       <c r="N5">
-        <v>1.016111940647824</v>
+        <v>1.145858887973045</v>
       </c>
       <c r="O5">
-        <v>1.017680771769836</v>
+        <v>0.9325414794878707</v>
       </c>
       <c r="P5">
-        <v>0.9622995078538947</v>
+        <v>0.8815685876231802</v>
       </c>
       <c r="Q5">
-        <v>1.010321665234892</v>
+        <v>0.9763871737331531</v>
       </c>
       <c r="R5">
-        <v>0.9802369854518712</v>
+        <v>0.9696653544064686</v>
       </c>
       <c r="S5">
-        <v>0.9758538581359121</v>
+        <v>0.9277900144082653</v>
       </c>
       <c r="T5">
-        <v>0.9802369854518712</v>
+        <v>0.9696653544064686</v>
       </c>
       <c r="U5">
-        <v>0.9859183787638901</v>
+        <v>0.9823072327994604</v>
       </c>
       <c r="V5">
-        <v>0.9919570911406769</v>
+        <v>1.015017563834177</v>
       </c>
       <c r="W5">
-        <v>0.9923665518675802</v>
+        <v>0.9876508428225739</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.034254123332702</v>
+        <v>1.17097317596591</v>
       </c>
       <c r="D6">
-        <v>1.034254123332702</v>
+        <v>1.17097317596591</v>
       </c>
       <c r="E6">
-        <v>1.004648415603268</v>
+        <v>1.024465323295454</v>
       </c>
       <c r="F6">
-        <v>1.008199877332493</v>
+        <v>1.014248629147728</v>
       </c>
       <c r="G6">
-        <v>1.014172981140968</v>
+        <v>1.135106834829544</v>
       </c>
       <c r="H6">
-        <v>0.9422452767854265</v>
+        <v>0.8942487548636361</v>
       </c>
       <c r="I6">
-        <v>0.8680588310891142</v>
+        <v>0.8054081749482953</v>
       </c>
       <c r="J6">
-        <v>1.022829906699252</v>
+        <v>0.9234986616306821</v>
       </c>
       <c r="K6">
-        <v>1.023283500785626</v>
+        <v>0.9202145234659088</v>
       </c>
       <c r="L6">
-        <v>0.8680588310891142</v>
+        <v>0.8054081749482953</v>
       </c>
       <c r="M6">
-        <v>1.034254123332702</v>
+        <v>1.17097317596591</v>
       </c>
       <c r="N6">
-        <v>1.034254123332702</v>
+        <v>1.17097317596591</v>
       </c>
       <c r="O6">
-        <v>1.023283500785626</v>
+        <v>0.9202145234659088</v>
       </c>
       <c r="P6">
-        <v>0.9456711659373699</v>
+        <v>0.8628113492071021</v>
       </c>
       <c r="Q6">
-        <v>1.013965958194447</v>
+        <v>0.9723399233806813</v>
       </c>
       <c r="R6">
-        <v>0.9751988184024807</v>
+        <v>0.9655319581267046</v>
       </c>
       <c r="S6">
-        <v>0.965330249159336</v>
+        <v>0.9166960072365526</v>
       </c>
       <c r="T6">
-        <v>0.9751988184024807</v>
+        <v>0.9655319581267046</v>
       </c>
       <c r="U6">
-        <v>0.9825612177026776</v>
+        <v>0.9802652994188918</v>
       </c>
       <c r="V6">
-        <v>0.9928997988286824</v>
+        <v>1.018406874728295</v>
       </c>
       <c r="W6">
-        <v>0.9897116140961061</v>
+        <v>0.9860205097683947</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001307411885746</v>
+        <v>1.846524208980369</v>
       </c>
       <c r="D7">
-        <v>1.001307411885746</v>
+        <v>1.846524208980369</v>
       </c>
       <c r="E7">
-        <v>1.000174947673731</v>
+        <v>0.8475879103866525</v>
       </c>
       <c r="F7">
-        <v>1.000016888021242</v>
+        <v>1.032349942003029</v>
       </c>
       <c r="G7">
-        <v>1.00092094422915</v>
+        <v>1.107153378026099</v>
       </c>
       <c r="H7">
-        <v>0.9993815832958406</v>
+        <v>0.9546914079828049</v>
       </c>
       <c r="I7">
-        <v>0.9988622143851729</v>
+        <v>1.278805769633581</v>
       </c>
       <c r="J7">
-        <v>0.9994329196696426</v>
+        <v>0.662899512416116</v>
       </c>
       <c r="K7">
-        <v>0.9993499849256167</v>
+        <v>0.7838242628959086</v>
       </c>
       <c r="L7">
-        <v>0.9988622143851729</v>
+        <v>1.278805769633581</v>
       </c>
       <c r="M7">
-        <v>1.001307411885746</v>
+        <v>1.846524208980369</v>
       </c>
       <c r="N7">
-        <v>1.001307411885746</v>
+        <v>1.846524208980369</v>
       </c>
       <c r="O7">
-        <v>0.9993499849256167</v>
+        <v>0.7838242628959086</v>
       </c>
       <c r="P7">
-        <v>0.9991060996553948</v>
+        <v>1.031315016264745</v>
       </c>
       <c r="Q7">
-        <v>0.9997624662996737</v>
+        <v>0.8157060866412805</v>
       </c>
       <c r="R7">
-        <v>0.9998398703988453</v>
+        <v>1.303051413836619</v>
       </c>
       <c r="S7">
-        <v>0.9994623823281734</v>
+        <v>0.9700726476387139</v>
       </c>
       <c r="T7">
-        <v>0.9998398703988453</v>
+        <v>1.303051413836619</v>
       </c>
       <c r="U7">
-        <v>0.9999236397175666</v>
+        <v>1.189185537974128</v>
       </c>
       <c r="V7">
-        <v>1.000200394151203</v>
+        <v>1.320653272175376</v>
       </c>
       <c r="W7">
-        <v>0.9999308617607678</v>
+        <v>1.06422954904057</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.004109543326858</v>
+        <v>1.85177977969318</v>
       </c>
       <c r="D8">
-        <v>1.004109543326858</v>
+        <v>1.85177977969318</v>
       </c>
       <c r="E8">
-        <v>1.000208543893813</v>
+        <v>0.8482465395264102</v>
       </c>
       <c r="F8">
-        <v>1.000169102069086</v>
+        <v>1.032515094354373</v>
       </c>
       <c r="G8">
-        <v>1.002523925386602</v>
+        <v>1.110791808156038</v>
       </c>
       <c r="H8">
-        <v>0.9980948646756863</v>
+        <v>0.9513023617946759</v>
       </c>
       <c r="I8">
-        <v>0.9970439035894301</v>
+        <v>1.27164900445721</v>
       </c>
       <c r="J8">
-        <v>0.9983463609900242</v>
+        <v>0.6615310458603386</v>
       </c>
       <c r="K8">
-        <v>0.9980551685454122</v>
+        <v>0.7816740777688083</v>
       </c>
       <c r="L8">
-        <v>0.9970439035894301</v>
+        <v>1.27164900445721</v>
       </c>
       <c r="M8">
-        <v>1.004109543326858</v>
+        <v>1.85177977969318</v>
       </c>
       <c r="N8">
-        <v>1.004109543326858</v>
+        <v>1.85177977969318</v>
       </c>
       <c r="O8">
-        <v>0.9980551685454122</v>
+        <v>0.7816740777688083</v>
       </c>
       <c r="P8">
-        <v>0.9975495360674211</v>
+        <v>1.026661541113009</v>
       </c>
       <c r="Q8">
-        <v>0.9991318562196126</v>
+        <v>0.8149603086476092</v>
       </c>
       <c r="R8">
-        <v>0.9997362051539002</v>
+        <v>1.301700953973066</v>
       </c>
       <c r="S8">
-        <v>0.9984358720095518</v>
+        <v>0.967189873917476</v>
       </c>
       <c r="T8">
-        <v>0.9997362051539002</v>
+        <v>1.301700953973066</v>
       </c>
       <c r="U8">
-        <v>0.9998542898388785</v>
+        <v>1.188337350361402</v>
       </c>
       <c r="V8">
-        <v>1.000705340536474</v>
+        <v>1.321025836227757</v>
       </c>
       <c r="W8">
-        <v>0.9998189265596141</v>
+        <v>1.063686213951379</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.008200115740088</v>
+        <v>1.851187982541547</v>
       </c>
       <c r="D9">
-        <v>1.008200115740088</v>
+        <v>1.851187982541547</v>
       </c>
       <c r="E9">
-        <v>0.9996961387580425</v>
+        <v>0.8497037547076</v>
       </c>
       <c r="F9">
-        <v>1.000289742228028</v>
+        <v>1.032850648831886</v>
       </c>
       <c r="G9">
-        <v>1.003151426885531</v>
+        <v>1.113973604371537</v>
       </c>
       <c r="H9">
-        <v>0.9971843083658073</v>
+        <v>0.9487955180626654</v>
       </c>
       <c r="I9">
-        <v>0.9956700428736668</v>
+        <v>1.265652355051565</v>
       </c>
       <c r="J9">
-        <v>0.9974744687961057</v>
+        <v>0.6610350953713916</v>
       </c>
       <c r="K9">
-        <v>0.9973000873191209</v>
+        <v>0.7808737901308714</v>
       </c>
       <c r="L9">
-        <v>0.9956700428736668</v>
+        <v>1.265652355051565</v>
       </c>
       <c r="M9">
-        <v>1.008200115740088</v>
+        <v>1.851187982541547</v>
       </c>
       <c r="N9">
-        <v>1.008200115740088</v>
+        <v>1.851187982541547</v>
       </c>
       <c r="O9">
-        <v>0.9973000873191209</v>
+        <v>0.7808737901308714</v>
       </c>
       <c r="P9">
-        <v>0.9964850650963939</v>
+        <v>1.023263072591218</v>
       </c>
       <c r="Q9">
-        <v>0.9984981130385817</v>
+        <v>0.8152887724192357</v>
       </c>
       <c r="R9">
-        <v>1.000390081977625</v>
+        <v>1.299238042574661</v>
       </c>
       <c r="S9">
-        <v>0.9975554229836101</v>
+        <v>0.9654099666300121</v>
       </c>
       <c r="T9">
-        <v>1.000390081977625</v>
+        <v>1.299238042574661</v>
       </c>
       <c r="U9">
-        <v>1.000216596172729</v>
+        <v>1.186854470607896</v>
       </c>
       <c r="V9">
-        <v>1.001813300086201</v>
+        <v>1.319721172994626</v>
       </c>
       <c r="W9">
-        <v>0.9998707913707987</v>
+        <v>1.063009093633633</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.015305163021879</v>
+        <v>1.878099917386038</v>
       </c>
       <c r="D10">
-        <v>1.015305163021879</v>
+        <v>1.878099917386038</v>
       </c>
       <c r="E10">
-        <v>1.000066655057354</v>
+        <v>0.8477508457936932</v>
       </c>
       <c r="F10">
-        <v>1.000457803378898</v>
+        <v>1.034755262523813</v>
       </c>
       <c r="G10">
-        <v>1.007080843681339</v>
+        <v>1.123705457729142</v>
       </c>
       <c r="H10">
-        <v>0.9940393541592164</v>
+        <v>0.9365433207757889</v>
       </c>
       <c r="I10">
-        <v>0.9901476951073744</v>
+        <v>1.244726622809756</v>
       </c>
       <c r="J10">
-        <v>0.9950379282937707</v>
+        <v>0.6551288635255463</v>
       </c>
       <c r="K10">
-        <v>0.9943584727603056</v>
+        <v>0.7749401590392168</v>
       </c>
       <c r="L10">
-        <v>0.9901476951073744</v>
+        <v>1.244726622809756</v>
       </c>
       <c r="M10">
-        <v>1.015305163021879</v>
+        <v>1.878099917386038</v>
       </c>
       <c r="N10">
-        <v>1.015305163021879</v>
+        <v>1.878099917386038</v>
       </c>
       <c r="O10">
-        <v>0.9943584727603056</v>
+        <v>0.7749401590392168</v>
       </c>
       <c r="P10">
-        <v>0.99225308393384</v>
+        <v>1.009833390924487</v>
       </c>
       <c r="Q10">
-        <v>0.9972125639088301</v>
+        <v>0.811345502416455</v>
       </c>
       <c r="R10">
-        <v>0.9999371102965199</v>
+        <v>1.29925556641167</v>
       </c>
       <c r="S10">
-        <v>0.9948576076416783</v>
+        <v>0.9558058758808888</v>
       </c>
       <c r="T10">
-        <v>0.9999371102965199</v>
+        <v>1.29925556641167</v>
       </c>
       <c r="U10">
-        <v>0.9999694964867285</v>
+        <v>1.186379386257176</v>
       </c>
       <c r="V10">
-        <v>1.003036629793759</v>
+        <v>1.324723492482948</v>
       </c>
       <c r="W10">
-        <v>0.9995617394325172</v>
+        <v>1.061956306197874</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.030751830594453</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="D11">
-        <v>1.030751830594453</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="E11">
-        <v>0.9989639045815173</v>
+        <v>0.9992001722045938</v>
       </c>
       <c r="F11">
-        <v>1.000824126437104</v>
+        <v>1.00255095915561</v>
       </c>
       <c r="G11">
-        <v>1.01186988831457</v>
+        <v>1.003620074914059</v>
       </c>
       <c r="H11">
-        <v>0.9896480407178534</v>
+        <v>0.9896443902709321</v>
       </c>
       <c r="I11">
-        <v>0.9846571589476557</v>
+        <v>0.9770175631538608</v>
       </c>
       <c r="J11">
-        <v>0.9905442976668357</v>
+        <v>1.001136756498077</v>
       </c>
       <c r="K11">
-        <v>0.9892541801541402</v>
+        <v>1.002940946052802</v>
       </c>
       <c r="L11">
-        <v>0.9846571589476557</v>
+        <v>0.9770175631538608</v>
       </c>
       <c r="M11">
-        <v>1.030751830594453</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="N11">
-        <v>1.030751830594453</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="O11">
-        <v>0.9892541801541402</v>
+        <v>1.002940946052802</v>
       </c>
       <c r="P11">
-        <v>0.986955669550898</v>
+        <v>0.9899792546033312</v>
       </c>
       <c r="Q11">
-        <v>0.9941090423678287</v>
+        <v>1.001070559128698</v>
       </c>
       <c r="R11">
-        <v>1.00155438989875</v>
+        <v>0.9970063805074899</v>
       </c>
       <c r="S11">
-        <v>0.9909584145611045</v>
+        <v>0.9930528938037521</v>
       </c>
       <c r="T11">
-        <v>1.00155438989875</v>
+        <v>0.9970063805074899</v>
       </c>
       <c r="U11">
-        <v>1.000906768569441</v>
+        <v>0.9975548284317659</v>
       </c>
       <c r="V11">
-        <v>1.006875780974444</v>
+        <v>1.000255989208574</v>
       </c>
       <c r="W11">
-        <v>0.9995641784267663</v>
+        <v>0.9983964368207177</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7548672593532204</v>
+        <v>1.005437345989658</v>
       </c>
       <c r="D12">
-        <v>0.7548672593532204</v>
+        <v>1.005437345989658</v>
       </c>
       <c r="E12">
-        <v>1.172089117468263</v>
+        <v>0.9995024158094592</v>
       </c>
       <c r="F12">
-        <v>0.858168635575365</v>
+        <v>1.001846884841509</v>
       </c>
       <c r="G12">
-        <v>1.036562543089765</v>
+        <v>1.00223611194552</v>
       </c>
       <c r="H12">
-        <v>1.129939981651307</v>
+        <v>0.9940583445111575</v>
       </c>
       <c r="I12">
-        <v>0.9627277540342154</v>
+        <v>0.9876009114572553</v>
       </c>
       <c r="J12">
-        <v>1.097304415961282</v>
+        <v>1.000184021609844</v>
       </c>
       <c r="K12">
-        <v>0.8420337415758369</v>
+        <v>1.002286218523994</v>
       </c>
       <c r="L12">
-        <v>0.9627277540342154</v>
+        <v>0.9876009114572553</v>
       </c>
       <c r="M12">
-        <v>0.7548672593532204</v>
+        <v>1.005437345989658</v>
       </c>
       <c r="N12">
-        <v>0.7548672593532204</v>
+        <v>1.005437345989658</v>
       </c>
       <c r="O12">
-        <v>0.8420337415758369</v>
+        <v>1.002286218523994</v>
       </c>
       <c r="P12">
-        <v>0.9023807478050261</v>
+        <v>0.9949435649906244</v>
       </c>
       <c r="Q12">
-        <v>1.00706142952205</v>
+        <v>1.000894317166726</v>
       </c>
       <c r="R12">
-        <v>0.8532095849877575</v>
+        <v>0.9984414919903023</v>
       </c>
       <c r="S12">
-        <v>0.9922835376927717</v>
+        <v>0.996463181930236</v>
       </c>
       <c r="T12">
-        <v>0.8532095849877576</v>
+        <v>0.9984414919903023</v>
       </c>
       <c r="U12">
-        <v>0.9329294681078839</v>
+        <v>0.9987067229450914</v>
       </c>
       <c r="V12">
-        <v>0.8973170263569512</v>
+        <v>1.000052847554005</v>
       </c>
       <c r="W12">
-        <v>0.9817116810886569</v>
+        <v>0.9991440318360496</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.085968231885332</v>
+        <v>1.01752932043911</v>
       </c>
       <c r="D13">
-        <v>1.085968231885332</v>
+        <v>1.01752932043911</v>
       </c>
       <c r="E13">
-        <v>0.8488265689022484</v>
+        <v>0.9983594568124903</v>
       </c>
       <c r="F13">
-        <v>1.063142131349222</v>
+        <v>1.008248498043736</v>
       </c>
       <c r="G13">
-        <v>0.8659968581113571</v>
+        <v>1.00872561171155</v>
       </c>
       <c r="H13">
-        <v>1.035190179801377</v>
+        <v>0.9759279170782968</v>
       </c>
       <c r="I13">
-        <v>1.327818358188542</v>
+        <v>0.9477581231772708</v>
       </c>
       <c r="J13">
-        <v>0.9591680141669633</v>
+        <v>1.001749040248725</v>
       </c>
       <c r="K13">
-        <v>1.13295623885233</v>
+        <v>1.010530953082047</v>
       </c>
       <c r="L13">
-        <v>1.327818358188542</v>
+        <v>0.9477581231772708</v>
       </c>
       <c r="M13">
-        <v>1.085968231885332</v>
+        <v>1.01752932043911</v>
       </c>
       <c r="N13">
-        <v>1.085968231885332</v>
+        <v>1.01752932043911</v>
       </c>
       <c r="O13">
-        <v>1.13295623885233</v>
+        <v>1.010530953082047</v>
       </c>
       <c r="P13">
-        <v>1.230387298520436</v>
+        <v>0.9791445381296588</v>
       </c>
       <c r="Q13">
-        <v>0.9908914038772891</v>
+        <v>1.004445204947269</v>
       </c>
       <c r="R13">
-        <v>1.182247609642068</v>
+        <v>0.9919394655661428</v>
       </c>
       <c r="S13">
-        <v>1.103200388647707</v>
+        <v>0.985549511023936</v>
       </c>
       <c r="T13">
-        <v>1.182247609642068</v>
+        <v>0.9919394655661428</v>
       </c>
       <c r="U13">
-        <v>1.098892349457113</v>
+        <v>0.9935444633777296</v>
       </c>
       <c r="V13">
-        <v>1.096307525942757</v>
+        <v>0.9983414347900059</v>
       </c>
       <c r="W13">
-        <v>1.039883322657171</v>
+        <v>0.9961036150741531</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6118761298839663</v>
+        <v>1.011203346480108</v>
       </c>
       <c r="D14">
-        <v>0.6118761298839663</v>
+        <v>1.011203346480108</v>
       </c>
       <c r="E14">
-        <v>0.648247195792106</v>
+        <v>1.00149527582667</v>
       </c>
       <c r="F14">
-        <v>1.577416227217531</v>
+        <v>1.007018225974747</v>
       </c>
       <c r="G14">
-        <v>0.8003394716340935</v>
+        <v>1.009495849731845</v>
       </c>
       <c r="H14">
-        <v>0.3789046812554486</v>
+        <v>0.9713165991913455</v>
       </c>
       <c r="I14">
-        <v>0.1309952242496458</v>
+        <v>0.9311872228401503</v>
       </c>
       <c r="J14">
-        <v>1.162433604120343</v>
+        <v>1.008775984887672</v>
       </c>
       <c r="K14">
-        <v>2.078925007802522</v>
+        <v>1.013555187956248</v>
       </c>
       <c r="L14">
-        <v>0.1309952242496458</v>
+        <v>0.9311872228401503</v>
       </c>
       <c r="M14">
-        <v>0.6118761298839663</v>
+        <v>1.011203346480108</v>
       </c>
       <c r="N14">
-        <v>0.6118761298839663</v>
+        <v>1.011203346480108</v>
       </c>
       <c r="O14">
-        <v>2.078925007802522</v>
+        <v>1.013555187956248</v>
       </c>
       <c r="P14">
-        <v>1.104960116026084</v>
+        <v>0.9723712053981991</v>
       </c>
       <c r="Q14">
-        <v>1.363586101797314</v>
+        <v>1.007525231891459</v>
       </c>
       <c r="R14">
-        <v>0.9405987873120448</v>
+        <v>0.9853152524255021</v>
       </c>
       <c r="S14">
-        <v>0.9527224759480913</v>
+        <v>0.9820792288743562</v>
       </c>
       <c r="T14">
-        <v>0.9405987873120448</v>
+        <v>0.9853152524255021</v>
       </c>
       <c r="U14">
-        <v>0.8675108894320601</v>
+        <v>0.9893602582757941</v>
       </c>
       <c r="V14">
-        <v>0.8163839375224413</v>
+        <v>0.993728875916657</v>
       </c>
       <c r="W14">
-        <v>0.923642192744457</v>
+        <v>0.9942559616110984</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.385168613528747</v>
+        <v>1.004194210377972</v>
       </c>
       <c r="D15">
-        <v>1.385168613528747</v>
+        <v>1.004194210377972</v>
       </c>
       <c r="E15">
-        <v>1.165847523771667</v>
+        <v>1.00070414201034</v>
       </c>
       <c r="F15">
-        <v>0.8528757068022605</v>
+        <v>1.002182822022073</v>
       </c>
       <c r="G15">
-        <v>1.272094853981119</v>
+        <v>1.003224711195178</v>
       </c>
       <c r="H15">
-        <v>0.9767146643142903</v>
+        <v>0.9896809809555815</v>
       </c>
       <c r="I15">
-        <v>0.7272515901625779</v>
+        <v>0.9744913900606066</v>
       </c>
       <c r="J15">
-        <v>0.892326066088787</v>
+        <v>1.003694798764261</v>
       </c>
       <c r="K15">
-        <v>0.5477037836539453</v>
+        <v>1.004992018729938</v>
       </c>
       <c r="L15">
-        <v>0.7272515901625779</v>
+        <v>0.9744913900606066</v>
       </c>
       <c r="M15">
-        <v>1.385168613528747</v>
+        <v>1.004194210377972</v>
       </c>
       <c r="N15">
-        <v>1.385168613528747</v>
+        <v>1.004194210377972</v>
       </c>
       <c r="O15">
-        <v>0.5477037836539453</v>
+        <v>1.004992018729938</v>
       </c>
       <c r="P15">
-        <v>0.6374776869082617</v>
+        <v>0.9897417043952725</v>
       </c>
       <c r="Q15">
-        <v>0.856775653712806</v>
+        <v>1.002848080370139</v>
       </c>
       <c r="R15">
-        <v>0.8867079957817566</v>
+        <v>0.9945592063895056</v>
       </c>
       <c r="S15">
-        <v>0.81360096586273</v>
+        <v>0.9933958502669616</v>
       </c>
       <c r="T15">
-        <v>0.8867079957817566</v>
+        <v>0.9945592063895056</v>
       </c>
       <c r="U15">
-        <v>0.9564928777792341</v>
+        <v>0.9960954402947141</v>
       </c>
       <c r="V15">
-        <v>1.042228024929136</v>
+        <v>0.9977151943113656</v>
       </c>
       <c r="W15">
-        <v>0.9774978502879241</v>
+        <v>0.9978956342644938</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.08304563984062</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="D16">
-        <v>1.08304563984062</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="E16">
-        <v>1.005475247388437</v>
+        <v>1.00114004576836</v>
       </c>
       <c r="F16">
-        <v>1.053143755600687</v>
+        <v>1.004504026413649</v>
       </c>
       <c r="G16">
-        <v>1.064149254654318</v>
+        <v>1.00635253165193</v>
       </c>
       <c r="H16">
-        <v>0.8027036754991882</v>
+        <v>0.9803615324455899</v>
       </c>
       <c r="I16">
-        <v>0.5314495750803853</v>
+        <v>0.9519197750248702</v>
       </c>
       <c r="J16">
-        <v>1.054881873432218</v>
+        <v>1.006304013726786</v>
       </c>
       <c r="K16">
-        <v>1.095234167430473</v>
+        <v>1.009591948287714</v>
       </c>
       <c r="L16">
-        <v>0.5314495750803853</v>
+        <v>0.9519197750248702</v>
       </c>
       <c r="M16">
-        <v>1.08304563984062</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="N16">
-        <v>1.08304563984062</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="O16">
-        <v>1.095234167430473</v>
+        <v>1.009591948287714</v>
       </c>
       <c r="P16">
-        <v>0.813341871255429</v>
+        <v>0.9807558616562922</v>
       </c>
       <c r="Q16">
-        <v>1.050354707409455</v>
+        <v>1.005365997028037</v>
       </c>
       <c r="R16">
-        <v>0.9032431274504927</v>
+        <v>0.9899900783073812</v>
       </c>
       <c r="S16">
-        <v>0.8773863299664318</v>
+        <v>0.9875505896936483</v>
       </c>
       <c r="T16">
-        <v>0.9032431274504927</v>
+        <v>0.9899900783073812</v>
       </c>
       <c r="U16">
-        <v>0.9288011574349789</v>
+        <v>0.9927775701726259</v>
       </c>
       <c r="V16">
-        <v>0.9596500539161072</v>
+        <v>0.9959137584600125</v>
       </c>
       <c r="W16">
-        <v>0.9612603986157908</v>
+        <v>0.9960790481160574</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.089424574499348</v>
+        <v>1.016111940647824</v>
       </c>
       <c r="D17">
-        <v>1.089424574499348</v>
+        <v>1.016111940647824</v>
       </c>
       <c r="E17">
-        <v>1.00709726353879</v>
+        <v>1.002962558699947</v>
       </c>
       <c r="F17">
-        <v>1.040095801507258</v>
+        <v>1.007928667703986</v>
       </c>
       <c r="G17">
-        <v>1.068508401395452</v>
+        <v>1.012504058009541</v>
       </c>
       <c r="H17">
-        <v>0.8466059781290125</v>
+        <v>0.9620340333123801</v>
       </c>
       <c r="I17">
-        <v>0.6479072451055704</v>
+        <v>0.9069182439379532</v>
       </c>
       <c r="J17">
-        <v>1.021372019941795</v>
+        <v>1.012792140859174</v>
       </c>
       <c r="K17">
-        <v>1.048777901748714</v>
+        <v>1.017680771769836</v>
       </c>
       <c r="L17">
-        <v>0.6479072451055704</v>
+        <v>0.9069182439379532</v>
       </c>
       <c r="M17">
-        <v>1.089424574499348</v>
+        <v>1.016111940647824</v>
       </c>
       <c r="N17">
-        <v>1.089424574499348</v>
+        <v>1.016111940647824</v>
       </c>
       <c r="O17">
-        <v>1.048777901748714</v>
+        <v>1.017680771769836</v>
       </c>
       <c r="P17">
-        <v>0.8483425734271424</v>
+        <v>0.9622995078538947</v>
       </c>
       <c r="Q17">
-        <v>1.027937582643752</v>
+        <v>1.010321665234892</v>
       </c>
       <c r="R17">
-        <v>0.9287032404512109</v>
+        <v>0.9802369854518712</v>
       </c>
       <c r="S17">
-        <v>0.9012608034643582</v>
+        <v>0.9758538581359121</v>
       </c>
       <c r="T17">
-        <v>0.9287032404512109</v>
+        <v>0.9802369854518712</v>
       </c>
       <c r="U17">
-        <v>0.9483017462231056</v>
+        <v>0.9859183787638901</v>
       </c>
       <c r="V17">
-        <v>0.976526311878354</v>
+        <v>0.9919570911406769</v>
       </c>
       <c r="W17">
-        <v>0.9712236482332426</v>
+        <v>0.9923665518675802</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.103792653977254</v>
+        <v>1.034254123332702</v>
       </c>
       <c r="D18">
-        <v>1.103792653977254</v>
+        <v>1.034254123332702</v>
       </c>
       <c r="E18">
-        <v>1.009575874518605</v>
+        <v>1.004648415603268</v>
       </c>
       <c r="F18">
-        <v>1.014245604741875</v>
+        <v>1.008199877332493</v>
       </c>
       <c r="G18">
-        <v>1.076488900252678</v>
+        <v>1.014172981140968</v>
       </c>
       <c r="H18">
-        <v>0.9340810474557821</v>
+        <v>0.9422452767854265</v>
       </c>
       <c r="I18">
-        <v>0.880492546163145</v>
+        <v>0.8680588310891142</v>
       </c>
       <c r="J18">
-        <v>0.9545906115181881</v>
+        <v>1.022829906699252</v>
       </c>
       <c r="K18">
-        <v>0.9564860416415587</v>
+        <v>1.023283500785626</v>
       </c>
       <c r="L18">
-        <v>0.880492546163145</v>
+        <v>0.8680588310891142</v>
       </c>
       <c r="M18">
-        <v>1.103792653977254</v>
+        <v>1.034254123332702</v>
       </c>
       <c r="N18">
-        <v>1.103792653977254</v>
+        <v>1.034254123332702</v>
       </c>
       <c r="O18">
-        <v>0.9564860416415587</v>
+        <v>1.023283500785626</v>
       </c>
       <c r="P18">
-        <v>0.9184892939023519</v>
+        <v>0.9456711659373699</v>
       </c>
       <c r="Q18">
-        <v>0.983030958080082</v>
+        <v>1.013965958194447</v>
       </c>
       <c r="R18">
-        <v>0.980257080593986</v>
+        <v>0.9751988184024807</v>
       </c>
       <c r="S18">
-        <v>0.948851487441103</v>
+        <v>0.965330249159336</v>
       </c>
       <c r="T18">
-        <v>0.980257080593986</v>
+        <v>0.9751988184024807</v>
       </c>
       <c r="U18">
-        <v>0.9875867790751408</v>
+        <v>0.9825612177026776</v>
       </c>
       <c r="V18">
-        <v>1.010827954055564</v>
+        <v>0.9928997988286824</v>
       </c>
       <c r="W18">
-        <v>0.9912191600336359</v>
+        <v>0.9897116140961061</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.106663092529688</v>
+        <v>1.001307411885746</v>
       </c>
       <c r="D19">
-        <v>1.106663092529688</v>
+        <v>1.001307411885746</v>
       </c>
       <c r="E19">
-        <v>1.034080543779235</v>
+        <v>1.000174947673731</v>
       </c>
       <c r="F19">
-        <v>0.9993337326571193</v>
+        <v>1.000016888021242</v>
       </c>
       <c r="G19">
-        <v>1.10505287416756</v>
+        <v>1.00092094422915</v>
       </c>
       <c r="H19">
-        <v>0.9316808205555763</v>
+        <v>0.9993815832958406</v>
       </c>
       <c r="I19">
-        <v>0.8438284470336567</v>
+        <v>0.9988622143851729</v>
       </c>
       <c r="J19">
-        <v>0.9517430778807192</v>
+        <v>0.9994329196696426</v>
       </c>
       <c r="K19">
-        <v>0.9226970757784378</v>
+        <v>0.9993499849256167</v>
       </c>
       <c r="L19">
-        <v>0.8438284470336567</v>
+        <v>0.9988622143851729</v>
       </c>
       <c r="M19">
-        <v>1.106663092529688</v>
+        <v>1.001307411885746</v>
       </c>
       <c r="N19">
-        <v>1.106663092529688</v>
+        <v>1.001307411885746</v>
       </c>
       <c r="O19">
-        <v>0.9226970757784378</v>
+        <v>0.9993499849256167</v>
       </c>
       <c r="P19">
-        <v>0.8832627614060473</v>
+        <v>0.9991060996553948</v>
       </c>
       <c r="Q19">
-        <v>0.9783888097788364</v>
+        <v>0.9997624662996737</v>
       </c>
       <c r="R19">
-        <v>0.9577295384472609</v>
+        <v>0.9998398703988453</v>
       </c>
       <c r="S19">
-        <v>0.9335353555304432</v>
+        <v>0.9994623823281734</v>
       </c>
       <c r="T19">
-        <v>0.9577295384472609</v>
+        <v>0.9998398703988453</v>
       </c>
       <c r="U19">
-        <v>0.9768172897802544</v>
+        <v>0.9999236397175666</v>
       </c>
       <c r="V19">
-        <v>1.002786450330141</v>
+        <v>1.000200394151203</v>
       </c>
       <c r="W19">
-        <v>0.986884958047749</v>
+        <v>0.9999308617607678</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9970851739544485</v>
+        <v>1.004109543326858</v>
       </c>
       <c r="D20">
-        <v>0.9970851739544485</v>
+        <v>1.004109543326858</v>
       </c>
       <c r="E20">
-        <v>0.9992727854787752</v>
+        <v>1.000208543893813</v>
       </c>
       <c r="F20">
-        <v>1.001224065895117</v>
+        <v>1.000169102069086</v>
       </c>
       <c r="G20">
-        <v>0.9990902888750861</v>
+        <v>1.002523925386602</v>
       </c>
       <c r="H20">
-        <v>0.9992645902037842</v>
+        <v>0.9980948646756863</v>
       </c>
       <c r="I20">
-        <v>0.9996415695687344</v>
+        <v>0.9970439035894301</v>
       </c>
       <c r="J20">
-        <v>1.000634829118338</v>
+        <v>0.9983463609900242</v>
       </c>
       <c r="K20">
-        <v>1.003151391647973</v>
+        <v>0.9980551685454122</v>
       </c>
       <c r="L20">
-        <v>0.9996415695687344</v>
+        <v>0.9970439035894301</v>
       </c>
       <c r="M20">
-        <v>0.9970851739544485</v>
+        <v>1.004109543326858</v>
       </c>
       <c r="N20">
-        <v>0.9970851739544485</v>
+        <v>1.004109543326858</v>
       </c>
       <c r="O20">
-        <v>1.003151391647973</v>
+        <v>0.9980551685454122</v>
       </c>
       <c r="P20">
-        <v>1.001396480608354</v>
+        <v>0.9975495360674211</v>
       </c>
       <c r="Q20">
-        <v>1.001212088563374</v>
+        <v>0.9991318562196126</v>
       </c>
       <c r="R20">
-        <v>0.9999593783903853</v>
+        <v>0.9997362051539002</v>
       </c>
       <c r="S20">
-        <v>1.000688582231828</v>
+        <v>0.9984358720095518</v>
       </c>
       <c r="T20">
-        <v>0.9999593783903853</v>
+        <v>0.9997362051539002</v>
       </c>
       <c r="U20">
-        <v>0.9997877301624828</v>
+        <v>0.9998542898388785</v>
       </c>
       <c r="V20">
-        <v>0.999247218920876</v>
+        <v>1.000705340536474</v>
       </c>
       <c r="W20">
-        <v>0.9999205868427821</v>
+        <v>0.9998189265596141</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.005366309115325</v>
+        <v>1.008200115740088</v>
       </c>
       <c r="D21">
-        <v>1.005366309115325</v>
+        <v>1.008200115740088</v>
       </c>
       <c r="E21">
-        <v>1.001693287019259</v>
+        <v>0.9996961387580425</v>
       </c>
       <c r="F21">
-        <v>0.9982113808024738</v>
+        <v>1.000289742228028</v>
       </c>
       <c r="G21">
-        <v>1.002775539558388</v>
+        <v>1.003151426885531</v>
       </c>
       <c r="H21">
-        <v>1.00065776332163</v>
+        <v>0.9971843083658073</v>
       </c>
       <c r="I21">
-        <v>0.9994767172975132</v>
+        <v>0.9956700428736668</v>
       </c>
       <c r="J21">
-        <v>0.9979338586651018</v>
+        <v>0.9974744687961057</v>
       </c>
       <c r="K21">
-        <v>0.9944554110654793</v>
+        <v>0.9973000873191209</v>
       </c>
       <c r="L21">
-        <v>0.9994767172975132</v>
+        <v>0.9956700428736668</v>
       </c>
       <c r="M21">
-        <v>1.005366309115325</v>
+        <v>1.008200115740088</v>
       </c>
       <c r="N21">
-        <v>1.005366309115325</v>
+        <v>1.008200115740088</v>
       </c>
       <c r="O21">
-        <v>0.9944554110654793</v>
+        <v>0.9973000873191209</v>
       </c>
       <c r="P21">
-        <v>0.9969660641814962</v>
+        <v>0.9964850650963939</v>
       </c>
       <c r="Q21">
-        <v>0.9980743490423694</v>
+        <v>0.9984981130385817</v>
       </c>
       <c r="R21">
-        <v>0.9997661458261057</v>
+        <v>1.000390081977625</v>
       </c>
       <c r="S21">
-        <v>0.9985418051274172</v>
+        <v>0.9975554229836101</v>
       </c>
       <c r="T21">
-        <v>0.9997661458261057</v>
+        <v>1.000390081977625</v>
       </c>
       <c r="U21">
-        <v>1.000247931124394</v>
+        <v>1.000216596172729</v>
       </c>
       <c r="V21">
-        <v>1.00127160672258</v>
+        <v>1.001813300086201</v>
       </c>
       <c r="W21">
-        <v>1.000071283355646</v>
+        <v>0.9998707913707987</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9925128949938824</v>
+        <v>1.015305163021879</v>
       </c>
       <c r="D22">
-        <v>0.9925128949938824</v>
+        <v>1.015305163021879</v>
       </c>
       <c r="E22">
-        <v>0.9980567588130609</v>
+        <v>1.000066655057354</v>
       </c>
       <c r="F22">
-        <v>1.004539406336826</v>
+        <v>1.000457803378898</v>
       </c>
       <c r="G22">
-        <v>0.9975859272070862</v>
+        <v>1.007080843681339</v>
       </c>
       <c r="H22">
-        <v>0.9947735979400218</v>
+        <v>0.9940393541592164</v>
       </c>
       <c r="I22">
-        <v>0.9911347858643217</v>
+        <v>0.9901476951073744</v>
       </c>
       <c r="J22">
-        <v>1.002990489796099</v>
+        <v>0.9950379282937707</v>
       </c>
       <c r="K22">
-        <v>1.013074878212906</v>
+        <v>0.9943584727603056</v>
       </c>
       <c r="L22">
-        <v>0.9911347858643217</v>
+        <v>0.9901476951073744</v>
       </c>
       <c r="M22">
-        <v>0.9925128949938824</v>
+        <v>1.015305163021879</v>
       </c>
       <c r="N22">
-        <v>0.9925128949938824</v>
+        <v>1.015305163021879</v>
       </c>
       <c r="O22">
-        <v>1.013074878212906</v>
+        <v>0.9943584727603056</v>
       </c>
       <c r="P22">
-        <v>1.002104832038614</v>
+        <v>0.99225308393384</v>
       </c>
       <c r="Q22">
-        <v>1.005565818512984</v>
+        <v>0.9972125639088301</v>
       </c>
       <c r="R22">
-        <v>0.9989075196903702</v>
+        <v>0.9999371102965199</v>
       </c>
       <c r="S22">
-        <v>1.000755474296763</v>
+        <v>0.9948576076416783</v>
       </c>
       <c r="T22">
-        <v>0.9989075196903702</v>
+        <v>0.9999371102965199</v>
       </c>
       <c r="U22">
-        <v>0.9986948294710428</v>
+        <v>0.9999694964867285</v>
       </c>
       <c r="V22">
-        <v>0.9974584425756108</v>
+        <v>1.003036629793759</v>
       </c>
       <c r="W22">
-        <v>0.9993335923955255</v>
+        <v>0.9995617394325172</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.030751830594453</v>
+      </c>
+      <c r="D23">
+        <v>1.030751830594453</v>
+      </c>
+      <c r="E23">
+        <v>0.9989639045815173</v>
+      </c>
+      <c r="F23">
+        <v>1.000824126437104</v>
+      </c>
+      <c r="G23">
+        <v>1.01186988831457</v>
+      </c>
+      <c r="H23">
+        <v>0.9896480407178534</v>
+      </c>
+      <c r="I23">
+        <v>0.9846571589476557</v>
+      </c>
+      <c r="J23">
+        <v>0.9905442976668357</v>
+      </c>
+      <c r="K23">
+        <v>0.9892541801541402</v>
+      </c>
+      <c r="L23">
+        <v>0.9846571589476557</v>
+      </c>
+      <c r="M23">
+        <v>1.030751830594453</v>
+      </c>
+      <c r="N23">
+        <v>1.030751830594453</v>
+      </c>
+      <c r="O23">
+        <v>0.9892541801541402</v>
+      </c>
+      <c r="P23">
+        <v>0.986955669550898</v>
+      </c>
+      <c r="Q23">
+        <v>0.9941090423678287</v>
+      </c>
+      <c r="R23">
+        <v>1.00155438989875</v>
+      </c>
+      <c r="S23">
+        <v>0.9909584145611045</v>
+      </c>
+      <c r="T23">
+        <v>1.00155438989875</v>
+      </c>
+      <c r="U23">
+        <v>1.000906768569441</v>
+      </c>
+      <c r="V23">
+        <v>1.006875780974444</v>
+      </c>
+      <c r="W23">
+        <v>0.9995641784267663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7548672593532204</v>
+      </c>
+      <c r="D24">
+        <v>0.7548672593532204</v>
+      </c>
+      <c r="E24">
+        <v>1.172089117468263</v>
+      </c>
+      <c r="F24">
+        <v>0.858168635575365</v>
+      </c>
+      <c r="G24">
+        <v>1.036562543089765</v>
+      </c>
+      <c r="H24">
+        <v>1.129939981651307</v>
+      </c>
+      <c r="I24">
+        <v>0.9627277540342154</v>
+      </c>
+      <c r="J24">
+        <v>1.097304415961282</v>
+      </c>
+      <c r="K24">
+        <v>0.8420337415758369</v>
+      </c>
+      <c r="L24">
+        <v>0.9627277540342154</v>
+      </c>
+      <c r="M24">
+        <v>0.7548672593532204</v>
+      </c>
+      <c r="N24">
+        <v>0.7548672593532204</v>
+      </c>
+      <c r="O24">
+        <v>0.8420337415758369</v>
+      </c>
+      <c r="P24">
+        <v>0.9023807478050261</v>
+      </c>
+      <c r="Q24">
+        <v>1.00706142952205</v>
+      </c>
+      <c r="R24">
+        <v>0.8532095849877575</v>
+      </c>
+      <c r="S24">
+        <v>0.9922835376927717</v>
+      </c>
+      <c r="T24">
+        <v>0.8532095849877576</v>
+      </c>
+      <c r="U24">
+        <v>0.9329294681078839</v>
+      </c>
+      <c r="V24">
+        <v>0.8973170263569512</v>
+      </c>
+      <c r="W24">
+        <v>0.9817116810886569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.085968231885332</v>
+      </c>
+      <c r="D25">
+        <v>1.085968231885332</v>
+      </c>
+      <c r="E25">
+        <v>0.8488265689022484</v>
+      </c>
+      <c r="F25">
+        <v>1.063142131349222</v>
+      </c>
+      <c r="G25">
+        <v>0.8659968581113571</v>
+      </c>
+      <c r="H25">
+        <v>1.035190179801377</v>
+      </c>
+      <c r="I25">
+        <v>1.327818358188542</v>
+      </c>
+      <c r="J25">
+        <v>0.9591680141669633</v>
+      </c>
+      <c r="K25">
+        <v>1.13295623885233</v>
+      </c>
+      <c r="L25">
+        <v>1.327818358188542</v>
+      </c>
+      <c r="M25">
+        <v>1.085968231885332</v>
+      </c>
+      <c r="N25">
+        <v>1.085968231885332</v>
+      </c>
+      <c r="O25">
+        <v>1.13295623885233</v>
+      </c>
+      <c r="P25">
+        <v>1.230387298520436</v>
+      </c>
+      <c r="Q25">
+        <v>0.9908914038772891</v>
+      </c>
+      <c r="R25">
+        <v>1.182247609642068</v>
+      </c>
+      <c r="S25">
+        <v>1.103200388647707</v>
+      </c>
+      <c r="T25">
+        <v>1.182247609642068</v>
+      </c>
+      <c r="U25">
+        <v>1.098892349457113</v>
+      </c>
+      <c r="V25">
+        <v>1.096307525942757</v>
+      </c>
+      <c r="W25">
+        <v>1.039883322657171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.6118761298839663</v>
+      </c>
+      <c r="D26">
+        <v>0.6118761298839663</v>
+      </c>
+      <c r="E26">
+        <v>0.648247195792106</v>
+      </c>
+      <c r="F26">
+        <v>1.577416227217531</v>
+      </c>
+      <c r="G26">
+        <v>0.8003394716340935</v>
+      </c>
+      <c r="H26">
+        <v>0.3789046812554486</v>
+      </c>
+      <c r="I26">
+        <v>0.1309952242496458</v>
+      </c>
+      <c r="J26">
+        <v>1.162433604120343</v>
+      </c>
+      <c r="K26">
+        <v>2.078925007802522</v>
+      </c>
+      <c r="L26">
+        <v>0.1309952242496458</v>
+      </c>
+      <c r="M26">
+        <v>0.6118761298839663</v>
+      </c>
+      <c r="N26">
+        <v>0.6118761298839663</v>
+      </c>
+      <c r="O26">
+        <v>2.078925007802522</v>
+      </c>
+      <c r="P26">
+        <v>1.104960116026084</v>
+      </c>
+      <c r="Q26">
+        <v>1.363586101797314</v>
+      </c>
+      <c r="R26">
+        <v>0.9405987873120448</v>
+      </c>
+      <c r="S26">
+        <v>0.9527224759480913</v>
+      </c>
+      <c r="T26">
+        <v>0.9405987873120448</v>
+      </c>
+      <c r="U26">
+        <v>0.8675108894320601</v>
+      </c>
+      <c r="V26">
+        <v>0.8163839375224413</v>
+      </c>
+      <c r="W26">
+        <v>0.923642192744457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.385168613528747</v>
+      </c>
+      <c r="D27">
+        <v>1.385168613528747</v>
+      </c>
+      <c r="E27">
+        <v>1.165847523771667</v>
+      </c>
+      <c r="F27">
+        <v>0.8528757068022605</v>
+      </c>
+      <c r="G27">
+        <v>1.272094853981119</v>
+      </c>
+      <c r="H27">
+        <v>0.9767146643142903</v>
+      </c>
+      <c r="I27">
+        <v>0.7272515901625779</v>
+      </c>
+      <c r="J27">
+        <v>0.892326066088787</v>
+      </c>
+      <c r="K27">
+        <v>0.5477037836539453</v>
+      </c>
+      <c r="L27">
+        <v>0.7272515901625779</v>
+      </c>
+      <c r="M27">
+        <v>1.385168613528747</v>
+      </c>
+      <c r="N27">
+        <v>1.385168613528747</v>
+      </c>
+      <c r="O27">
+        <v>0.5477037836539453</v>
+      </c>
+      <c r="P27">
+        <v>0.6374776869082617</v>
+      </c>
+      <c r="Q27">
+        <v>0.856775653712806</v>
+      </c>
+      <c r="R27">
+        <v>0.8867079957817566</v>
+      </c>
+      <c r="S27">
+        <v>0.81360096586273</v>
+      </c>
+      <c r="T27">
+        <v>0.8867079957817566</v>
+      </c>
+      <c r="U27">
+        <v>0.9564928777792341</v>
+      </c>
+      <c r="V27">
+        <v>1.042228024929136</v>
+      </c>
+      <c r="W27">
+        <v>0.9774978502879241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.08304563984062</v>
+      </c>
+      <c r="D28">
+        <v>1.08304563984062</v>
+      </c>
+      <c r="E28">
+        <v>1.005475247388437</v>
+      </c>
+      <c r="F28">
+        <v>1.053143755600687</v>
+      </c>
+      <c r="G28">
+        <v>1.064149254654318</v>
+      </c>
+      <c r="H28">
+        <v>0.8027036754991882</v>
+      </c>
+      <c r="I28">
+        <v>0.5314495750803853</v>
+      </c>
+      <c r="J28">
+        <v>1.054881873432218</v>
+      </c>
+      <c r="K28">
+        <v>1.095234167430473</v>
+      </c>
+      <c r="L28">
+        <v>0.5314495750803853</v>
+      </c>
+      <c r="M28">
+        <v>1.08304563984062</v>
+      </c>
+      <c r="N28">
+        <v>1.08304563984062</v>
+      </c>
+      <c r="O28">
+        <v>1.095234167430473</v>
+      </c>
+      <c r="P28">
+        <v>0.813341871255429</v>
+      </c>
+      <c r="Q28">
+        <v>1.050354707409455</v>
+      </c>
+      <c r="R28">
+        <v>0.9032431274504927</v>
+      </c>
+      <c r="S28">
+        <v>0.8773863299664318</v>
+      </c>
+      <c r="T28">
+        <v>0.9032431274504927</v>
+      </c>
+      <c r="U28">
+        <v>0.9288011574349789</v>
+      </c>
+      <c r="V28">
+        <v>0.9596500539161072</v>
+      </c>
+      <c r="W28">
+        <v>0.9612603986157908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.089424574499348</v>
+      </c>
+      <c r="D29">
+        <v>1.089424574499348</v>
+      </c>
+      <c r="E29">
+        <v>1.00709726353879</v>
+      </c>
+      <c r="F29">
+        <v>1.040095801507258</v>
+      </c>
+      <c r="G29">
+        <v>1.068508401395452</v>
+      </c>
+      <c r="H29">
+        <v>0.8466059781290125</v>
+      </c>
+      <c r="I29">
+        <v>0.6479072451055704</v>
+      </c>
+      <c r="J29">
+        <v>1.021372019941795</v>
+      </c>
+      <c r="K29">
+        <v>1.048777901748714</v>
+      </c>
+      <c r="L29">
+        <v>0.6479072451055704</v>
+      </c>
+      <c r="M29">
+        <v>1.089424574499348</v>
+      </c>
+      <c r="N29">
+        <v>1.089424574499348</v>
+      </c>
+      <c r="O29">
+        <v>1.048777901748714</v>
+      </c>
+      <c r="P29">
+        <v>0.8483425734271424</v>
+      </c>
+      <c r="Q29">
+        <v>1.027937582643752</v>
+      </c>
+      <c r="R29">
+        <v>0.9287032404512109</v>
+      </c>
+      <c r="S29">
+        <v>0.9012608034643582</v>
+      </c>
+      <c r="T29">
+        <v>0.9287032404512109</v>
+      </c>
+      <c r="U29">
+        <v>0.9483017462231056</v>
+      </c>
+      <c r="V29">
+        <v>0.976526311878354</v>
+      </c>
+      <c r="W29">
+        <v>0.9712236482332426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.103792653977254</v>
+      </c>
+      <c r="D30">
+        <v>1.103792653977254</v>
+      </c>
+      <c r="E30">
+        <v>1.009575874518605</v>
+      </c>
+      <c r="F30">
+        <v>1.014245604741875</v>
+      </c>
+      <c r="G30">
+        <v>1.076488900252678</v>
+      </c>
+      <c r="H30">
+        <v>0.9340810474557821</v>
+      </c>
+      <c r="I30">
+        <v>0.880492546163145</v>
+      </c>
+      <c r="J30">
+        <v>0.9545906115181881</v>
+      </c>
+      <c r="K30">
+        <v>0.9564860416415587</v>
+      </c>
+      <c r="L30">
+        <v>0.880492546163145</v>
+      </c>
+      <c r="M30">
+        <v>1.103792653977254</v>
+      </c>
+      <c r="N30">
+        <v>1.103792653977254</v>
+      </c>
+      <c r="O30">
+        <v>0.9564860416415587</v>
+      </c>
+      <c r="P30">
+        <v>0.9184892939023519</v>
+      </c>
+      <c r="Q30">
+        <v>0.983030958080082</v>
+      </c>
+      <c r="R30">
+        <v>0.980257080593986</v>
+      </c>
+      <c r="S30">
+        <v>0.948851487441103</v>
+      </c>
+      <c r="T30">
+        <v>0.980257080593986</v>
+      </c>
+      <c r="U30">
+        <v>0.9875867790751408</v>
+      </c>
+      <c r="V30">
+        <v>1.010827954055564</v>
+      </c>
+      <c r="W30">
+        <v>0.9912191600336359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.106663092529688</v>
+      </c>
+      <c r="D31">
+        <v>1.106663092529688</v>
+      </c>
+      <c r="E31">
+        <v>1.034080543779235</v>
+      </c>
+      <c r="F31">
+        <v>0.9993337326571193</v>
+      </c>
+      <c r="G31">
+        <v>1.10505287416756</v>
+      </c>
+      <c r="H31">
+        <v>0.9316808205555763</v>
+      </c>
+      <c r="I31">
+        <v>0.8438284470336567</v>
+      </c>
+      <c r="J31">
+        <v>0.9517430778807192</v>
+      </c>
+      <c r="K31">
+        <v>0.9226970757784378</v>
+      </c>
+      <c r="L31">
+        <v>0.8438284470336567</v>
+      </c>
+      <c r="M31">
+        <v>1.106663092529688</v>
+      </c>
+      <c r="N31">
+        <v>1.106663092529688</v>
+      </c>
+      <c r="O31">
+        <v>0.9226970757784378</v>
+      </c>
+      <c r="P31">
+        <v>0.8832627614060473</v>
+      </c>
+      <c r="Q31">
+        <v>0.9783888097788364</v>
+      </c>
+      <c r="R31">
+        <v>0.9577295384472609</v>
+      </c>
+      <c r="S31">
+        <v>0.9335353555304432</v>
+      </c>
+      <c r="T31">
+        <v>0.9577295384472609</v>
+      </c>
+      <c r="U31">
+        <v>0.9768172897802544</v>
+      </c>
+      <c r="V31">
+        <v>1.002786450330141</v>
+      </c>
+      <c r="W31">
+        <v>0.986884958047749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.133748609424658</v>
+      </c>
+      <c r="D32">
+        <v>1.133748609424658</v>
+      </c>
+      <c r="E32">
+        <v>0.9948765595890408</v>
+      </c>
+      <c r="F32">
+        <v>1.067458096438356</v>
+      </c>
+      <c r="G32">
+        <v>1.067756425205479</v>
+      </c>
+      <c r="H32">
+        <v>0.7486786571506849</v>
+      </c>
+      <c r="I32">
+        <v>0.4088314487054795</v>
+      </c>
+      <c r="J32">
+        <v>1.074206739273973</v>
+      </c>
+      <c r="K32">
+        <v>1.128498437260274</v>
+      </c>
+      <c r="L32">
+        <v>0.4088314487054795</v>
+      </c>
+      <c r="M32">
+        <v>1.133748609424658</v>
+      </c>
+      <c r="N32">
+        <v>1.133748609424658</v>
+      </c>
+      <c r="O32">
+        <v>1.128498437260274</v>
+      </c>
+      <c r="P32">
+        <v>0.7686649429828767</v>
+      </c>
+      <c r="Q32">
+        <v>1.061687498424657</v>
+      </c>
+      <c r="R32">
+        <v>0.8903594984634703</v>
+      </c>
+      <c r="S32">
+        <v>0.8440688151849315</v>
+      </c>
+      <c r="T32">
+        <v>0.8903594984634703</v>
+      </c>
+      <c r="U32">
+        <v>0.9164887637448629</v>
+      </c>
+      <c r="V32">
+        <v>0.9599407328808219</v>
+      </c>
+      <c r="W32">
+        <v>0.9530068716309932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8672345984210524</v>
+      </c>
+      <c r="D33">
+        <v>0.8672345984210524</v>
+      </c>
+      <c r="E33">
+        <v>0.7640934242105263</v>
+      </c>
+      <c r="F33">
+        <v>1.536941284210526</v>
+      </c>
+      <c r="G33">
+        <v>1.080195077894737</v>
+      </c>
+      <c r="H33">
+        <v>0.3443973900000001</v>
+      </c>
+      <c r="I33">
+        <v>0.07967040210526316</v>
+      </c>
+      <c r="J33">
+        <v>0.9254137836842103</v>
+      </c>
+      <c r="K33">
+        <v>1.835661583157895</v>
+      </c>
+      <c r="L33">
+        <v>0.07967040210526316</v>
+      </c>
+      <c r="M33">
+        <v>0.8672345984210524</v>
+      </c>
+      <c r="N33">
+        <v>0.8672345984210524</v>
+      </c>
+      <c r="O33">
+        <v>1.835661583157895</v>
+      </c>
+      <c r="P33">
+        <v>0.9576659926315789</v>
+      </c>
+      <c r="Q33">
+        <v>1.299877503684211</v>
+      </c>
+      <c r="R33">
+        <v>0.9275221945614035</v>
+      </c>
+      <c r="S33">
+        <v>0.8931418031578947</v>
+      </c>
+      <c r="T33">
+        <v>0.9275221945614035</v>
+      </c>
+      <c r="U33">
+        <v>0.8866650019736841</v>
+      </c>
+      <c r="V33">
+        <v>0.8827789212631577</v>
+      </c>
+      <c r="W33">
+        <v>0.9292009429605262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.912083033157895</v>
+      </c>
+      <c r="D34">
+        <v>1.912083033157895</v>
+      </c>
+      <c r="E34">
+        <v>0.868441047368421</v>
+      </c>
+      <c r="F34">
+        <v>1.02886292368421</v>
+      </c>
+      <c r="G34">
+        <v>1.17140193</v>
+      </c>
+      <c r="H34">
+        <v>0.9057625058421053</v>
+      </c>
+      <c r="I34">
+        <v>1.164093971989474</v>
+      </c>
+      <c r="J34">
+        <v>0.6432084446842106</v>
+      </c>
+      <c r="K34">
+        <v>0.7414934521052632</v>
+      </c>
+      <c r="L34">
+        <v>1.164093971989474</v>
+      </c>
+      <c r="M34">
+        <v>1.912083033157895</v>
+      </c>
+      <c r="N34">
+        <v>1.912083033157895</v>
+      </c>
+      <c r="O34">
+        <v>0.7414934521052632</v>
+      </c>
+      <c r="P34">
+        <v>0.9527937120473684</v>
+      </c>
+      <c r="Q34">
+        <v>0.8049672497368421</v>
+      </c>
+      <c r="R34">
+        <v>1.272556819084211</v>
+      </c>
+      <c r="S34">
+        <v>0.9246761571543859</v>
+      </c>
+      <c r="T34">
+        <v>1.27255681908421</v>
+      </c>
+      <c r="U34">
+        <v>1.171527876155263</v>
+      </c>
+      <c r="V34">
+        <v>1.319638907555789</v>
+      </c>
+      <c r="W34">
+        <v>1.054418413603947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.349719328351701</v>
+      </c>
+      <c r="D35">
+        <v>1.349719328351701</v>
+      </c>
+      <c r="E35">
+        <v>1.149219708148524</v>
+      </c>
+      <c r="F35">
+        <v>0.9876368128557151</v>
+      </c>
+      <c r="G35">
+        <v>1.450733327112599</v>
+      </c>
+      <c r="H35">
+        <v>0.7540533908199505</v>
+      </c>
+      <c r="I35">
+        <v>0.5138821717937158</v>
+      </c>
+      <c r="J35">
+        <v>0.7683432062432897</v>
+      </c>
+      <c r="K35">
+        <v>0.6895182896903973</v>
+      </c>
+      <c r="L35">
+        <v>0.5138821717937158</v>
+      </c>
+      <c r="M35">
+        <v>1.349719328351701</v>
+      </c>
+      <c r="N35">
+        <v>1.349719328351701</v>
+      </c>
+      <c r="O35">
+        <v>0.6895182896903973</v>
+      </c>
+      <c r="P35">
+        <v>0.6017002307420565</v>
+      </c>
+      <c r="Q35">
+        <v>0.9193689989194604</v>
+      </c>
+      <c r="R35">
+        <v>0.8510399299452714</v>
+      </c>
+      <c r="S35">
+        <v>0.7842067232108789</v>
+      </c>
+      <c r="T35">
+        <v>0.8510399299452714</v>
+      </c>
+      <c r="U35">
+        <v>0.9255848744960844</v>
+      </c>
+      <c r="V35">
+        <v>1.010411765267208</v>
+      </c>
+      <c r="W35">
+        <v>0.9578882793769865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9970851739544485</v>
+      </c>
+      <c r="D36">
+        <v>0.9970851739544485</v>
+      </c>
+      <c r="E36">
+        <v>0.9992727854787752</v>
+      </c>
+      <c r="F36">
+        <v>1.001224065895117</v>
+      </c>
+      <c r="G36">
+        <v>0.9990902888750861</v>
+      </c>
+      <c r="H36">
+        <v>0.9992645902037842</v>
+      </c>
+      <c r="I36">
+        <v>0.9996415695687344</v>
+      </c>
+      <c r="J36">
+        <v>1.000634829118338</v>
+      </c>
+      <c r="K36">
+        <v>1.003151391647973</v>
+      </c>
+      <c r="L36">
+        <v>0.9996415695687344</v>
+      </c>
+      <c r="M36">
+        <v>0.9970851739544485</v>
+      </c>
+      <c r="N36">
+        <v>0.9970851739544485</v>
+      </c>
+      <c r="O36">
+        <v>1.003151391647973</v>
+      </c>
+      <c r="P36">
+        <v>1.001396480608354</v>
+      </c>
+      <c r="Q36">
+        <v>1.001212088563374</v>
+      </c>
+      <c r="R36">
+        <v>0.9999593783903853</v>
+      </c>
+      <c r="S36">
+        <v>1.000688582231828</v>
+      </c>
+      <c r="T36">
+        <v>0.9999593783903853</v>
+      </c>
+      <c r="U36">
+        <v>0.9997877301624828</v>
+      </c>
+      <c r="V36">
+        <v>0.999247218920876</v>
+      </c>
+      <c r="W36">
+        <v>0.9999205868427821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.005366309115325</v>
+      </c>
+      <c r="D37">
+        <v>1.005366309115325</v>
+      </c>
+      <c r="E37">
+        <v>1.001693287019259</v>
+      </c>
+      <c r="F37">
+        <v>0.9982113808024738</v>
+      </c>
+      <c r="G37">
+        <v>1.002775539558388</v>
+      </c>
+      <c r="H37">
+        <v>1.00065776332163</v>
+      </c>
+      <c r="I37">
+        <v>0.9994767172975132</v>
+      </c>
+      <c r="J37">
+        <v>0.9979338586651018</v>
+      </c>
+      <c r="K37">
+        <v>0.9944554110654793</v>
+      </c>
+      <c r="L37">
+        <v>0.9994767172975132</v>
+      </c>
+      <c r="M37">
+        <v>1.005366309115325</v>
+      </c>
+      <c r="N37">
+        <v>1.005366309115325</v>
+      </c>
+      <c r="O37">
+        <v>0.9944554110654793</v>
+      </c>
+      <c r="P37">
+        <v>0.9969660641814962</v>
+      </c>
+      <c r="Q37">
+        <v>0.9980743490423694</v>
+      </c>
+      <c r="R37">
+        <v>0.9997661458261057</v>
+      </c>
+      <c r="S37">
+        <v>0.9985418051274172</v>
+      </c>
+      <c r="T37">
+        <v>0.9997661458261057</v>
+      </c>
+      <c r="U37">
+        <v>1.000247931124394</v>
+      </c>
+      <c r="V37">
+        <v>1.00127160672258</v>
+      </c>
+      <c r="W37">
+        <v>1.000071283355646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9925128949938824</v>
+      </c>
+      <c r="D38">
+        <v>0.9925128949938824</v>
+      </c>
+      <c r="E38">
+        <v>0.9980567588130609</v>
+      </c>
+      <c r="F38">
+        <v>1.004539406336826</v>
+      </c>
+      <c r="G38">
+        <v>0.9975859272070862</v>
+      </c>
+      <c r="H38">
+        <v>0.9947735979400218</v>
+      </c>
+      <c r="I38">
+        <v>0.9911347858643217</v>
+      </c>
+      <c r="J38">
+        <v>1.002990489796099</v>
+      </c>
+      <c r="K38">
+        <v>1.013074878212906</v>
+      </c>
+      <c r="L38">
+        <v>0.9911347858643217</v>
+      </c>
+      <c r="M38">
+        <v>0.9925128949938824</v>
+      </c>
+      <c r="N38">
+        <v>0.9925128949938824</v>
+      </c>
+      <c r="O38">
+        <v>1.013074878212906</v>
+      </c>
+      <c r="P38">
+        <v>1.002104832038614</v>
+      </c>
+      <c r="Q38">
+        <v>1.005565818512984</v>
+      </c>
+      <c r="R38">
+        <v>0.9989075196903702</v>
+      </c>
+      <c r="S38">
+        <v>1.000755474296763</v>
+      </c>
+      <c r="T38">
+        <v>0.9989075196903702</v>
+      </c>
+      <c r="U38">
+        <v>0.9986948294710428</v>
+      </c>
+      <c r="V38">
+        <v>0.9974584425756108</v>
+      </c>
+      <c r="W38">
+        <v>0.9993335923955255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9634660845554845</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9634660845554845</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9878961978487791</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.018206062012611</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9861599853275357</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9817923705744114</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9746422952160019</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.015900945922867</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.047357811339038</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9746422952160019</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9634660845554845</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9634660845554845</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.047357811339038</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.01100005327752</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.017627004593908</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9951553970368415</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.003298768134606</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9951553970368415</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9933405972398259</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9873656947029577</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9969277190995911</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9410283157356997</v>
+      </c>
+      <c r="D40">
+        <v>0.9410283157356997</v>
+      </c>
+      <c r="E40">
+        <v>0.9327838618623804</v>
+      </c>
+      <c r="F40">
+        <v>1.112138791425088</v>
+      </c>
+      <c r="G40">
+        <v>0.9660353266519009</v>
+      </c>
+      <c r="H40">
+        <v>0.8811434328313754</v>
+      </c>
+      <c r="I40">
+        <v>0.8367522965725825</v>
+      </c>
+      <c r="J40">
+        <v>1.018487837568358</v>
+      </c>
+      <c r="K40">
+        <v>1.220702634192021</v>
+      </c>
+      <c r="L40">
+        <v>0.8367522965725825</v>
+      </c>
+      <c r="M40">
+        <v>0.9410283157356997</v>
+      </c>
+      <c r="N40">
+        <v>0.9410283157356997</v>
+      </c>
+      <c r="O40">
+        <v>1.220702634192021</v>
+      </c>
+      <c r="P40">
+        <v>1.028727465382302</v>
+      </c>
+      <c r="Q40">
+        <v>1.076743248027201</v>
+      </c>
+      <c r="R40">
+        <v>0.9994944155001012</v>
+      </c>
+      <c r="S40">
+        <v>0.9967462642089947</v>
+      </c>
+      <c r="T40">
+        <v>0.9994944155001012</v>
+      </c>
+      <c r="U40">
+        <v>0.9828167770906709</v>
+      </c>
+      <c r="V40">
+        <v>0.9744590848196767</v>
+      </c>
+      <c r="W40">
+        <v>0.9886340621049259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9212428727893729</v>
+      </c>
+      <c r="D41">
+        <v>0.9212428727893729</v>
+      </c>
+      <c r="E41">
+        <v>1.042148952285334</v>
+      </c>
+      <c r="F41">
+        <v>0.9152420880961262</v>
+      </c>
+      <c r="G41">
+        <v>0.9619586939233016</v>
+      </c>
+      <c r="H41">
+        <v>1.141155655092673</v>
+      </c>
+      <c r="I41">
+        <v>1.235858036029318</v>
+      </c>
+      <c r="J41">
+        <v>1.01646450229427</v>
+      </c>
+      <c r="K41">
+        <v>0.9113874868390001</v>
+      </c>
+      <c r="L41">
+        <v>1.235858036029318</v>
+      </c>
+      <c r="M41">
+        <v>0.9212428727893729</v>
+      </c>
+      <c r="N41">
+        <v>0.9212428727893729</v>
+      </c>
+      <c r="O41">
+        <v>0.9113874868390001</v>
+      </c>
+      <c r="P41">
+        <v>1.073622761434159</v>
+      </c>
+      <c r="Q41">
+        <v>0.9767682195621668</v>
+      </c>
+      <c r="R41">
+        <v>1.02282946521923</v>
+      </c>
+      <c r="S41">
+        <v>1.063131491717884</v>
+      </c>
+      <c r="T41">
+        <v>1.02282946521923</v>
+      </c>
+      <c r="U41">
+        <v>1.027659336985756</v>
+      </c>
+      <c r="V41">
+        <v>1.006376044146479</v>
+      </c>
+      <c r="W41">
+        <v>1.018182285918674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7724188455555505</v>
+      </c>
+      <c r="D42">
+        <v>0.7724188455555505</v>
+      </c>
+      <c r="E42">
+        <v>0.9669875538928885</v>
+      </c>
+      <c r="F42">
+        <v>1.101999892562919</v>
+      </c>
+      <c r="G42">
+        <v>0.9407735451123853</v>
+      </c>
+      <c r="H42">
+        <v>0.9012226299024646</v>
+      </c>
+      <c r="I42">
+        <v>0.8106651470167286</v>
+      </c>
+      <c r="J42">
+        <v>1.077280275284548</v>
+      </c>
+      <c r="K42">
+        <v>1.276897881075165</v>
+      </c>
+      <c r="L42">
+        <v>0.8106651470167286</v>
+      </c>
+      <c r="M42">
+        <v>0.7724188455555505</v>
+      </c>
+      <c r="N42">
+        <v>0.7724188455555505</v>
+      </c>
+      <c r="O42">
+        <v>1.276897881075165</v>
+      </c>
+      <c r="P42">
+        <v>1.043781514045947</v>
+      </c>
+      <c r="Q42">
+        <v>1.121942717484027</v>
+      </c>
+      <c r="R42">
+        <v>0.9533272912158148</v>
+      </c>
+      <c r="S42">
+        <v>1.018183527328261</v>
+      </c>
+      <c r="T42">
+        <v>0.9533272912158148</v>
+      </c>
+      <c r="U42">
+        <v>0.9567423568850832</v>
+      </c>
+      <c r="V42">
+        <v>0.9198776546191766</v>
+      </c>
+      <c r="W42">
+        <v>0.9810307213003313</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.004194210377972</v>
+        <v>1.004109543326858</v>
       </c>
       <c r="D3">
-        <v>0.9744913900606066</v>
+        <v>1.004109543326858</v>
       </c>
       <c r="E3">
-        <v>1.004992018729938</v>
+        <v>1.000208543893813</v>
       </c>
       <c r="F3">
-        <v>1.004194210377972</v>
+        <v>1.000169102069086</v>
       </c>
       <c r="G3">
-        <v>1.00070414201034</v>
+        <v>1.002523925386602</v>
       </c>
       <c r="H3">
-        <v>1.002182822022073</v>
+        <v>0.9980948646756863</v>
       </c>
       <c r="I3">
-        <v>1.004194210377972</v>
+        <v>0.9970439035894301</v>
       </c>
       <c r="J3">
-        <v>0.9744913900606066</v>
+        <v>0.9983463609900242</v>
       </c>
       <c r="K3">
-        <v>1.003694798764261</v>
+        <v>0.9980551685454122</v>
       </c>
       <c r="L3">
-        <v>1.003224711195178</v>
+        <v>0.9970439035894301</v>
       </c>
       <c r="M3">
-        <v>0.9896809809555815</v>
+        <v>1.004109543326858</v>
       </c>
       <c r="N3">
-        <v>1.004194210377972</v>
+        <v>1.004109543326858</v>
       </c>
       <c r="O3">
-        <v>1.004992018729938</v>
+        <v>0.9980551685454122</v>
       </c>
       <c r="P3">
-        <v>0.9897417043952725</v>
+        <v>0.9975495360674211</v>
       </c>
       <c r="Q3">
-        <v>1.002848080370139</v>
+        <v>0.9991318562196126</v>
       </c>
       <c r="R3">
-        <v>0.9945592063895056</v>
+        <v>0.9997362051539002</v>
       </c>
       <c r="S3">
-        <v>0.9933958502669616</v>
+        <v>0.9984358720095518</v>
       </c>
       <c r="T3">
-        <v>0.9945592063895056</v>
+        <v>0.9997362051539002</v>
       </c>
       <c r="U3">
-        <v>0.9960954402947141</v>
+        <v>0.9998542898388785</v>
       </c>
       <c r="V3">
-        <v>0.9977151943113656</v>
+        <v>1.000705340536474</v>
       </c>
       <c r="W3">
-        <v>0.9978956342644938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9998189265596141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.008458511609559</v>
+        <v>0.9410283157356997</v>
       </c>
       <c r="D4">
-        <v>0.9519197750248702</v>
+        <v>0.9410283157356997</v>
       </c>
       <c r="E4">
-        <v>1.009591948287714</v>
+        <v>0.9327838618623804</v>
       </c>
       <c r="F4">
-        <v>1.008458511609559</v>
+        <v>1.112138791425088</v>
       </c>
       <c r="G4">
-        <v>1.00114004576836</v>
+        <v>0.9660353266519009</v>
       </c>
       <c r="H4">
-        <v>1.004504026413649</v>
+        <v>0.8811434328313754</v>
       </c>
       <c r="I4">
-        <v>1.008458511609559</v>
+        <v>0.8367522965725825</v>
       </c>
       <c r="J4">
-        <v>0.9519197750248702</v>
+        <v>1.018487837568358</v>
       </c>
       <c r="K4">
-        <v>1.006304013726786</v>
+        <v>1.220702634192021</v>
       </c>
       <c r="L4">
-        <v>1.00635253165193</v>
+        <v>0.8367522965725825</v>
       </c>
       <c r="M4">
-        <v>0.9803615324455899</v>
+        <v>0.9410283157356997</v>
       </c>
       <c r="N4">
-        <v>1.008458511609559</v>
+        <v>0.9410283157356997</v>
       </c>
       <c r="O4">
-        <v>1.009591948287714</v>
+        <v>1.220702634192021</v>
       </c>
       <c r="P4">
-        <v>0.9807558616562922</v>
+        <v>1.028727465382302</v>
       </c>
       <c r="Q4">
-        <v>1.005365997028037</v>
+        <v>1.076743248027201</v>
       </c>
       <c r="R4">
-        <v>0.9899900783073812</v>
+        <v>0.9994944155001012</v>
       </c>
       <c r="S4">
-        <v>0.9875505896936483</v>
+        <v>0.9967462642089947</v>
       </c>
       <c r="T4">
-        <v>0.9899900783073812</v>
+        <v>0.9994944155001012</v>
       </c>
       <c r="U4">
-        <v>0.9927775701726259</v>
+        <v>0.9828167770906709</v>
       </c>
       <c r="V4">
-        <v>0.9959137584600125</v>
+        <v>0.9744590848196767</v>
       </c>
       <c r="W4">
-        <v>0.9960790481160574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9886340621049259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.016111940647824</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="D5">
-        <v>0.9069182439379532</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="E5">
-        <v>1.017680771769836</v>
+        <v>1.015496367665705</v>
       </c>
       <c r="F5">
-        <v>1.016111940647824</v>
+        <v>1.013999022903457</v>
       </c>
       <c r="G5">
-        <v>1.002962558699947</v>
+        <v>1.09561753507925</v>
       </c>
       <c r="H5">
-        <v>1.007928667703986</v>
+        <v>0.9221319798609521</v>
       </c>
       <c r="I5">
-        <v>1.016111940647824</v>
+        <v>0.8572552172211805</v>
       </c>
       <c r="J5">
-        <v>0.9069182439379532</v>
+        <v>0.9449443017269445</v>
       </c>
       <c r="K5">
-        <v>1.012792140859174</v>
+        <v>0.9449869739049024</v>
       </c>
       <c r="L5">
-        <v>1.012504058009541</v>
+        <v>0.8572552172211805</v>
       </c>
       <c r="M5">
-        <v>0.96203403331238</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="N5">
-        <v>1.016111940647824</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="O5">
-        <v>1.017680771769836</v>
+        <v>0.9449869739049024</v>
       </c>
       <c r="P5">
-        <v>0.9622995078538945</v>
+        <v>0.9011210955630414</v>
       </c>
       <c r="Q5">
-        <v>1.010321665234891</v>
+        <v>0.9802416707853036</v>
       </c>
       <c r="R5">
-        <v>0.9802369854518709</v>
+        <v>0.9744412272202231</v>
       </c>
       <c r="S5">
-        <v>0.9758538581359121</v>
+        <v>0.9392461862639291</v>
       </c>
       <c r="T5">
-        <v>0.9802369854518709</v>
+        <v>0.9744412272202231</v>
       </c>
       <c r="U5">
-        <v>0.9859183787638899</v>
+        <v>0.9847050123315935</v>
       </c>
       <c r="V5">
-        <v>0.9919570911406765</v>
+        <v>1.011980307972192</v>
       </c>
       <c r="W5">
-        <v>0.9923665518675802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9894391111121222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.034254123332702</v>
+        <v>1.349719328351701</v>
       </c>
       <c r="D6">
-        <v>0.8680588310891142</v>
+        <v>1.349719328351701</v>
       </c>
       <c r="E6">
-        <v>1.023283500785626</v>
+        <v>1.149219708148524</v>
       </c>
       <c r="F6">
-        <v>1.034254123332702</v>
+        <v>0.9876368128557151</v>
       </c>
       <c r="G6">
-        <v>1.004648415603268</v>
+        <v>1.450733327112599</v>
       </c>
       <c r="H6">
-        <v>1.008199877332493</v>
+        <v>0.7540533908199505</v>
       </c>
       <c r="I6">
-        <v>1.034254123332702</v>
+        <v>0.5138821717937158</v>
       </c>
       <c r="J6">
-        <v>0.8680588310891142</v>
+        <v>0.7683432062432897</v>
       </c>
       <c r="K6">
-        <v>1.022829906699252</v>
+        <v>0.6895182896903973</v>
       </c>
       <c r="L6">
-        <v>1.014172981140968</v>
+        <v>0.5138821717937158</v>
       </c>
       <c r="M6">
-        <v>0.9422452767854265</v>
+        <v>1.349719328351701</v>
       </c>
       <c r="N6">
-        <v>1.034254123332702</v>
+        <v>1.349719328351701</v>
       </c>
       <c r="O6">
-        <v>1.023283500785626</v>
+        <v>0.6895182896903973</v>
       </c>
       <c r="P6">
-        <v>0.9456711659373699</v>
+        <v>0.6017002307420565</v>
       </c>
       <c r="Q6">
-        <v>1.013965958194447</v>
+        <v>0.9193689989194604</v>
       </c>
       <c r="R6">
-        <v>0.9751988184024807</v>
+        <v>0.8510399299452714</v>
       </c>
       <c r="S6">
-        <v>0.965330249159336</v>
+        <v>0.7842067232108789</v>
       </c>
       <c r="T6">
-        <v>0.9751988184024807</v>
+        <v>0.8510399299452714</v>
       </c>
       <c r="U6">
-        <v>0.9825612177026776</v>
+        <v>0.9255848744960844</v>
       </c>
       <c r="V6">
-        <v>0.9928997988286824</v>
+        <v>1.010411765267208</v>
       </c>
       <c r="W6">
-        <v>0.989711614096106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9578882793769865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001307411885747</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="D7">
-        <v>0.9988622143851726</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="E7">
-        <v>0.9993499849256179</v>
+        <v>0.9992001722045938</v>
       </c>
       <c r="F7">
-        <v>1.001307411885747</v>
+        <v>1.00255095915561</v>
       </c>
       <c r="G7">
-        <v>1.00017494767373</v>
+        <v>1.003620074914059</v>
       </c>
       <c r="H7">
-        <v>1.000016888021242</v>
+        <v>0.9896443902709321</v>
       </c>
       <c r="I7">
-        <v>1.001307411885747</v>
+        <v>0.9770175631538608</v>
       </c>
       <c r="J7">
-        <v>0.9988622143851726</v>
+        <v>1.001136756498077</v>
       </c>
       <c r="K7">
-        <v>0.9994329196696432</v>
+        <v>1.002940946052802</v>
       </c>
       <c r="L7">
-        <v>1.00092094422915</v>
+        <v>0.9770175631538608</v>
       </c>
       <c r="M7">
-        <v>0.9993815832958408</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="N7">
-        <v>1.001307411885747</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="O7">
-        <v>0.9993499849256179</v>
+        <v>1.002940946052802</v>
       </c>
       <c r="P7">
-        <v>0.9991060996553953</v>
+        <v>0.9899792546033312</v>
       </c>
       <c r="Q7">
-        <v>0.9997624662996742</v>
+        <v>1.001070559128698</v>
       </c>
       <c r="R7">
-        <v>0.9998398703988457</v>
+        <v>0.9970063805074899</v>
       </c>
       <c r="S7">
-        <v>0.9994623823281737</v>
+        <v>0.9930528938037521</v>
       </c>
       <c r="T7">
-        <v>0.9998398703988457</v>
+        <v>0.9970063805074899</v>
       </c>
       <c r="U7">
-        <v>0.9999236397175669</v>
+        <v>0.9975548284317659</v>
       </c>
       <c r="V7">
-        <v>1.000200394151203</v>
+        <v>1.000255989208574</v>
       </c>
       <c r="W7">
-        <v>0.9999308617607681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9983964368207177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.004109543326858</v>
+        <v>1.005366309115325</v>
       </c>
       <c r="D8">
-        <v>0.9970439035894296</v>
+        <v>1.005366309115325</v>
       </c>
       <c r="E8">
-        <v>0.9980551685454121</v>
+        <v>1.001693287019259</v>
       </c>
       <c r="F8">
-        <v>1.004109543326858</v>
+        <v>0.9982113808024738</v>
       </c>
       <c r="G8">
-        <v>1.000208543893813</v>
+        <v>1.002775539558388</v>
       </c>
       <c r="H8">
-        <v>1.000169102069087</v>
+        <v>1.00065776332163</v>
       </c>
       <c r="I8">
-        <v>1.004109543326858</v>
+        <v>0.9994767172975132</v>
       </c>
       <c r="J8">
-        <v>0.9970439035894296</v>
+        <v>0.9979338586651018</v>
       </c>
       <c r="K8">
-        <v>0.9983463609900242</v>
+        <v>0.9944554110654793</v>
       </c>
       <c r="L8">
-        <v>1.002523925386602</v>
+        <v>0.9994767172975132</v>
       </c>
       <c r="M8">
-        <v>0.9980948646756862</v>
+        <v>1.005366309115325</v>
       </c>
       <c r="N8">
-        <v>1.004109543326858</v>
+        <v>1.005366309115325</v>
       </c>
       <c r="O8">
-        <v>0.9980551685454121</v>
+        <v>0.9944554110654793</v>
       </c>
       <c r="P8">
-        <v>0.9975495360674209</v>
+        <v>0.9969660641814962</v>
       </c>
       <c r="Q8">
-        <v>0.9991318562196128</v>
+        <v>0.9980743490423694</v>
       </c>
       <c r="R8">
-        <v>0.9997362051539</v>
+        <v>0.9997661458261057</v>
       </c>
       <c r="S8">
-        <v>0.9984358720095518</v>
+        <v>0.9985418051274172</v>
       </c>
       <c r="T8">
-        <v>0.9997362051539</v>
+        <v>0.9997661458261057</v>
       </c>
       <c r="U8">
-        <v>0.9998542898388784</v>
+        <v>1.000247931124394</v>
       </c>
       <c r="V8">
-        <v>1.000705340536474</v>
+        <v>1.00127160672258</v>
       </c>
       <c r="W8">
-        <v>0.9998189265596141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000071283355646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.008200115740088</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="D9">
-        <v>0.9956700428736666</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="E9">
-        <v>0.9973000873191211</v>
+        <v>1.00114004576836</v>
       </c>
       <c r="F9">
-        <v>1.008200115740088</v>
+        <v>1.004504026413649</v>
       </c>
       <c r="G9">
-        <v>0.9996961387580425</v>
+        <v>1.00635253165193</v>
       </c>
       <c r="H9">
-        <v>1.000289742228028</v>
+        <v>0.9803615324455899</v>
       </c>
       <c r="I9">
-        <v>1.008200115740088</v>
+        <v>0.9519197750248702</v>
       </c>
       <c r="J9">
-        <v>0.9956700428736666</v>
+        <v>1.006304013726786</v>
       </c>
       <c r="K9">
-        <v>0.9974744687961055</v>
+        <v>1.009591948287714</v>
       </c>
       <c r="L9">
-        <v>1.003151426885531</v>
+        <v>0.9519197750248702</v>
       </c>
       <c r="M9">
-        <v>0.9971843083658073</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="N9">
-        <v>1.008200115740088</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="O9">
-        <v>0.9973000873191211</v>
+        <v>1.009591948287714</v>
       </c>
       <c r="P9">
-        <v>0.9964850650963939</v>
+        <v>0.9807558616562922</v>
       </c>
       <c r="Q9">
-        <v>0.9984981130385818</v>
+        <v>1.005365997028037</v>
       </c>
       <c r="R9">
-        <v>1.000390081977625</v>
+        <v>0.9899900783073812</v>
       </c>
       <c r="S9">
-        <v>0.9975554229836101</v>
+        <v>0.9875505896936483</v>
       </c>
       <c r="T9">
-        <v>1.000390081977625</v>
+        <v>0.9899900783073812</v>
       </c>
       <c r="U9">
-        <v>1.00021659617273</v>
+        <v>0.9927775701726259</v>
       </c>
       <c r="V9">
-        <v>1.001813300086201</v>
+        <v>0.9959137584600125</v>
       </c>
       <c r="W9">
-        <v>0.9998707913707987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9960790481160574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.015305163021879</v>
+        <v>1.354966212249216</v>
       </c>
       <c r="D10">
-        <v>0.9901476951073744</v>
+        <v>1.354966212249216</v>
       </c>
       <c r="E10">
-        <v>0.9943584727603056</v>
+        <v>1.160669673277002</v>
       </c>
       <c r="F10">
-        <v>1.015305163021879</v>
+        <v>0.980459141400241</v>
       </c>
       <c r="G10">
-        <v>1.000066655057354</v>
+        <v>1.465396462662534</v>
       </c>
       <c r="H10">
-        <v>1.000457803378898</v>
+        <v>0.7515472078572225</v>
       </c>
       <c r="I10">
-        <v>1.015305163021879</v>
+        <v>0.4935709424322775</v>
       </c>
       <c r="J10">
-        <v>0.9901476951073744</v>
+        <v>0.7665880273706911</v>
       </c>
       <c r="K10">
-        <v>0.9950379282937707</v>
+        <v>0.6719727483441619</v>
       </c>
       <c r="L10">
-        <v>1.007080843681339</v>
+        <v>0.4935709424322775</v>
       </c>
       <c r="M10">
-        <v>0.9940393541592164</v>
+        <v>1.354966212249216</v>
       </c>
       <c r="N10">
-        <v>1.015305163021879</v>
+        <v>1.354966212249216</v>
       </c>
       <c r="O10">
-        <v>0.9943584727603056</v>
+        <v>0.6719727483441619</v>
       </c>
       <c r="P10">
-        <v>0.99225308393384</v>
+        <v>0.5827718453882197</v>
       </c>
       <c r="Q10">
-        <v>0.9972125639088301</v>
+        <v>0.916321210810582</v>
       </c>
       <c r="R10">
-        <v>0.9999371102965199</v>
+        <v>0.8401699676752185</v>
       </c>
       <c r="S10">
-        <v>0.9948576076416783</v>
+        <v>0.7754044546844806</v>
       </c>
       <c r="T10">
-        <v>0.9999371102965199</v>
+        <v>0.8401699676752185</v>
       </c>
       <c r="U10">
-        <v>0.9999694964867285</v>
+        <v>0.9202948940756643</v>
       </c>
       <c r="V10">
-        <v>1.003036629793759</v>
+        <v>1.007229157710375</v>
       </c>
       <c r="W10">
-        <v>0.9995617394325172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9556463019491682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.030751830594453</v>
+        <v>0.8658865444728623</v>
       </c>
       <c r="D11">
-        <v>0.9846571589476557</v>
+        <v>0.8658865444728623</v>
       </c>
       <c r="E11">
-        <v>0.9892541801541402</v>
+        <v>0.9715385722311448</v>
       </c>
       <c r="F11">
-        <v>1.030751830594453</v>
+        <v>1.023791613212608</v>
       </c>
       <c r="G11">
-        <v>0.9989639045815173</v>
+        <v>0.9194118866254576</v>
       </c>
       <c r="H11">
-        <v>1.000824126437104</v>
+        <v>1.023818590968897</v>
       </c>
       <c r="I11">
-        <v>1.030751830594453</v>
+        <v>1.069400380383577</v>
       </c>
       <c r="J11">
-        <v>0.9846571589476557</v>
+        <v>1.044862617498488</v>
       </c>
       <c r="K11">
-        <v>0.9905442976668357</v>
+        <v>1.134896896511346</v>
       </c>
       <c r="L11">
-        <v>1.01186988831457</v>
+        <v>1.069400380383577</v>
       </c>
       <c r="M11">
-        <v>0.9896480407178533</v>
+        <v>0.8658865444728623</v>
       </c>
       <c r="N11">
-        <v>1.030751830594453</v>
+        <v>0.8658865444728623</v>
       </c>
       <c r="O11">
-        <v>0.9892541801541402</v>
+        <v>1.134896896511346</v>
       </c>
       <c r="P11">
-        <v>0.986955669550898</v>
+        <v>1.102148638447462</v>
       </c>
       <c r="Q11">
-        <v>0.9941090423678287</v>
+        <v>1.053217734371245</v>
       </c>
       <c r="R11">
-        <v>1.00155438989875</v>
+        <v>1.023394607122595</v>
       </c>
       <c r="S11">
-        <v>0.9909584145611045</v>
+        <v>1.058611949708689</v>
       </c>
       <c r="T11">
-        <v>1.00155438989875</v>
+        <v>1.023394607122595</v>
       </c>
       <c r="U11">
-        <v>1.000906768569441</v>
+        <v>1.010430598399733</v>
       </c>
       <c r="V11">
-        <v>1.006875780974444</v>
+        <v>0.9815217876143585</v>
       </c>
       <c r="W11">
-        <v>0.9995641784267661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.006700887738047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7548672593532204</v>
+        <v>1.13000010542737</v>
       </c>
       <c r="D12">
-        <v>0.9627277540342156</v>
+        <v>1.13000010542737</v>
       </c>
       <c r="E12">
-        <v>0.8420337415758373</v>
+        <v>1.041879730778943</v>
       </c>
       <c r="F12">
-        <v>0.7548672593532204</v>
+        <v>0.9907241408315798</v>
       </c>
       <c r="G12">
-        <v>1.172089117468263</v>
+        <v>1.125108403294736</v>
       </c>
       <c r="H12">
-        <v>0.858168635575365</v>
+        <v>0.9313595592315799</v>
       </c>
       <c r="I12">
-        <v>0.7548672593532204</v>
+        <v>0.8483049183242107</v>
       </c>
       <c r="J12">
-        <v>0.9627277540342156</v>
+        <v>0.9374239477368419</v>
       </c>
       <c r="K12">
-        <v>1.097304415961282</v>
+        <v>0.8967552269052629</v>
       </c>
       <c r="L12">
-        <v>1.036562543089765</v>
+        <v>0.8483049183242107</v>
       </c>
       <c r="M12">
-        <v>1.129939981651308</v>
+        <v>1.13000010542737</v>
       </c>
       <c r="N12">
-        <v>0.7548672593532204</v>
+        <v>1.13000010542737</v>
       </c>
       <c r="O12">
-        <v>0.8420337415758373</v>
+        <v>0.8967552269052629</v>
       </c>
       <c r="P12">
-        <v>0.9023807478050265</v>
+        <v>0.8725300726147368</v>
       </c>
       <c r="Q12">
-        <v>1.00706142952205</v>
+        <v>0.9693174788421028</v>
       </c>
       <c r="R12">
-        <v>0.8532095849877578</v>
+        <v>0.9583534168856147</v>
       </c>
       <c r="S12">
-        <v>0.992283537692772</v>
+        <v>0.9289799586694721</v>
       </c>
       <c r="T12">
-        <v>0.8532095849877578</v>
+        <v>0.9583534168856146</v>
       </c>
       <c r="U12">
-        <v>0.9329294681078841</v>
+        <v>0.9792349953589466</v>
       </c>
       <c r="V12">
-        <v>0.8973170263569514</v>
+        <v>1.009388017372631</v>
       </c>
       <c r="W12">
-        <v>0.981711681088657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9876945040663154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.085968231885332</v>
+        <v>0.9170435608849902</v>
       </c>
       <c r="D13">
-        <v>1.327818358188542</v>
+        <v>0.9170435608849902</v>
       </c>
       <c r="E13">
-        <v>1.13295623885233</v>
+        <v>1.038544609151387</v>
       </c>
       <c r="F13">
-        <v>1.085968231885332</v>
+        <v>0.9544152287563487</v>
       </c>
       <c r="G13">
-        <v>0.8488265689022484</v>
+        <v>0.9845731034785061</v>
       </c>
       <c r="H13">
-        <v>1.063142131349222</v>
+        <v>1.056163519993619</v>
       </c>
       <c r="I13">
-        <v>1.085968231885332</v>
+        <v>1.036086300489903</v>
       </c>
       <c r="J13">
-        <v>1.327818358188542</v>
+        <v>1.039257239579593</v>
       </c>
       <c r="K13">
-        <v>0.9591680141669633</v>
+        <v>0.9695095988130132</v>
       </c>
       <c r="L13">
-        <v>0.8659968581113568</v>
+        <v>1.036086300489903</v>
       </c>
       <c r="M13">
-        <v>1.035190179801377</v>
+        <v>0.9170435608849902</v>
       </c>
       <c r="N13">
-        <v>1.085968231885332</v>
+        <v>0.9170435608849902</v>
       </c>
       <c r="O13">
-        <v>1.13295623885233</v>
+        <v>0.9695095988130132</v>
       </c>
       <c r="P13">
-        <v>1.230387298520436</v>
+        <v>1.002797949651458</v>
       </c>
       <c r="Q13">
-        <v>0.9908914038772891</v>
+        <v>1.0040271039822</v>
       </c>
       <c r="R13">
-        <v>1.182247609642068</v>
+        <v>0.9742131533959687</v>
       </c>
       <c r="S13">
-        <v>1.103200388647707</v>
+        <v>1.014713502818101</v>
       </c>
       <c r="T13">
-        <v>1.182247609642068</v>
+        <v>0.9742131533959689</v>
       </c>
       <c r="U13">
-        <v>1.098892349457113</v>
+        <v>0.9902960173348233</v>
       </c>
       <c r="V13">
-        <v>1.096307525942757</v>
+        <v>0.9756455260448567</v>
       </c>
       <c r="W13">
-        <v>1.039883322657171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.99944914514342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6118761298839663</v>
+        <v>1.602476899999999</v>
       </c>
       <c r="D14">
-        <v>0.1309952242496457</v>
+        <v>1.602476899999999</v>
       </c>
       <c r="E14">
-        <v>2.078925007802523</v>
+        <v>1.2882547</v>
       </c>
       <c r="F14">
-        <v>0.6118761298839663</v>
+        <v>0.9614322199999996</v>
       </c>
       <c r="G14">
-        <v>0.6482471957921063</v>
+        <v>1.8268372</v>
       </c>
       <c r="H14">
-        <v>1.577416227217531</v>
+        <v>0.5711872500000007</v>
       </c>
       <c r="I14">
-        <v>0.6118761298839663</v>
+        <v>0.1423185199999999</v>
       </c>
       <c r="J14">
-        <v>0.1309952242496457</v>
+        <v>0.5809077099999989</v>
       </c>
       <c r="K14">
-        <v>1.162433604120343</v>
+        <v>0.4216040899999995</v>
       </c>
       <c r="L14">
-        <v>0.8003394716340935</v>
+        <v>0.1423185199999999</v>
       </c>
       <c r="M14">
-        <v>0.3789046812554486</v>
+        <v>1.602476899999999</v>
       </c>
       <c r="N14">
-        <v>0.6118761298839663</v>
+        <v>1.602476899999999</v>
       </c>
       <c r="O14">
-        <v>2.078925007802523</v>
+        <v>0.4216040899999995</v>
       </c>
       <c r="P14">
-        <v>1.104960116026084</v>
+        <v>0.2819613049999997</v>
       </c>
       <c r="Q14">
-        <v>1.363586101797314</v>
+        <v>0.8549293949999996</v>
       </c>
       <c r="R14">
-        <v>0.9405987873120449</v>
+        <v>0.7221331699999997</v>
       </c>
       <c r="S14">
-        <v>0.9527224759480916</v>
+        <v>0.6173924366666664</v>
       </c>
       <c r="T14">
-        <v>0.9405987873120448</v>
+        <v>0.7221331699999997</v>
       </c>
       <c r="U14">
-        <v>0.8675108894320602</v>
+        <v>0.8636635524999996</v>
       </c>
       <c r="V14">
-        <v>0.8163839375224414</v>
+        <v>1.011426221999999</v>
       </c>
       <c r="W14">
-        <v>0.9236421927444571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9243773237499997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.385168613528747</v>
+        <v>5.1660044</v>
       </c>
       <c r="D15">
-        <v>0.7272515901625779</v>
+        <v>5.1660044</v>
       </c>
       <c r="E15">
-        <v>0.5477037836539453</v>
+        <v>0.34611211</v>
       </c>
       <c r="F15">
-        <v>1.385168613528747</v>
+        <v>1.1595382</v>
       </c>
       <c r="G15">
-        <v>1.165847523771667</v>
+        <v>1.6025524</v>
       </c>
       <c r="H15">
-        <v>0.8528757068022605</v>
+        <v>0.044891432</v>
       </c>
       <c r="I15">
-        <v>1.385168613528747</v>
+        <v>0.0017993233</v>
       </c>
       <c r="J15">
-        <v>0.7272515901625779</v>
+        <v>0.082419669</v>
       </c>
       <c r="K15">
-        <v>0.892326066088787</v>
+        <v>0.21380688</v>
       </c>
       <c r="L15">
-        <v>1.272094853981119</v>
+        <v>0.0017993233</v>
       </c>
       <c r="M15">
-        <v>0.9767146643142903</v>
+        <v>5.1660044</v>
       </c>
       <c r="N15">
-        <v>1.385168613528747</v>
+        <v>5.1660044</v>
       </c>
       <c r="O15">
-        <v>0.5477037836539453</v>
+        <v>0.21380688</v>
       </c>
       <c r="P15">
-        <v>0.6374776869082617</v>
+        <v>0.10780310165</v>
       </c>
       <c r="Q15">
-        <v>0.856775653712806</v>
+        <v>0.279959495</v>
       </c>
       <c r="R15">
-        <v>0.8867079957817566</v>
+        <v>1.7938702011</v>
       </c>
       <c r="S15">
-        <v>0.81360096586273</v>
+        <v>0.1872394377666667</v>
       </c>
       <c r="T15">
-        <v>0.8867079957817566</v>
+        <v>1.7938702011</v>
       </c>
       <c r="U15">
-        <v>0.9564928777792341</v>
+        <v>1.431930678325</v>
       </c>
       <c r="V15">
-        <v>1.042228024929137</v>
+        <v>2.17874542266</v>
       </c>
       <c r="W15">
-        <v>0.9774978502879241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.0771405517875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9970851739544483</v>
+        <v>0.21380688</v>
       </c>
       <c r="D16">
-        <v>0.9996415695687344</v>
+        <v>0.21380688</v>
       </c>
       <c r="E16">
-        <v>1.003151391647972</v>
+        <v>0.31618718</v>
       </c>
       <c r="F16">
-        <v>0.9970851739544483</v>
+        <v>2.0086866</v>
       </c>
       <c r="G16">
-        <v>0.999272785478775</v>
+        <v>0.42160412</v>
       </c>
       <c r="H16">
-        <v>1.001224065895117</v>
+        <v>0.14241558</v>
       </c>
       <c r="I16">
-        <v>0.9970851739544483</v>
+        <v>0.023300756</v>
       </c>
       <c r="J16">
-        <v>0.9996415695687344</v>
+        <v>1.2099909</v>
       </c>
       <c r="K16">
-        <v>1.000634829118338</v>
+        <v>3.4428622</v>
       </c>
       <c r="L16">
-        <v>0.9990902888750858</v>
+        <v>0.023300756</v>
       </c>
       <c r="M16">
-        <v>0.9992645902037839</v>
+        <v>0.21380688</v>
       </c>
       <c r="N16">
-        <v>0.9970851739544483</v>
+        <v>0.21380688</v>
       </c>
       <c r="O16">
-        <v>1.003151391647972</v>
+        <v>3.4428622</v>
       </c>
       <c r="P16">
-        <v>1.001396480608353</v>
+        <v>1.733081478</v>
       </c>
       <c r="Q16">
-        <v>1.001212088563374</v>
+        <v>1.87952469</v>
       </c>
       <c r="R16">
-        <v>0.999959378390385</v>
+        <v>1.226656612</v>
       </c>
       <c r="S16">
-        <v>1.000688582231827</v>
+        <v>1.260783378666667</v>
       </c>
       <c r="T16">
-        <v>0.999959378390385</v>
+        <v>1.226656612</v>
       </c>
       <c r="U16">
-        <v>0.9997877301624825</v>
+        <v>0.999039254</v>
       </c>
       <c r="V16">
-        <v>0.9992472189208756</v>
+        <v>0.8419927792000002</v>
       </c>
       <c r="W16">
-        <v>0.9999205868427818</v>
+        <v>0.9723567770000001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.005366309115325</v>
+        <v>1.6025901</v>
       </c>
       <c r="D17">
-        <v>0.9994767172975133</v>
+        <v>1.6025901</v>
       </c>
       <c r="E17">
-        <v>0.9944554110654791</v>
+        <v>1.2882092</v>
       </c>
       <c r="F17">
-        <v>1.005366309115325</v>
+        <v>0.96145938</v>
       </c>
       <c r="G17">
-        <v>1.001693287019259</v>
+        <v>1.8268479</v>
       </c>
       <c r="H17">
-        <v>0.9982113808024738</v>
+        <v>0.57114494</v>
       </c>
       <c r="I17">
-        <v>1.005366309115325</v>
+        <v>0.14229975</v>
       </c>
       <c r="J17">
-        <v>0.9994767172975133</v>
+        <v>0.58087662</v>
       </c>
       <c r="K17">
-        <v>0.9979338586651021</v>
+        <v>0.42160414</v>
       </c>
       <c r="L17">
-        <v>1.002775539558388</v>
+        <v>0.14229975</v>
       </c>
       <c r="M17">
-        <v>1.00065776332163</v>
+        <v>1.6025901</v>
       </c>
       <c r="N17">
-        <v>1.005366309115325</v>
+        <v>1.6025901</v>
       </c>
       <c r="O17">
-        <v>0.9944554110654791</v>
+        <v>0.42160414</v>
       </c>
       <c r="P17">
-        <v>0.9969660641814961</v>
+        <v>0.281951945</v>
       </c>
       <c r="Q17">
-        <v>0.9980743490423692</v>
+        <v>0.8549066700000001</v>
       </c>
       <c r="R17">
-        <v>0.9997661458261057</v>
+        <v>0.7221646633333333</v>
       </c>
       <c r="S17">
-        <v>0.9985418051274172</v>
+        <v>0.61737103</v>
       </c>
       <c r="T17">
-        <v>0.9997661458261057</v>
+        <v>0.7221646633333333</v>
       </c>
       <c r="U17">
-        <v>1.000247931124394</v>
+        <v>0.8636757975</v>
       </c>
       <c r="V17">
-        <v>1.00127160672258</v>
+        <v>1.011458658</v>
       </c>
       <c r="W17">
-        <v>1.000071283355646</v>
+        <v>0.92437900375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9925128949938817</v>
+        <v>1.133748609424658</v>
       </c>
       <c r="D18">
-        <v>0.9911347858643219</v>
+        <v>1.133748609424658</v>
       </c>
       <c r="E18">
-        <v>1.013074878212906</v>
+        <v>0.9948765595890408</v>
       </c>
       <c r="F18">
-        <v>0.9925128949938817</v>
+        <v>1.067458096438356</v>
       </c>
       <c r="G18">
-        <v>0.9980567588130609</v>
+        <v>1.067756425205479</v>
       </c>
       <c r="H18">
-        <v>1.004539406336826</v>
+        <v>0.7486786571506849</v>
       </c>
       <c r="I18">
-        <v>0.9925128949938817</v>
+        <v>0.4088314487054795</v>
       </c>
       <c r="J18">
-        <v>0.9911347858643219</v>
+        <v>1.074206739273973</v>
       </c>
       <c r="K18">
-        <v>1.002990489796099</v>
+        <v>1.128498437260274</v>
       </c>
       <c r="L18">
-        <v>0.9975859272070859</v>
+        <v>0.4088314487054795</v>
       </c>
       <c r="M18">
-        <v>0.9947735979400218</v>
+        <v>1.133748609424658</v>
       </c>
       <c r="N18">
-        <v>0.9925128949938817</v>
+        <v>1.133748609424658</v>
       </c>
       <c r="O18">
-        <v>1.013074878212906</v>
+        <v>1.128498437260274</v>
       </c>
       <c r="P18">
-        <v>1.002104832038614</v>
+        <v>0.7686649429828767</v>
       </c>
       <c r="Q18">
-        <v>1.005565818512984</v>
+        <v>1.061687498424657</v>
       </c>
       <c r="R18">
-        <v>0.9989075196903699</v>
+        <v>0.8903594984634703</v>
       </c>
       <c r="S18">
-        <v>1.000755474296763</v>
+        <v>0.8440688151849315</v>
       </c>
       <c r="T18">
-        <v>0.9989075196903699</v>
+        <v>0.8903594984634703</v>
       </c>
       <c r="U18">
-        <v>0.9986948294710427</v>
+        <v>0.9164887637448629</v>
       </c>
       <c r="V18">
-        <v>0.9974584425756106</v>
+        <v>0.9599407328808219</v>
       </c>
       <c r="W18">
-        <v>0.9993335923955254</v>
+        <v>0.9530068716309932</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9634660845554845</v>
+        <v>0.8672345984210524</v>
       </c>
       <c r="D19">
-        <v>0.9746422952160019</v>
+        <v>0.8672345984210524</v>
       </c>
       <c r="E19">
-        <v>1.047357811339038</v>
+        <v>0.7640934242105263</v>
       </c>
       <c r="F19">
-        <v>0.9634660845554845</v>
+        <v>1.536941284210526</v>
       </c>
       <c r="G19">
-        <v>0.9878961978487791</v>
+        <v>1.080195077894737</v>
       </c>
       <c r="H19">
-        <v>1.018206062012611</v>
+        <v>0.3443973900000001</v>
       </c>
       <c r="I19">
-        <v>0.9634660845554845</v>
+        <v>0.07967040210526316</v>
       </c>
       <c r="J19">
-        <v>0.9746422952160019</v>
+        <v>0.9254137836842103</v>
       </c>
       <c r="K19">
-        <v>1.015900945922867</v>
+        <v>1.835661583157895</v>
       </c>
       <c r="L19">
-        <v>0.9861599853275357</v>
+        <v>0.07967040210526316</v>
       </c>
       <c r="M19">
-        <v>0.981792370574411</v>
+        <v>0.8672345984210524</v>
       </c>
       <c r="N19">
-        <v>0.9634660845554845</v>
+        <v>0.8672345984210524</v>
       </c>
       <c r="O19">
-        <v>1.047357811339038</v>
+        <v>1.835661583157895</v>
       </c>
       <c r="P19">
-        <v>1.01100005327752</v>
+        <v>0.9576659926315789</v>
       </c>
       <c r="Q19">
-        <v>1.017627004593908</v>
+        <v>1.299877503684211</v>
       </c>
       <c r="R19">
-        <v>0.9951553970368415</v>
+        <v>0.9275221945614035</v>
       </c>
       <c r="S19">
-        <v>1.003298768134606</v>
+        <v>0.8931418031578947</v>
       </c>
       <c r="T19">
-        <v>0.9951553970368415</v>
+        <v>0.9275221945614035</v>
       </c>
       <c r="U19">
-        <v>0.9933405972398259</v>
+        <v>0.8866650019736841</v>
       </c>
       <c r="V19">
-        <v>0.9873656947029577</v>
+        <v>0.8827789212631577</v>
       </c>
       <c r="W19">
-        <v>0.9969277190995909</v>
+        <v>0.9292009429605262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.912083033157895</v>
+      </c>
+      <c r="D20">
+        <v>1.912083033157895</v>
+      </c>
+      <c r="E20">
+        <v>0.868441047368421</v>
+      </c>
+      <c r="F20">
+        <v>1.02886292368421</v>
+      </c>
+      <c r="G20">
+        <v>1.17140193</v>
+      </c>
+      <c r="H20">
+        <v>0.9057625058421053</v>
+      </c>
+      <c r="I20">
+        <v>1.164093971989474</v>
+      </c>
+      <c r="J20">
+        <v>0.6432084446842106</v>
+      </c>
+      <c r="K20">
+        <v>0.7414934521052632</v>
+      </c>
+      <c r="L20">
+        <v>1.164093971989474</v>
+      </c>
+      <c r="M20">
+        <v>1.912083033157895</v>
+      </c>
+      <c r="N20">
+        <v>1.912083033157895</v>
+      </c>
+      <c r="O20">
+        <v>0.7414934521052632</v>
+      </c>
+      <c r="P20">
+        <v>0.9527937120473684</v>
+      </c>
+      <c r="Q20">
+        <v>0.8049672497368421</v>
+      </c>
+      <c r="R20">
+        <v>1.272556819084211</v>
+      </c>
+      <c r="S20">
+        <v>0.9246761571543859</v>
+      </c>
+      <c r="T20">
+        <v>1.27255681908421</v>
+      </c>
+      <c r="U20">
+        <v>1.171527876155263</v>
+      </c>
+      <c r="V20">
+        <v>1.319638907555789</v>
+      </c>
+      <c r="W20">
+        <v>1.054418413603947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.6118761298839663</v>
+      </c>
+      <c r="D21">
+        <v>0.6118761298839663</v>
+      </c>
+      <c r="E21">
+        <v>0.648247195792106</v>
+      </c>
+      <c r="F21">
+        <v>1.577416227217531</v>
+      </c>
+      <c r="G21">
+        <v>0.8003394716340935</v>
+      </c>
+      <c r="H21">
+        <v>0.3789046812554486</v>
+      </c>
+      <c r="I21">
+        <v>0.1309952242496458</v>
+      </c>
+      <c r="J21">
+        <v>1.162433604120343</v>
+      </c>
+      <c r="K21">
+        <v>2.078925007802522</v>
+      </c>
+      <c r="L21">
+        <v>0.1309952242496458</v>
+      </c>
+      <c r="M21">
+        <v>0.6118761298839663</v>
+      </c>
+      <c r="N21">
+        <v>0.6118761298839663</v>
+      </c>
+      <c r="O21">
+        <v>2.078925007802522</v>
+      </c>
+      <c r="P21">
+        <v>1.104960116026084</v>
+      </c>
+      <c r="Q21">
+        <v>1.363586101797314</v>
+      </c>
+      <c r="R21">
+        <v>0.9405987873120448</v>
+      </c>
+      <c r="S21">
+        <v>0.9527224759480913</v>
+      </c>
+      <c r="T21">
+        <v>0.9405987873120448</v>
+      </c>
+      <c r="U21">
+        <v>0.8675108894320601</v>
+      </c>
+      <c r="V21">
+        <v>0.8163839375224413</v>
+      </c>
+      <c r="W21">
+        <v>0.923642192744457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.385168613528747</v>
+      </c>
+      <c r="D22">
+        <v>1.385168613528747</v>
+      </c>
+      <c r="E22">
+        <v>1.165847523771667</v>
+      </c>
+      <c r="F22">
+        <v>0.8528757068022605</v>
+      </c>
+      <c r="G22">
+        <v>1.272094853981119</v>
+      </c>
+      <c r="H22">
+        <v>0.9767146643142903</v>
+      </c>
+      <c r="I22">
+        <v>0.7272515901625779</v>
+      </c>
+      <c r="J22">
+        <v>0.892326066088787</v>
+      </c>
+      <c r="K22">
+        <v>0.5477037836539453</v>
+      </c>
+      <c r="L22">
+        <v>0.7272515901625779</v>
+      </c>
+      <c r="M22">
+        <v>1.385168613528747</v>
+      </c>
+      <c r="N22">
+        <v>1.385168613528747</v>
+      </c>
+      <c r="O22">
+        <v>0.5477037836539453</v>
+      </c>
+      <c r="P22">
+        <v>0.6374776869082617</v>
+      </c>
+      <c r="Q22">
+        <v>0.856775653712806</v>
+      </c>
+      <c r="R22">
+        <v>0.8867079957817566</v>
+      </c>
+      <c r="S22">
+        <v>0.81360096586273</v>
+      </c>
+      <c r="T22">
+        <v>0.8867079957817566</v>
+      </c>
+      <c r="U22">
+        <v>0.9564928777792341</v>
+      </c>
+      <c r="V22">
+        <v>1.042228024929136</v>
+      </c>
+      <c r="W22">
+        <v>0.9774978502879241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7548672593532204</v>
+      </c>
+      <c r="D23">
+        <v>0.7548672593532204</v>
+      </c>
+      <c r="E23">
+        <v>1.172089117468263</v>
+      </c>
+      <c r="F23">
+        <v>0.858168635575365</v>
+      </c>
+      <c r="G23">
+        <v>1.036562543089765</v>
+      </c>
+      <c r="H23">
+        <v>1.129939981651307</v>
+      </c>
+      <c r="I23">
+        <v>0.9627277540342154</v>
+      </c>
+      <c r="J23">
+        <v>1.097304415961282</v>
+      </c>
+      <c r="K23">
+        <v>0.8420337415758369</v>
+      </c>
+      <c r="L23">
+        <v>0.9627277540342154</v>
+      </c>
+      <c r="M23">
+        <v>0.7548672593532204</v>
+      </c>
+      <c r="N23">
+        <v>0.7548672593532204</v>
+      </c>
+      <c r="O23">
+        <v>0.8420337415758369</v>
+      </c>
+      <c r="P23">
+        <v>0.9023807478050261</v>
+      </c>
+      <c r="Q23">
+        <v>1.00706142952205</v>
+      </c>
+      <c r="R23">
+        <v>0.8532095849877575</v>
+      </c>
+      <c r="S23">
+        <v>0.9922835376927717</v>
+      </c>
+      <c r="T23">
+        <v>0.8532095849877576</v>
+      </c>
+      <c r="U23">
+        <v>0.9329294681078839</v>
+      </c>
+      <c r="V23">
+        <v>0.8973170263569512</v>
+      </c>
+      <c r="W23">
+        <v>0.9817116810886569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.085968231885332</v>
+      </c>
+      <c r="D24">
+        <v>1.085968231885332</v>
+      </c>
+      <c r="E24">
+        <v>0.8488265689022484</v>
+      </c>
+      <c r="F24">
+        <v>1.063142131349222</v>
+      </c>
+      <c r="G24">
+        <v>0.8659968581113571</v>
+      </c>
+      <c r="H24">
+        <v>1.035190179801377</v>
+      </c>
+      <c r="I24">
+        <v>1.327818358188542</v>
+      </c>
+      <c r="J24">
+        <v>0.9591680141669633</v>
+      </c>
+      <c r="K24">
+        <v>1.13295623885233</v>
+      </c>
+      <c r="L24">
+        <v>1.327818358188542</v>
+      </c>
+      <c r="M24">
+        <v>1.085968231885332</v>
+      </c>
+      <c r="N24">
+        <v>1.085968231885332</v>
+      </c>
+      <c r="O24">
+        <v>1.13295623885233</v>
+      </c>
+      <c r="P24">
+        <v>1.230387298520436</v>
+      </c>
+      <c r="Q24">
+        <v>0.9908914038772891</v>
+      </c>
+      <c r="R24">
+        <v>1.182247609642068</v>
+      </c>
+      <c r="S24">
+        <v>1.103200388647707</v>
+      </c>
+      <c r="T24">
+        <v>1.182247609642068</v>
+      </c>
+      <c r="U24">
+        <v>1.098892349457113</v>
+      </c>
+      <c r="V24">
+        <v>1.096307525942757</v>
+      </c>
+      <c r="W24">
+        <v>1.039883322657171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.077481917515846</v>
+      </c>
+      <c r="D25">
+        <v>1.077481917515846</v>
+      </c>
+      <c r="E25">
+        <v>1.002514938563022</v>
+      </c>
+      <c r="F25">
+        <v>0.742840422268632</v>
+      </c>
+      <c r="G25">
+        <v>0.8563341602002271</v>
+      </c>
+      <c r="H25">
+        <v>1.525093231466079</v>
+      </c>
+      <c r="I25">
+        <v>2.186798800320463</v>
+      </c>
+      <c r="J25">
+        <v>0.877340683730699</v>
+      </c>
+      <c r="K25">
+        <v>0.6221718298539746</v>
+      </c>
+      <c r="L25">
+        <v>2.186798800320463</v>
+      </c>
+      <c r="M25">
+        <v>1.077481917515846</v>
+      </c>
+      <c r="N25">
+        <v>1.077481917515846</v>
+      </c>
+      <c r="O25">
+        <v>0.6221718298539746</v>
+      </c>
+      <c r="P25">
+        <v>1.404485315087219</v>
+      </c>
+      <c r="Q25">
+        <v>0.8123433842084984</v>
+      </c>
+      <c r="R25">
+        <v>1.295484182563428</v>
+      </c>
+      <c r="S25">
+        <v>1.270495189579153</v>
+      </c>
+      <c r="T25">
+        <v>1.295484182563428</v>
+      </c>
+      <c r="U25">
+        <v>1.222241871563326</v>
+      </c>
+      <c r="V25">
+        <v>1.19328988075383</v>
+      </c>
+      <c r="W25">
+        <v>1.111321997989868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.6583169716999324</v>
+      </c>
+      <c r="D26">
+        <v>0.6583169716999324</v>
+      </c>
+      <c r="E26">
+        <v>1.226125637598729</v>
+      </c>
+      <c r="F26">
+        <v>0.843693807742339</v>
+      </c>
+      <c r="G26">
+        <v>1.022669813008006</v>
+      </c>
+      <c r="H26">
+        <v>1.070812052321727</v>
+      </c>
+      <c r="I26">
+        <v>0.6738933325761752</v>
+      </c>
+      <c r="J26">
+        <v>1.220994749413356</v>
+      </c>
+      <c r="K26">
+        <v>0.9043097272788778</v>
+      </c>
+      <c r="L26">
+        <v>0.6738933325761752</v>
+      </c>
+      <c r="M26">
+        <v>0.6583169716999324</v>
+      </c>
+      <c r="N26">
+        <v>0.6583169716999324</v>
+      </c>
+      <c r="O26">
+        <v>0.9043097272788778</v>
+      </c>
+      <c r="P26">
+        <v>0.7891015299275266</v>
+      </c>
+      <c r="Q26">
+        <v>1.065217682438804</v>
+      </c>
+      <c r="R26">
+        <v>0.7455066771849953</v>
+      </c>
+      <c r="S26">
+        <v>0.9347762324845942</v>
+      </c>
+      <c r="T26">
+        <v>0.7455066771849953</v>
+      </c>
+      <c r="U26">
+        <v>0.8656614172884287</v>
+      </c>
+      <c r="V26">
+        <v>0.8241925281707294</v>
+      </c>
+      <c r="W26">
+        <v>0.9526020114548929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9434538801479432</v>
+      </c>
+      <c r="D27">
+        <v>0.9434538801479432</v>
+      </c>
+      <c r="E27">
+        <v>0.8967359615511881</v>
+      </c>
+      <c r="F27">
+        <v>1.130206450079754</v>
+      </c>
+      <c r="G27">
+        <v>1.000179114045233</v>
+      </c>
+      <c r="H27">
+        <v>0.9525375602649944</v>
+      </c>
+      <c r="I27">
+        <v>1.258027232464268</v>
+      </c>
+      <c r="J27">
+        <v>0.8728002880349747</v>
+      </c>
+      <c r="K27">
+        <v>1.1324543746853</v>
+      </c>
+      <c r="L27">
+        <v>1.258027232464268</v>
+      </c>
+      <c r="M27">
+        <v>0.9434538801479432</v>
+      </c>
+      <c r="N27">
+        <v>0.9434538801479432</v>
+      </c>
+      <c r="O27">
+        <v>1.1324543746853</v>
+      </c>
+      <c r="P27">
+        <v>1.195240803574784</v>
+      </c>
+      <c r="Q27">
+        <v>1.014595168118244</v>
+      </c>
+      <c r="R27">
+        <v>1.111311829099171</v>
+      </c>
+      <c r="S27">
+        <v>1.095739189566919</v>
+      </c>
+      <c r="T27">
+        <v>1.11131182909917</v>
+      </c>
+      <c r="U27">
+        <v>1.057667862212175</v>
+      </c>
+      <c r="V27">
+        <v>1.034825065799329</v>
+      </c>
+      <c r="W27">
+        <v>1.023299357659207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9631565221768053</v>
+      </c>
+      <c r="D28">
+        <v>0.9631565221768053</v>
+      </c>
+      <c r="E28">
+        <v>0.9471924269820814</v>
+      </c>
+      <c r="F28">
+        <v>1.041285334783568</v>
+      </c>
+      <c r="G28">
+        <v>0.9802065382338501</v>
+      </c>
+      <c r="H28">
+        <v>0.9315530026542393</v>
+      </c>
+      <c r="I28">
+        <v>0.9788329553152325</v>
+      </c>
+      <c r="J28">
+        <v>1.031823770450844</v>
+      </c>
+      <c r="K28">
+        <v>1.078787403047765</v>
+      </c>
+      <c r="L28">
+        <v>0.9788329553152325</v>
+      </c>
+      <c r="M28">
+        <v>0.9631565221768053</v>
+      </c>
+      <c r="N28">
+        <v>0.9631565221768053</v>
+      </c>
+      <c r="O28">
+        <v>1.078787403047765</v>
+      </c>
+      <c r="P28">
+        <v>1.028810179181499</v>
+      </c>
+      <c r="Q28">
+        <v>1.012989915014923</v>
+      </c>
+      <c r="R28">
+        <v>1.006925626846601</v>
+      </c>
+      <c r="S28">
+        <v>1.001604261781693</v>
+      </c>
+      <c r="T28">
+        <v>1.006925626846601</v>
+      </c>
+      <c r="U28">
+        <v>0.991992326880471</v>
+      </c>
+      <c r="V28">
+        <v>0.9862251659397379</v>
+      </c>
+      <c r="W28">
+        <v>0.9941047442055482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9461141511756737</v>
+      </c>
+      <c r="D29">
+        <v>0.9461141511756737</v>
+      </c>
+      <c r="E29">
+        <v>1.011880467228794</v>
+      </c>
+      <c r="F29">
+        <v>0.9359128360128885</v>
+      </c>
+      <c r="G29">
+        <v>1.014714542890092</v>
+      </c>
+      <c r="H29">
+        <v>1.038651161867745</v>
+      </c>
+      <c r="I29">
+        <v>1.167095892021029</v>
+      </c>
+      <c r="J29">
+        <v>1.027655017979422</v>
+      </c>
+      <c r="K29">
+        <v>0.8849356156856564</v>
+      </c>
+      <c r="L29">
+        <v>1.167095892021029</v>
+      </c>
+      <c r="M29">
+        <v>0.9461141511756737</v>
+      </c>
+      <c r="N29">
+        <v>0.9461141511756737</v>
+      </c>
+      <c r="O29">
+        <v>0.8849356156856564</v>
+      </c>
+      <c r="P29">
+        <v>1.026015753853343</v>
+      </c>
+      <c r="Q29">
+        <v>0.9484080414572253</v>
+      </c>
+      <c r="R29">
+        <v>0.9993818862941198</v>
+      </c>
+      <c r="S29">
+        <v>1.02130399164516</v>
+      </c>
+      <c r="T29">
+        <v>0.9993818862941196</v>
+      </c>
+      <c r="U29">
+        <v>1.002506531527788</v>
+      </c>
+      <c r="V29">
+        <v>0.9912280554573654</v>
+      </c>
+      <c r="W29">
+        <v>1.003369960607662</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9410283157356997</v>
+        <v>1.082600945368693</v>
       </c>
       <c r="D4">
-        <v>0.9410283157356997</v>
+        <v>1.082600945368693</v>
       </c>
       <c r="E4">
-        <v>0.9327838618623804</v>
+        <v>1.01350422820951</v>
       </c>
       <c r="F4">
-        <v>1.112138791425088</v>
+        <v>1.012518769963506</v>
       </c>
       <c r="G4">
-        <v>0.9660353266519009</v>
+        <v>1.073287277478802</v>
       </c>
       <c r="H4">
-        <v>0.8811434328313754</v>
+        <v>0.9396312102174148</v>
       </c>
       <c r="I4">
-        <v>0.8367522965725825</v>
+        <v>0.8860049125673761</v>
       </c>
       <c r="J4">
-        <v>1.018487837568358</v>
+        <v>0.959685783364458</v>
       </c>
       <c r="K4">
-        <v>1.220702634192021</v>
+        <v>0.96012387523193</v>
       </c>
       <c r="L4">
-        <v>0.8367522965725825</v>
+        <v>0.8860049125673761</v>
       </c>
       <c r="M4">
-        <v>0.9410283157356997</v>
+        <v>1.082600945368693</v>
       </c>
       <c r="N4">
-        <v>0.9410283157356997</v>
+        <v>1.082600945368693</v>
       </c>
       <c r="O4">
-        <v>1.220702634192021</v>
+        <v>0.96012387523193</v>
       </c>
       <c r="P4">
-        <v>1.028727465382302</v>
+        <v>0.923064393899653</v>
       </c>
       <c r="Q4">
-        <v>1.076743248027201</v>
+        <v>0.9868140517207202</v>
       </c>
       <c r="R4">
-        <v>0.9994944155001012</v>
+        <v>0.976243244389333</v>
       </c>
       <c r="S4">
-        <v>0.9967462642089947</v>
+        <v>0.953211005336272</v>
       </c>
       <c r="T4">
-        <v>0.9994944155001012</v>
+        <v>0.976243244389333</v>
       </c>
       <c r="U4">
-        <v>0.9828167770906709</v>
+        <v>0.9855584903443773</v>
       </c>
       <c r="V4">
-        <v>0.9744590848196767</v>
+        <v>1.00496698134924</v>
       </c>
       <c r="W4">
-        <v>0.9886340621049259</v>
+        <v>0.9909196253002113</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.121081490534586</v>
+        <v>1.85177977969318</v>
       </c>
       <c r="D5">
-        <v>1.121081490534586</v>
+        <v>1.85177977969318</v>
       </c>
       <c r="E5">
-        <v>1.015496367665705</v>
+        <v>0.8482465395264102</v>
       </c>
       <c r="F5">
-        <v>1.013999022903457</v>
+        <v>1.032515094354373</v>
       </c>
       <c r="G5">
-        <v>1.09561753507925</v>
+        <v>1.110791808156038</v>
       </c>
       <c r="H5">
-        <v>0.9221319798609521</v>
+        <v>0.9513023617946759</v>
       </c>
       <c r="I5">
-        <v>0.8572552172211805</v>
+        <v>1.27164900445721</v>
       </c>
       <c r="J5">
-        <v>0.9449443017269445</v>
+        <v>0.6615310458603386</v>
       </c>
       <c r="K5">
-        <v>0.9449869739049024</v>
+        <v>0.7816740777688083</v>
       </c>
       <c r="L5">
-        <v>0.8572552172211805</v>
+        <v>1.27164900445721</v>
       </c>
       <c r="M5">
-        <v>1.121081490534586</v>
+        <v>1.85177977969318</v>
       </c>
       <c r="N5">
-        <v>1.121081490534586</v>
+        <v>1.85177977969318</v>
       </c>
       <c r="O5">
-        <v>0.9449869739049024</v>
+        <v>0.7816740777688083</v>
       </c>
       <c r="P5">
-        <v>0.9011210955630414</v>
+        <v>1.026661541113009</v>
       </c>
       <c r="Q5">
-        <v>0.9802416707853036</v>
+        <v>0.8149603086476092</v>
       </c>
       <c r="R5">
-        <v>0.9744412272202231</v>
+        <v>1.301700953973066</v>
       </c>
       <c r="S5">
-        <v>0.9392461862639291</v>
+        <v>0.967189873917476</v>
       </c>
       <c r="T5">
-        <v>0.9744412272202231</v>
+        <v>1.301700953973066</v>
       </c>
       <c r="U5">
-        <v>0.9847050123315935</v>
+        <v>1.188337350361402</v>
       </c>
       <c r="V5">
-        <v>1.011980307972192</v>
+        <v>1.321025836227757</v>
       </c>
       <c r="W5">
-        <v>0.9894391111121222</v>
+        <v>1.063686213951379</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.349719328351701</v>
+        <v>0.9410283157356997</v>
       </c>
       <c r="D6">
-        <v>1.349719328351701</v>
+        <v>0.9410283157356997</v>
       </c>
       <c r="E6">
-        <v>1.149219708148524</v>
+        <v>0.9327838618623804</v>
       </c>
       <c r="F6">
-        <v>0.9876368128557151</v>
+        <v>1.112138791425088</v>
       </c>
       <c r="G6">
-        <v>1.450733327112599</v>
+        <v>0.9660353266519009</v>
       </c>
       <c r="H6">
-        <v>0.7540533908199505</v>
+        <v>0.8811434328313754</v>
       </c>
       <c r="I6">
-        <v>0.5138821717937158</v>
+        <v>0.8367522965725825</v>
       </c>
       <c r="J6">
-        <v>0.7683432062432897</v>
+        <v>1.018487837568358</v>
       </c>
       <c r="K6">
-        <v>0.6895182896903973</v>
+        <v>1.220702634192021</v>
       </c>
       <c r="L6">
-        <v>0.5138821717937158</v>
+        <v>0.8367522965725825</v>
       </c>
       <c r="M6">
-        <v>1.349719328351701</v>
+        <v>0.9410283157356997</v>
       </c>
       <c r="N6">
-        <v>1.349719328351701</v>
+        <v>0.9410283157356997</v>
       </c>
       <c r="O6">
-        <v>0.6895182896903973</v>
+        <v>1.220702634192021</v>
       </c>
       <c r="P6">
-        <v>0.6017002307420565</v>
+        <v>1.028727465382302</v>
       </c>
       <c r="Q6">
-        <v>0.9193689989194604</v>
+        <v>1.076743248027201</v>
       </c>
       <c r="R6">
-        <v>0.8510399299452714</v>
+        <v>0.9994944155001012</v>
       </c>
       <c r="S6">
-        <v>0.7842067232108789</v>
+        <v>0.9967462642089947</v>
       </c>
       <c r="T6">
-        <v>0.8510399299452714</v>
+        <v>0.9994944155001012</v>
       </c>
       <c r="U6">
-        <v>0.9255848744960844</v>
+        <v>0.9828167770906709</v>
       </c>
       <c r="V6">
-        <v>1.010411765267208</v>
+        <v>0.9744590848196767</v>
       </c>
       <c r="W6">
-        <v>0.9578882793769865</v>
+        <v>0.9886340621049259</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.011060632315808</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="D7">
-        <v>1.011060632315808</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="E7">
-        <v>0.9992001722045938</v>
+        <v>1.015496367665705</v>
       </c>
       <c r="F7">
-        <v>1.00255095915561</v>
+        <v>1.013999022903457</v>
       </c>
       <c r="G7">
-        <v>1.003620074914059</v>
+        <v>1.09561753507925</v>
       </c>
       <c r="H7">
-        <v>0.9896443902709321</v>
+        <v>0.9221319798609521</v>
       </c>
       <c r="I7">
-        <v>0.9770175631538608</v>
+        <v>0.8572552172211805</v>
       </c>
       <c r="J7">
-        <v>1.001136756498077</v>
+        <v>0.9449443017269445</v>
       </c>
       <c r="K7">
-        <v>1.002940946052802</v>
+        <v>0.9449869739049024</v>
       </c>
       <c r="L7">
-        <v>0.9770175631538608</v>
+        <v>0.8572552172211805</v>
       </c>
       <c r="M7">
-        <v>1.011060632315808</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="N7">
-        <v>1.011060632315808</v>
+        <v>1.121081490534586</v>
       </c>
       <c r="O7">
-        <v>1.002940946052802</v>
+        <v>0.9449869739049024</v>
       </c>
       <c r="P7">
-        <v>0.9899792546033312</v>
+        <v>0.9011210955630414</v>
       </c>
       <c r="Q7">
-        <v>1.001070559128698</v>
+        <v>0.9802416707853036</v>
       </c>
       <c r="R7">
-        <v>0.9970063805074899</v>
+        <v>0.9744412272202231</v>
       </c>
       <c r="S7">
-        <v>0.9930528938037521</v>
+        <v>0.9392461862639291</v>
       </c>
       <c r="T7">
-        <v>0.9970063805074899</v>
+        <v>0.9744412272202231</v>
       </c>
       <c r="U7">
-        <v>0.9975548284317659</v>
+        <v>0.9847050123315935</v>
       </c>
       <c r="V7">
-        <v>1.000255989208574</v>
+        <v>1.011980307972192</v>
       </c>
       <c r="W7">
-        <v>0.9983964368207177</v>
+        <v>0.9894391111121222</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.005366309115325</v>
+        <v>1.349719328351701</v>
       </c>
       <c r="D8">
-        <v>1.005366309115325</v>
+        <v>1.349719328351701</v>
       </c>
       <c r="E8">
-        <v>1.001693287019259</v>
+        <v>1.149219708148524</v>
       </c>
       <c r="F8">
-        <v>0.9982113808024738</v>
+        <v>0.9876368128557151</v>
       </c>
       <c r="G8">
-        <v>1.002775539558388</v>
+        <v>1.450733327112599</v>
       </c>
       <c r="H8">
-        <v>1.00065776332163</v>
+        <v>0.7540533908199505</v>
       </c>
       <c r="I8">
-        <v>0.9994767172975132</v>
+        <v>0.5138821717937158</v>
       </c>
       <c r="J8">
-        <v>0.9979338586651018</v>
+        <v>0.7683432062432897</v>
       </c>
       <c r="K8">
-        <v>0.9944554110654793</v>
+        <v>0.6895182896903973</v>
       </c>
       <c r="L8">
-        <v>0.9994767172975132</v>
+        <v>0.5138821717937158</v>
       </c>
       <c r="M8">
-        <v>1.005366309115325</v>
+        <v>1.349719328351701</v>
       </c>
       <c r="N8">
-        <v>1.005366309115325</v>
+        <v>1.349719328351701</v>
       </c>
       <c r="O8">
-        <v>0.9944554110654793</v>
+        <v>0.6895182896903973</v>
       </c>
       <c r="P8">
-        <v>0.9969660641814962</v>
+        <v>0.6017002307420565</v>
       </c>
       <c r="Q8">
-        <v>0.9980743490423694</v>
+        <v>0.9193689989194604</v>
       </c>
       <c r="R8">
-        <v>0.9997661458261057</v>
+        <v>0.8510399299452714</v>
       </c>
       <c r="S8">
-        <v>0.9985418051274172</v>
+        <v>0.7842067232108789</v>
       </c>
       <c r="T8">
-        <v>0.9997661458261057</v>
+        <v>0.8510399299452714</v>
       </c>
       <c r="U8">
-        <v>1.000247931124394</v>
+        <v>0.9255848744960844</v>
       </c>
       <c r="V8">
-        <v>1.00127160672258</v>
+        <v>1.010411765267208</v>
       </c>
       <c r="W8">
-        <v>1.000071283355646</v>
+        <v>0.9578882793769865</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.008458511609559</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="D9">
-        <v>1.008458511609559</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="E9">
-        <v>1.00114004576836</v>
+        <v>0.9992001722045938</v>
       </c>
       <c r="F9">
-        <v>1.004504026413649</v>
+        <v>1.00255095915561</v>
       </c>
       <c r="G9">
-        <v>1.00635253165193</v>
+        <v>1.003620074914059</v>
       </c>
       <c r="H9">
-        <v>0.9803615324455899</v>
+        <v>0.9896443902709321</v>
       </c>
       <c r="I9">
-        <v>0.9519197750248702</v>
+        <v>0.9770175631538608</v>
       </c>
       <c r="J9">
-        <v>1.006304013726786</v>
+        <v>1.001136756498077</v>
       </c>
       <c r="K9">
-        <v>1.009591948287714</v>
+        <v>1.002940946052802</v>
       </c>
       <c r="L9">
-        <v>0.9519197750248702</v>
+        <v>0.9770175631538608</v>
       </c>
       <c r="M9">
-        <v>1.008458511609559</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="N9">
-        <v>1.008458511609559</v>
+        <v>1.011060632315808</v>
       </c>
       <c r="O9">
-        <v>1.009591948287714</v>
+        <v>1.002940946052802</v>
       </c>
       <c r="P9">
-        <v>0.9807558616562922</v>
+        <v>0.9899792546033312</v>
       </c>
       <c r="Q9">
-        <v>1.005365997028037</v>
+        <v>1.001070559128698</v>
       </c>
       <c r="R9">
-        <v>0.9899900783073812</v>
+        <v>0.9970063805074899</v>
       </c>
       <c r="S9">
-        <v>0.9875505896936483</v>
+        <v>0.9930528938037521</v>
       </c>
       <c r="T9">
-        <v>0.9899900783073812</v>
+        <v>0.9970063805074899</v>
       </c>
       <c r="U9">
-        <v>0.9927775701726259</v>
+        <v>0.9975548284317659</v>
       </c>
       <c r="V9">
-        <v>0.9959137584600125</v>
+        <v>1.000255989208574</v>
       </c>
       <c r="W9">
-        <v>0.9960790481160574</v>
+        <v>0.9983964368207177</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.354966212249216</v>
+        <v>1.005366309115325</v>
       </c>
       <c r="D10">
-        <v>1.354966212249216</v>
+        <v>1.005366309115325</v>
       </c>
       <c r="E10">
-        <v>1.160669673277002</v>
+        <v>1.001693287019259</v>
       </c>
       <c r="F10">
-        <v>0.980459141400241</v>
+        <v>0.9982113808024738</v>
       </c>
       <c r="G10">
-        <v>1.465396462662534</v>
+        <v>1.002775539558388</v>
       </c>
       <c r="H10">
-        <v>0.7515472078572225</v>
+        <v>1.00065776332163</v>
       </c>
       <c r="I10">
-        <v>0.4935709424322775</v>
+        <v>0.9994767172975132</v>
       </c>
       <c r="J10">
-        <v>0.7665880273706911</v>
+        <v>0.9979338586651018</v>
       </c>
       <c r="K10">
-        <v>0.6719727483441619</v>
+        <v>0.9944554110654793</v>
       </c>
       <c r="L10">
-        <v>0.4935709424322775</v>
+        <v>0.9994767172975132</v>
       </c>
       <c r="M10">
-        <v>1.354966212249216</v>
+        <v>1.005366309115325</v>
       </c>
       <c r="N10">
-        <v>1.354966212249216</v>
+        <v>1.005366309115325</v>
       </c>
       <c r="O10">
-        <v>0.6719727483441619</v>
+        <v>0.9944554110654793</v>
       </c>
       <c r="P10">
-        <v>0.5827718453882197</v>
+        <v>0.9969660641814962</v>
       </c>
       <c r="Q10">
-        <v>0.916321210810582</v>
+        <v>0.9980743490423694</v>
       </c>
       <c r="R10">
-        <v>0.8401699676752185</v>
+        <v>0.9997661458261057</v>
       </c>
       <c r="S10">
-        <v>0.7754044546844806</v>
+        <v>0.9985418051274172</v>
       </c>
       <c r="T10">
-        <v>0.8401699676752185</v>
+        <v>0.9997661458261057</v>
       </c>
       <c r="U10">
-        <v>0.9202948940756643</v>
+        <v>1.000247931124394</v>
       </c>
       <c r="V10">
-        <v>1.007229157710375</v>
+        <v>1.00127160672258</v>
       </c>
       <c r="W10">
-        <v>0.9556463019491682</v>
+        <v>1.000071283355646</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8658865444728623</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="D11">
-        <v>0.8658865444728623</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="E11">
-        <v>0.9715385722311448</v>
+        <v>1.00114004576836</v>
       </c>
       <c r="F11">
-        <v>1.023791613212608</v>
+        <v>1.004504026413649</v>
       </c>
       <c r="G11">
-        <v>0.9194118866254576</v>
+        <v>1.00635253165193</v>
       </c>
       <c r="H11">
-        <v>1.023818590968897</v>
+        <v>0.9803615324455899</v>
       </c>
       <c r="I11">
-        <v>1.069400380383577</v>
+        <v>0.9519197750248702</v>
       </c>
       <c r="J11">
-        <v>1.044862617498488</v>
+        <v>1.006304013726786</v>
       </c>
       <c r="K11">
-        <v>1.134896896511346</v>
+        <v>1.009591948287714</v>
       </c>
       <c r="L11">
-        <v>1.069400380383577</v>
+        <v>0.9519197750248702</v>
       </c>
       <c r="M11">
-        <v>0.8658865444728623</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="N11">
-        <v>0.8658865444728623</v>
+        <v>1.008458511609559</v>
       </c>
       <c r="O11">
-        <v>1.134896896511346</v>
+        <v>1.009591948287714</v>
       </c>
       <c r="P11">
-        <v>1.102148638447462</v>
+        <v>0.9807558616562922</v>
       </c>
       <c r="Q11">
-        <v>1.053217734371245</v>
+        <v>1.005365997028037</v>
       </c>
       <c r="R11">
-        <v>1.023394607122595</v>
+        <v>0.9899900783073812</v>
       </c>
       <c r="S11">
-        <v>1.058611949708689</v>
+        <v>0.9875505896936483</v>
       </c>
       <c r="T11">
-        <v>1.023394607122595</v>
+        <v>0.9899900783073812</v>
       </c>
       <c r="U11">
-        <v>1.010430598399733</v>
+        <v>0.9927775701726259</v>
       </c>
       <c r="V11">
-        <v>0.9815217876143585</v>
+        <v>0.9959137584600125</v>
       </c>
       <c r="W11">
-        <v>1.006700887738047</v>
+        <v>0.9960790481160574</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.13000010542737</v>
+        <v>1.354966212249216</v>
       </c>
       <c r="D12">
-        <v>1.13000010542737</v>
+        <v>1.354966212249216</v>
       </c>
       <c r="E12">
-        <v>1.041879730778943</v>
+        <v>1.160669673277002</v>
       </c>
       <c r="F12">
-        <v>0.9907241408315798</v>
+        <v>0.980459141400241</v>
       </c>
       <c r="G12">
-        <v>1.125108403294736</v>
+        <v>1.465396462662534</v>
       </c>
       <c r="H12">
-        <v>0.9313595592315799</v>
+        <v>0.7515472078572225</v>
       </c>
       <c r="I12">
-        <v>0.8483049183242107</v>
+        <v>0.4935709424322775</v>
       </c>
       <c r="J12">
-        <v>0.9374239477368419</v>
+        <v>0.7665880273706911</v>
       </c>
       <c r="K12">
-        <v>0.8967552269052629</v>
+        <v>0.6719727483441619</v>
       </c>
       <c r="L12">
-        <v>0.8483049183242107</v>
+        <v>0.4935709424322775</v>
       </c>
       <c r="M12">
-        <v>1.13000010542737</v>
+        <v>1.354966212249216</v>
       </c>
       <c r="N12">
-        <v>1.13000010542737</v>
+        <v>1.354966212249216</v>
       </c>
       <c r="O12">
-        <v>0.8967552269052629</v>
+        <v>0.6719727483441619</v>
       </c>
       <c r="P12">
-        <v>0.8725300726147368</v>
+        <v>0.5827718453882197</v>
       </c>
       <c r="Q12">
-        <v>0.9693174788421028</v>
+        <v>0.916321210810582</v>
       </c>
       <c r="R12">
-        <v>0.9583534168856147</v>
+        <v>0.8401699676752185</v>
       </c>
       <c r="S12">
-        <v>0.9289799586694721</v>
+        <v>0.7754044546844806</v>
       </c>
       <c r="T12">
-        <v>0.9583534168856146</v>
+        <v>0.8401699676752185</v>
       </c>
       <c r="U12">
-        <v>0.9792349953589466</v>
+        <v>0.9202948940756643</v>
       </c>
       <c r="V12">
-        <v>1.009388017372631</v>
+        <v>1.007229157710375</v>
       </c>
       <c r="W12">
-        <v>0.9876945040663154</v>
+        <v>0.9556463019491682</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9170435608849902</v>
+        <v>0.8658865444728623</v>
       </c>
       <c r="D13">
-        <v>0.9170435608849902</v>
+        <v>0.8658865444728623</v>
       </c>
       <c r="E13">
-        <v>1.038544609151387</v>
+        <v>0.9715385722311448</v>
       </c>
       <c r="F13">
-        <v>0.9544152287563487</v>
+        <v>1.023791613212608</v>
       </c>
       <c r="G13">
-        <v>0.9845731034785061</v>
+        <v>0.9194118866254576</v>
       </c>
       <c r="H13">
-        <v>1.056163519993619</v>
+        <v>1.023818590968897</v>
       </c>
       <c r="I13">
-        <v>1.036086300489903</v>
+        <v>1.069400380383577</v>
       </c>
       <c r="J13">
-        <v>1.039257239579593</v>
+        <v>1.044862617498488</v>
       </c>
       <c r="K13">
-        <v>0.9695095988130132</v>
+        <v>1.134896896511346</v>
       </c>
       <c r="L13">
-        <v>1.036086300489903</v>
+        <v>1.069400380383577</v>
       </c>
       <c r="M13">
-        <v>0.9170435608849902</v>
+        <v>0.8658865444728623</v>
       </c>
       <c r="N13">
-        <v>0.9170435608849902</v>
+        <v>0.8658865444728623</v>
       </c>
       <c r="O13">
-        <v>0.9695095988130132</v>
+        <v>1.134896896511346</v>
       </c>
       <c r="P13">
-        <v>1.002797949651458</v>
+        <v>1.102148638447462</v>
       </c>
       <c r="Q13">
-        <v>1.0040271039822</v>
+        <v>1.053217734371245</v>
       </c>
       <c r="R13">
-        <v>0.9742131533959687</v>
+        <v>1.023394607122595</v>
       </c>
       <c r="S13">
-        <v>1.014713502818101</v>
+        <v>1.058611949708689</v>
       </c>
       <c r="T13">
-        <v>0.9742131533959689</v>
+        <v>1.023394607122595</v>
       </c>
       <c r="U13">
-        <v>0.9902960173348233</v>
+        <v>1.010430598399733</v>
       </c>
       <c r="V13">
-        <v>0.9756455260448567</v>
+        <v>0.9815217876143585</v>
       </c>
       <c r="W13">
-        <v>0.99944914514342</v>
+        <v>1.006700887738047</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.602476899999999</v>
+        <v>1.13000010542737</v>
       </c>
       <c r="D14">
-        <v>1.602476899999999</v>
+        <v>1.13000010542737</v>
       </c>
       <c r="E14">
-        <v>1.2882547</v>
+        <v>1.041879730778943</v>
       </c>
       <c r="F14">
-        <v>0.9614322199999996</v>
+        <v>0.9907241408315798</v>
       </c>
       <c r="G14">
-        <v>1.8268372</v>
+        <v>1.125108403294736</v>
       </c>
       <c r="H14">
-        <v>0.5711872500000007</v>
+        <v>0.9313595592315799</v>
       </c>
       <c r="I14">
-        <v>0.1423185199999999</v>
+        <v>0.8483049183242107</v>
       </c>
       <c r="J14">
-        <v>0.5809077099999989</v>
+        <v>0.9374239477368419</v>
       </c>
       <c r="K14">
-        <v>0.4216040899999995</v>
+        <v>0.8967552269052629</v>
       </c>
       <c r="L14">
-        <v>0.1423185199999999</v>
+        <v>0.8483049183242107</v>
       </c>
       <c r="M14">
-        <v>1.602476899999999</v>
+        <v>1.13000010542737</v>
       </c>
       <c r="N14">
-        <v>1.602476899999999</v>
+        <v>1.13000010542737</v>
       </c>
       <c r="O14">
-        <v>0.4216040899999995</v>
+        <v>0.8967552269052629</v>
       </c>
       <c r="P14">
-        <v>0.2819613049999997</v>
+        <v>0.8725300726147368</v>
       </c>
       <c r="Q14">
-        <v>0.8549293949999996</v>
+        <v>0.9693174788421028</v>
       </c>
       <c r="R14">
-        <v>0.7221331699999997</v>
+        <v>0.9583534168856147</v>
       </c>
       <c r="S14">
-        <v>0.6173924366666664</v>
+        <v>0.9289799586694721</v>
       </c>
       <c r="T14">
-        <v>0.7221331699999997</v>
+        <v>0.9583534168856146</v>
       </c>
       <c r="U14">
-        <v>0.8636635524999996</v>
+        <v>0.9792349953589466</v>
       </c>
       <c r="V14">
-        <v>1.011426221999999</v>
+        <v>1.009388017372631</v>
       </c>
       <c r="W14">
-        <v>0.9243773237499997</v>
+        <v>0.9876945040663154</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.1660044</v>
+        <v>0.9170435608849902</v>
       </c>
       <c r="D15">
-        <v>5.1660044</v>
+        <v>0.9170435608849902</v>
       </c>
       <c r="E15">
-        <v>0.34611211</v>
+        <v>1.038544609151387</v>
       </c>
       <c r="F15">
-        <v>1.1595382</v>
+        <v>0.9544152287563487</v>
       </c>
       <c r="G15">
-        <v>1.6025524</v>
+        <v>0.9845731034785061</v>
       </c>
       <c r="H15">
-        <v>0.044891432</v>
+        <v>1.056163519993619</v>
       </c>
       <c r="I15">
-        <v>0.0017993233</v>
+        <v>1.036086300489903</v>
       </c>
       <c r="J15">
-        <v>0.082419669</v>
+        <v>1.039257239579593</v>
       </c>
       <c r="K15">
-        <v>0.21380688</v>
+        <v>0.9695095988130132</v>
       </c>
       <c r="L15">
-        <v>0.0017993233</v>
+        <v>1.036086300489903</v>
       </c>
       <c r="M15">
-        <v>5.1660044</v>
+        <v>0.9170435608849902</v>
       </c>
       <c r="N15">
-        <v>5.1660044</v>
+        <v>0.9170435608849902</v>
       </c>
       <c r="O15">
-        <v>0.21380688</v>
+        <v>0.9695095988130132</v>
       </c>
       <c r="P15">
-        <v>0.10780310165</v>
+        <v>1.002797949651458</v>
       </c>
       <c r="Q15">
-        <v>0.279959495</v>
+        <v>1.0040271039822</v>
       </c>
       <c r="R15">
-        <v>1.7938702011</v>
+        <v>0.9742131533959687</v>
       </c>
       <c r="S15">
-        <v>0.1872394377666667</v>
+        <v>1.014713502818101</v>
       </c>
       <c r="T15">
-        <v>1.7938702011</v>
+        <v>0.9742131533959689</v>
       </c>
       <c r="U15">
-        <v>1.431930678325</v>
+        <v>0.9902960173348233</v>
       </c>
       <c r="V15">
-        <v>2.17874542266</v>
+        <v>0.9756455260448567</v>
       </c>
       <c r="W15">
-        <v>1.0771405517875</v>
+        <v>0.99944914514342</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.21380688</v>
+        <v>1.602476899999999</v>
       </c>
       <c r="D16">
-        <v>0.21380688</v>
+        <v>1.602476899999999</v>
       </c>
       <c r="E16">
-        <v>0.31618718</v>
+        <v>1.2882547</v>
       </c>
       <c r="F16">
-        <v>2.0086866</v>
+        <v>0.9614322199999996</v>
       </c>
       <c r="G16">
-        <v>0.42160412</v>
+        <v>1.8268372</v>
       </c>
       <c r="H16">
-        <v>0.14241558</v>
+        <v>0.5711872500000007</v>
       </c>
       <c r="I16">
-        <v>0.023300756</v>
+        <v>0.1423185199999999</v>
       </c>
       <c r="J16">
-        <v>1.2099909</v>
+        <v>0.5809077099999989</v>
       </c>
       <c r="K16">
-        <v>3.4428622</v>
+        <v>0.4216040899999995</v>
       </c>
       <c r="L16">
-        <v>0.023300756</v>
+        <v>0.1423185199999999</v>
       </c>
       <c r="M16">
-        <v>0.21380688</v>
+        <v>1.602476899999999</v>
       </c>
       <c r="N16">
-        <v>0.21380688</v>
+        <v>1.602476899999999</v>
       </c>
       <c r="O16">
-        <v>3.4428622</v>
+        <v>0.4216040899999995</v>
       </c>
       <c r="P16">
-        <v>1.733081478</v>
+        <v>0.2819613049999997</v>
       </c>
       <c r="Q16">
-        <v>1.87952469</v>
+        <v>0.8549293949999996</v>
       </c>
       <c r="R16">
-        <v>1.226656612</v>
+        <v>0.7221331699999997</v>
       </c>
       <c r="S16">
-        <v>1.260783378666667</v>
+        <v>0.6173924366666664</v>
       </c>
       <c r="T16">
-        <v>1.226656612</v>
+        <v>0.7221331699999997</v>
       </c>
       <c r="U16">
-        <v>0.999039254</v>
+        <v>0.8636635524999996</v>
       </c>
       <c r="V16">
-        <v>0.8419927792000002</v>
+        <v>1.011426221999999</v>
       </c>
       <c r="W16">
-        <v>0.9723567770000001</v>
+        <v>0.9243773237499997</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.6025901</v>
+        <v>5.1660044</v>
       </c>
       <c r="D17">
-        <v>1.6025901</v>
+        <v>5.1660044</v>
       </c>
       <c r="E17">
-        <v>1.2882092</v>
+        <v>0.34611211</v>
       </c>
       <c r="F17">
-        <v>0.96145938</v>
+        <v>1.1595382</v>
       </c>
       <c r="G17">
-        <v>1.8268479</v>
+        <v>1.6025524</v>
       </c>
       <c r="H17">
-        <v>0.57114494</v>
+        <v>0.044891432</v>
       </c>
       <c r="I17">
-        <v>0.14229975</v>
+        <v>0.0017993233</v>
       </c>
       <c r="J17">
-        <v>0.58087662</v>
+        <v>0.082419669</v>
       </c>
       <c r="K17">
-        <v>0.42160414</v>
+        <v>0.21380688</v>
       </c>
       <c r="L17">
-        <v>0.14229975</v>
+        <v>0.0017993233</v>
       </c>
       <c r="M17">
-        <v>1.6025901</v>
+        <v>5.1660044</v>
       </c>
       <c r="N17">
-        <v>1.6025901</v>
+        <v>5.1660044</v>
       </c>
       <c r="O17">
-        <v>0.42160414</v>
+        <v>0.21380688</v>
       </c>
       <c r="P17">
-        <v>0.281951945</v>
+        <v>0.10780310165</v>
       </c>
       <c r="Q17">
-        <v>0.8549066700000001</v>
+        <v>0.279959495</v>
       </c>
       <c r="R17">
-        <v>0.7221646633333333</v>
+        <v>1.7938702011</v>
       </c>
       <c r="S17">
-        <v>0.61737103</v>
+        <v>0.1872394377666667</v>
       </c>
       <c r="T17">
-        <v>0.7221646633333333</v>
+        <v>1.7938702011</v>
       </c>
       <c r="U17">
-        <v>0.8636757975</v>
+        <v>1.431930678325</v>
       </c>
       <c r="V17">
-        <v>1.011458658</v>
+        <v>2.17874542266</v>
       </c>
       <c r="W17">
-        <v>0.92437900375</v>
+        <v>1.0771405517875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.133748609424658</v>
+        <v>0.21380688</v>
       </c>
       <c r="D18">
-        <v>1.133748609424658</v>
+        <v>0.21380688</v>
       </c>
       <c r="E18">
-        <v>0.9948765595890408</v>
+        <v>0.31618718</v>
       </c>
       <c r="F18">
-        <v>1.067458096438356</v>
+        <v>2.0086866</v>
       </c>
       <c r="G18">
-        <v>1.067756425205479</v>
+        <v>0.42160412</v>
       </c>
       <c r="H18">
-        <v>0.7486786571506849</v>
+        <v>0.14241558</v>
       </c>
       <c r="I18">
-        <v>0.4088314487054795</v>
+        <v>0.023300756</v>
       </c>
       <c r="J18">
-        <v>1.074206739273973</v>
+        <v>1.2099909</v>
       </c>
       <c r="K18">
-        <v>1.128498437260274</v>
+        <v>3.4428622</v>
       </c>
       <c r="L18">
-        <v>0.4088314487054795</v>
+        <v>0.023300756</v>
       </c>
       <c r="M18">
-        <v>1.133748609424658</v>
+        <v>0.21380688</v>
       </c>
       <c r="N18">
-        <v>1.133748609424658</v>
+        <v>0.21380688</v>
       </c>
       <c r="O18">
-        <v>1.128498437260274</v>
+        <v>3.4428622</v>
       </c>
       <c r="P18">
-        <v>0.7686649429828767</v>
+        <v>1.733081478</v>
       </c>
       <c r="Q18">
-        <v>1.061687498424657</v>
+        <v>1.87952469</v>
       </c>
       <c r="R18">
-        <v>0.8903594984634703</v>
+        <v>1.226656612</v>
       </c>
       <c r="S18">
-        <v>0.8440688151849315</v>
+        <v>1.260783378666667</v>
       </c>
       <c r="T18">
-        <v>0.8903594984634703</v>
+        <v>1.226656612</v>
       </c>
       <c r="U18">
-        <v>0.9164887637448629</v>
+        <v>0.999039254</v>
       </c>
       <c r="V18">
-        <v>0.9599407328808219</v>
+        <v>0.8419927792000002</v>
       </c>
       <c r="W18">
-        <v>0.9530068716309932</v>
+        <v>0.9723567770000001</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8672345984210524</v>
+        <v>1.6025901</v>
       </c>
       <c r="D19">
-        <v>0.8672345984210524</v>
+        <v>1.6025901</v>
       </c>
       <c r="E19">
-        <v>0.7640934242105263</v>
+        <v>1.2882092</v>
       </c>
       <c r="F19">
-        <v>1.536941284210526</v>
+        <v>0.96145938</v>
       </c>
       <c r="G19">
-        <v>1.080195077894737</v>
+        <v>1.8268479</v>
       </c>
       <c r="H19">
-        <v>0.3443973900000001</v>
+        <v>0.57114494</v>
       </c>
       <c r="I19">
-        <v>0.07967040210526316</v>
+        <v>0.14229975</v>
       </c>
       <c r="J19">
-        <v>0.9254137836842103</v>
+        <v>0.58087662</v>
       </c>
       <c r="K19">
-        <v>1.835661583157895</v>
+        <v>0.42160414</v>
       </c>
       <c r="L19">
-        <v>0.07967040210526316</v>
+        <v>0.14229975</v>
       </c>
       <c r="M19">
-        <v>0.8672345984210524</v>
+        <v>1.6025901</v>
       </c>
       <c r="N19">
-        <v>0.8672345984210524</v>
+        <v>1.6025901</v>
       </c>
       <c r="O19">
-        <v>1.835661583157895</v>
+        <v>0.42160414</v>
       </c>
       <c r="P19">
-        <v>0.9576659926315789</v>
+        <v>0.281951945</v>
       </c>
       <c r="Q19">
-        <v>1.299877503684211</v>
+        <v>0.8549066700000001</v>
       </c>
       <c r="R19">
-        <v>0.9275221945614035</v>
+        <v>0.7221646633333333</v>
       </c>
       <c r="S19">
-        <v>0.8931418031578947</v>
+        <v>0.61737103</v>
       </c>
       <c r="T19">
-        <v>0.9275221945614035</v>
+        <v>0.7221646633333333</v>
       </c>
       <c r="U19">
-        <v>0.8866650019736841</v>
+        <v>0.8636757975</v>
       </c>
       <c r="V19">
-        <v>0.8827789212631577</v>
+        <v>1.011458658</v>
       </c>
       <c r="W19">
-        <v>0.9292009429605262</v>
+        <v>0.92437900375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.912083033157895</v>
+        <v>1.133748609424658</v>
       </c>
       <c r="D20">
-        <v>1.912083033157895</v>
+        <v>1.133748609424658</v>
       </c>
       <c r="E20">
-        <v>0.868441047368421</v>
+        <v>0.9948765595890408</v>
       </c>
       <c r="F20">
-        <v>1.02886292368421</v>
+        <v>1.067458096438356</v>
       </c>
       <c r="G20">
-        <v>1.17140193</v>
+        <v>1.067756425205479</v>
       </c>
       <c r="H20">
-        <v>0.9057625058421053</v>
+        <v>0.7486786571506849</v>
       </c>
       <c r="I20">
-        <v>1.164093971989474</v>
+        <v>0.4088314487054795</v>
       </c>
       <c r="J20">
-        <v>0.6432084446842106</v>
+        <v>1.074206739273973</v>
       </c>
       <c r="K20">
-        <v>0.7414934521052632</v>
+        <v>1.128498437260274</v>
       </c>
       <c r="L20">
-        <v>1.164093971989474</v>
+        <v>0.4088314487054795</v>
       </c>
       <c r="M20">
-        <v>1.912083033157895</v>
+        <v>1.133748609424658</v>
       </c>
       <c r="N20">
-        <v>1.912083033157895</v>
+        <v>1.133748609424658</v>
       </c>
       <c r="O20">
-        <v>0.7414934521052632</v>
+        <v>1.128498437260274</v>
       </c>
       <c r="P20">
-        <v>0.9527937120473684</v>
+        <v>0.7686649429828767</v>
       </c>
       <c r="Q20">
-        <v>0.8049672497368421</v>
+        <v>1.061687498424657</v>
       </c>
       <c r="R20">
-        <v>1.272556819084211</v>
+        <v>0.8903594984634703</v>
       </c>
       <c r="S20">
-        <v>0.9246761571543859</v>
+        <v>0.8440688151849315</v>
       </c>
       <c r="T20">
-        <v>1.27255681908421</v>
+        <v>0.8903594984634703</v>
       </c>
       <c r="U20">
-        <v>1.171527876155263</v>
+        <v>0.9164887637448629</v>
       </c>
       <c r="V20">
-        <v>1.319638907555789</v>
+        <v>0.9599407328808219</v>
       </c>
       <c r="W20">
-        <v>1.054418413603947</v>
+        <v>0.9530068716309932</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6118761298839663</v>
+        <v>0.8672345984210524</v>
       </c>
       <c r="D21">
-        <v>0.6118761298839663</v>
+        <v>0.8672345984210524</v>
       </c>
       <c r="E21">
-        <v>0.648247195792106</v>
+        <v>0.7640934242105263</v>
       </c>
       <c r="F21">
-        <v>1.577416227217531</v>
+        <v>1.536941284210526</v>
       </c>
       <c r="G21">
-        <v>0.8003394716340935</v>
+        <v>1.080195077894737</v>
       </c>
       <c r="H21">
-        <v>0.3789046812554486</v>
+        <v>0.3443973900000001</v>
       </c>
       <c r="I21">
-        <v>0.1309952242496458</v>
+        <v>0.07967040210526316</v>
       </c>
       <c r="J21">
-        <v>1.162433604120343</v>
+        <v>0.9254137836842103</v>
       </c>
       <c r="K21">
-        <v>2.078925007802522</v>
+        <v>1.835661583157895</v>
       </c>
       <c r="L21">
-        <v>0.1309952242496458</v>
+        <v>0.07967040210526316</v>
       </c>
       <c r="M21">
-        <v>0.6118761298839663</v>
+        <v>0.8672345984210524</v>
       </c>
       <c r="N21">
-        <v>0.6118761298839663</v>
+        <v>0.8672345984210524</v>
       </c>
       <c r="O21">
-        <v>2.078925007802522</v>
+        <v>1.835661583157895</v>
       </c>
       <c r="P21">
-        <v>1.104960116026084</v>
+        <v>0.9576659926315789</v>
       </c>
       <c r="Q21">
-        <v>1.363586101797314</v>
+        <v>1.299877503684211</v>
       </c>
       <c r="R21">
-        <v>0.9405987873120448</v>
+        <v>0.9275221945614035</v>
       </c>
       <c r="S21">
-        <v>0.9527224759480913</v>
+        <v>0.8931418031578947</v>
       </c>
       <c r="T21">
-        <v>0.9405987873120448</v>
+        <v>0.9275221945614035</v>
       </c>
       <c r="U21">
-        <v>0.8675108894320601</v>
+        <v>0.8866650019736841</v>
       </c>
       <c r="V21">
-        <v>0.8163839375224413</v>
+        <v>0.8827789212631577</v>
       </c>
       <c r="W21">
-        <v>0.923642192744457</v>
+        <v>0.9292009429605262</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.385168613528747</v>
+        <v>1.912083033157895</v>
       </c>
       <c r="D22">
-        <v>1.385168613528747</v>
+        <v>1.912083033157895</v>
       </c>
       <c r="E22">
-        <v>1.165847523771667</v>
+        <v>0.868441047368421</v>
       </c>
       <c r="F22">
-        <v>0.8528757068022605</v>
+        <v>1.02886292368421</v>
       </c>
       <c r="G22">
-        <v>1.272094853981119</v>
+        <v>1.17140193</v>
       </c>
       <c r="H22">
-        <v>0.9767146643142903</v>
+        <v>0.9057625058421053</v>
       </c>
       <c r="I22">
-        <v>0.7272515901625779</v>
+        <v>1.164093971989474</v>
       </c>
       <c r="J22">
-        <v>0.892326066088787</v>
+        <v>0.6432084446842106</v>
       </c>
       <c r="K22">
-        <v>0.5477037836539453</v>
+        <v>0.7414934521052632</v>
       </c>
       <c r="L22">
-        <v>0.7272515901625779</v>
+        <v>1.164093971989474</v>
       </c>
       <c r="M22">
-        <v>1.385168613528747</v>
+        <v>1.912083033157895</v>
       </c>
       <c r="N22">
-        <v>1.385168613528747</v>
+        <v>1.912083033157895</v>
       </c>
       <c r="O22">
-        <v>0.5477037836539453</v>
+        <v>0.7414934521052632</v>
       </c>
       <c r="P22">
-        <v>0.6374776869082617</v>
+        <v>0.9527937120473684</v>
       </c>
       <c r="Q22">
-        <v>0.856775653712806</v>
+        <v>0.8049672497368421</v>
       </c>
       <c r="R22">
-        <v>0.8867079957817566</v>
+        <v>1.272556819084211</v>
       </c>
       <c r="S22">
-        <v>0.81360096586273</v>
+        <v>0.9246761571543859</v>
       </c>
       <c r="T22">
-        <v>0.8867079957817566</v>
+        <v>1.27255681908421</v>
       </c>
       <c r="U22">
-        <v>0.9564928777792341</v>
+        <v>1.171527876155263</v>
       </c>
       <c r="V22">
-        <v>1.042228024929136</v>
+        <v>1.319638907555789</v>
       </c>
       <c r="W22">
-        <v>0.9774978502879241</v>
+        <v>1.054418413603947</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7548672593532204</v>
+        <v>0.6118761298839663</v>
       </c>
       <c r="D23">
-        <v>0.7548672593532204</v>
+        <v>0.6118761298839663</v>
       </c>
       <c r="E23">
-        <v>1.172089117468263</v>
+        <v>0.648247195792106</v>
       </c>
       <c r="F23">
-        <v>0.858168635575365</v>
+        <v>1.577416227217531</v>
       </c>
       <c r="G23">
-        <v>1.036562543089765</v>
+        <v>0.8003394716340935</v>
       </c>
       <c r="H23">
-        <v>1.129939981651307</v>
+        <v>0.3789046812554486</v>
       </c>
       <c r="I23">
-        <v>0.9627277540342154</v>
+        <v>0.1309952242496458</v>
       </c>
       <c r="J23">
-        <v>1.097304415961282</v>
+        <v>1.162433604120343</v>
       </c>
       <c r="K23">
-        <v>0.8420337415758369</v>
+        <v>2.078925007802522</v>
       </c>
       <c r="L23">
-        <v>0.9627277540342154</v>
+        <v>0.1309952242496458</v>
       </c>
       <c r="M23">
-        <v>0.7548672593532204</v>
+        <v>0.6118761298839663</v>
       </c>
       <c r="N23">
-        <v>0.7548672593532204</v>
+        <v>0.6118761298839663</v>
       </c>
       <c r="O23">
-        <v>0.8420337415758369</v>
+        <v>2.078925007802522</v>
       </c>
       <c r="P23">
-        <v>0.9023807478050261</v>
+        <v>1.104960116026084</v>
       </c>
       <c r="Q23">
-        <v>1.00706142952205</v>
+        <v>1.363586101797314</v>
       </c>
       <c r="R23">
-        <v>0.8532095849877575</v>
+        <v>0.9405987873120448</v>
       </c>
       <c r="S23">
-        <v>0.9922835376927717</v>
+        <v>0.9527224759480913</v>
       </c>
       <c r="T23">
-        <v>0.8532095849877576</v>
+        <v>0.9405987873120448</v>
       </c>
       <c r="U23">
-        <v>0.9329294681078839</v>
+        <v>0.8675108894320601</v>
       </c>
       <c r="V23">
-        <v>0.8973170263569512</v>
+        <v>0.8163839375224413</v>
       </c>
       <c r="W23">
-        <v>0.9817116810886569</v>
+        <v>0.923642192744457</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.085968231885332</v>
+        <v>1.385168613528747</v>
       </c>
       <c r="D24">
-        <v>1.085968231885332</v>
+        <v>1.385168613528747</v>
       </c>
       <c r="E24">
-        <v>0.8488265689022484</v>
+        <v>1.165847523771667</v>
       </c>
       <c r="F24">
-        <v>1.063142131349222</v>
+        <v>0.8528757068022605</v>
       </c>
       <c r="G24">
-        <v>0.8659968581113571</v>
+        <v>1.272094853981119</v>
       </c>
       <c r="H24">
-        <v>1.035190179801377</v>
+        <v>0.9767146643142903</v>
       </c>
       <c r="I24">
-        <v>1.327818358188542</v>
+        <v>0.7272515901625779</v>
       </c>
       <c r="J24">
-        <v>0.9591680141669633</v>
+        <v>0.892326066088787</v>
       </c>
       <c r="K24">
-        <v>1.13295623885233</v>
+        <v>0.5477037836539453</v>
       </c>
       <c r="L24">
-        <v>1.327818358188542</v>
+        <v>0.7272515901625779</v>
       </c>
       <c r="M24">
-        <v>1.085968231885332</v>
+        <v>1.385168613528747</v>
       </c>
       <c r="N24">
-        <v>1.085968231885332</v>
+        <v>1.385168613528747</v>
       </c>
       <c r="O24">
-        <v>1.13295623885233</v>
+        <v>0.5477037836539453</v>
       </c>
       <c r="P24">
-        <v>1.230387298520436</v>
+        <v>0.6374776869082617</v>
       </c>
       <c r="Q24">
-        <v>0.9908914038772891</v>
+        <v>0.856775653712806</v>
       </c>
       <c r="R24">
-        <v>1.182247609642068</v>
+        <v>0.8867079957817566</v>
       </c>
       <c r="S24">
-        <v>1.103200388647707</v>
+        <v>0.81360096586273</v>
       </c>
       <c r="T24">
-        <v>1.182247609642068</v>
+        <v>0.8867079957817566</v>
       </c>
       <c r="U24">
-        <v>1.098892349457113</v>
+        <v>0.9564928777792341</v>
       </c>
       <c r="V24">
-        <v>1.096307525942757</v>
+        <v>1.042228024929136</v>
       </c>
       <c r="W24">
-        <v>1.039883322657171</v>
+        <v>0.9774978502879241</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.077481917515846</v>
+        <v>0.7548672593532204</v>
       </c>
       <c r="D25">
-        <v>1.077481917515846</v>
+        <v>0.7548672593532204</v>
       </c>
       <c r="E25">
-        <v>1.002514938563022</v>
+        <v>1.172089117468263</v>
       </c>
       <c r="F25">
-        <v>0.742840422268632</v>
+        <v>0.858168635575365</v>
       </c>
       <c r="G25">
-        <v>0.8563341602002271</v>
+        <v>1.036562543089765</v>
       </c>
       <c r="H25">
-        <v>1.525093231466079</v>
+        <v>1.129939981651307</v>
       </c>
       <c r="I25">
-        <v>2.186798800320463</v>
+        <v>0.9627277540342154</v>
       </c>
       <c r="J25">
-        <v>0.877340683730699</v>
+        <v>1.097304415961282</v>
       </c>
       <c r="K25">
-        <v>0.6221718298539746</v>
+        <v>0.8420337415758369</v>
       </c>
       <c r="L25">
-        <v>2.186798800320463</v>
+        <v>0.9627277540342154</v>
       </c>
       <c r="M25">
-        <v>1.077481917515846</v>
+        <v>0.7548672593532204</v>
       </c>
       <c r="N25">
-        <v>1.077481917515846</v>
+        <v>0.7548672593532204</v>
       </c>
       <c r="O25">
-        <v>0.6221718298539746</v>
+        <v>0.8420337415758369</v>
       </c>
       <c r="P25">
-        <v>1.404485315087219</v>
+        <v>0.9023807478050261</v>
       </c>
       <c r="Q25">
-        <v>0.8123433842084984</v>
+        <v>1.00706142952205</v>
       </c>
       <c r="R25">
-        <v>1.295484182563428</v>
+        <v>0.8532095849877575</v>
       </c>
       <c r="S25">
-        <v>1.270495189579153</v>
+        <v>0.9922835376927717</v>
       </c>
       <c r="T25">
-        <v>1.295484182563428</v>
+        <v>0.8532095849877576</v>
       </c>
       <c r="U25">
-        <v>1.222241871563326</v>
+        <v>0.9329294681078839</v>
       </c>
       <c r="V25">
-        <v>1.19328988075383</v>
+        <v>0.8973170263569512</v>
       </c>
       <c r="W25">
-        <v>1.111321997989868</v>
+        <v>0.9817116810886569</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.6583169716999324</v>
+        <v>1.085968231885332</v>
       </c>
       <c r="D26">
-        <v>0.6583169716999324</v>
+        <v>1.085968231885332</v>
       </c>
       <c r="E26">
-        <v>1.226125637598729</v>
+        <v>0.8488265689022484</v>
       </c>
       <c r="F26">
-        <v>0.843693807742339</v>
+        <v>1.063142131349222</v>
       </c>
       <c r="G26">
-        <v>1.022669813008006</v>
+        <v>0.8659968581113571</v>
       </c>
       <c r="H26">
-        <v>1.070812052321727</v>
+        <v>1.035190179801377</v>
       </c>
       <c r="I26">
-        <v>0.6738933325761752</v>
+        <v>1.327818358188542</v>
       </c>
       <c r="J26">
-        <v>1.220994749413356</v>
+        <v>0.9591680141669633</v>
       </c>
       <c r="K26">
-        <v>0.9043097272788778</v>
+        <v>1.13295623885233</v>
       </c>
       <c r="L26">
-        <v>0.6738933325761752</v>
+        <v>1.327818358188542</v>
       </c>
       <c r="M26">
-        <v>0.6583169716999324</v>
+        <v>1.085968231885332</v>
       </c>
       <c r="N26">
-        <v>0.6583169716999324</v>
+        <v>1.085968231885332</v>
       </c>
       <c r="O26">
-        <v>0.9043097272788778</v>
+        <v>1.13295623885233</v>
       </c>
       <c r="P26">
-        <v>0.7891015299275266</v>
+        <v>1.230387298520436</v>
       </c>
       <c r="Q26">
-        <v>1.065217682438804</v>
+        <v>0.9908914038772891</v>
       </c>
       <c r="R26">
-        <v>0.7455066771849953</v>
+        <v>1.182247609642068</v>
       </c>
       <c r="S26">
-        <v>0.9347762324845942</v>
+        <v>1.103200388647707</v>
       </c>
       <c r="T26">
-        <v>0.7455066771849953</v>
+        <v>1.182247609642068</v>
       </c>
       <c r="U26">
-        <v>0.8656614172884287</v>
+        <v>1.098892349457113</v>
       </c>
       <c r="V26">
-        <v>0.8241925281707294</v>
+        <v>1.096307525942757</v>
       </c>
       <c r="W26">
-        <v>0.9526020114548929</v>
+        <v>1.039883322657171</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9434538801479432</v>
+        <v>1.077481917515846</v>
       </c>
       <c r="D27">
-        <v>0.9434538801479432</v>
+        <v>1.077481917515846</v>
       </c>
       <c r="E27">
-        <v>0.8967359615511881</v>
+        <v>1.002514938563022</v>
       </c>
       <c r="F27">
-        <v>1.130206450079754</v>
+        <v>0.742840422268632</v>
       </c>
       <c r="G27">
-        <v>1.000179114045233</v>
+        <v>0.8563341602002271</v>
       </c>
       <c r="H27">
-        <v>0.9525375602649944</v>
+        <v>1.525093231466079</v>
       </c>
       <c r="I27">
-        <v>1.258027232464268</v>
+        <v>2.186798800320463</v>
       </c>
       <c r="J27">
-        <v>0.8728002880349747</v>
+        <v>0.877340683730699</v>
       </c>
       <c r="K27">
-        <v>1.1324543746853</v>
+        <v>0.6221718298539746</v>
       </c>
       <c r="L27">
-        <v>1.258027232464268</v>
+        <v>2.186798800320463</v>
       </c>
       <c r="M27">
-        <v>0.9434538801479432</v>
+        <v>1.077481917515846</v>
       </c>
       <c r="N27">
-        <v>0.9434538801479432</v>
+        <v>1.077481917515846</v>
       </c>
       <c r="O27">
-        <v>1.1324543746853</v>
+        <v>0.6221718298539746</v>
       </c>
       <c r="P27">
-        <v>1.195240803574784</v>
+        <v>1.404485315087219</v>
       </c>
       <c r="Q27">
-        <v>1.014595168118244</v>
+        <v>0.8123433842084984</v>
       </c>
       <c r="R27">
-        <v>1.111311829099171</v>
+        <v>1.295484182563428</v>
       </c>
       <c r="S27">
-        <v>1.095739189566919</v>
+        <v>1.270495189579153</v>
       </c>
       <c r="T27">
-        <v>1.11131182909917</v>
+        <v>1.295484182563428</v>
       </c>
       <c r="U27">
-        <v>1.057667862212175</v>
+        <v>1.222241871563326</v>
       </c>
       <c r="V27">
-        <v>1.034825065799329</v>
+        <v>1.19328988075383</v>
       </c>
       <c r="W27">
-        <v>1.023299357659207</v>
+        <v>1.111321997989868</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9631565221768053</v>
+        <v>0.6583169716999324</v>
       </c>
       <c r="D28">
-        <v>0.9631565221768053</v>
+        <v>0.6583169716999324</v>
       </c>
       <c r="E28">
-        <v>0.9471924269820814</v>
+        <v>1.226125637598729</v>
       </c>
       <c r="F28">
-        <v>1.041285334783568</v>
+        <v>0.843693807742339</v>
       </c>
       <c r="G28">
-        <v>0.9802065382338501</v>
+        <v>1.022669813008006</v>
       </c>
       <c r="H28">
-        <v>0.9315530026542393</v>
+        <v>1.070812052321727</v>
       </c>
       <c r="I28">
-        <v>0.9788329553152325</v>
+        <v>0.6738933325761752</v>
       </c>
       <c r="J28">
-        <v>1.031823770450844</v>
+        <v>1.220994749413356</v>
       </c>
       <c r="K28">
-        <v>1.078787403047765</v>
+        <v>0.9043097272788778</v>
       </c>
       <c r="L28">
-        <v>0.9788329553152325</v>
+        <v>0.6738933325761752</v>
       </c>
       <c r="M28">
-        <v>0.9631565221768053</v>
+        <v>0.6583169716999324</v>
       </c>
       <c r="N28">
-        <v>0.9631565221768053</v>
+        <v>0.6583169716999324</v>
       </c>
       <c r="O28">
-        <v>1.078787403047765</v>
+        <v>0.9043097272788778</v>
       </c>
       <c r="P28">
-        <v>1.028810179181499</v>
+        <v>0.7891015299275266</v>
       </c>
       <c r="Q28">
-        <v>1.012989915014923</v>
+        <v>1.065217682438804</v>
       </c>
       <c r="R28">
-        <v>1.006925626846601</v>
+        <v>0.7455066771849953</v>
       </c>
       <c r="S28">
-        <v>1.001604261781693</v>
+        <v>0.9347762324845942</v>
       </c>
       <c r="T28">
-        <v>1.006925626846601</v>
+        <v>0.7455066771849953</v>
       </c>
       <c r="U28">
-        <v>0.991992326880471</v>
+        <v>0.8656614172884287</v>
       </c>
       <c r="V28">
-        <v>0.9862251659397379</v>
+        <v>0.8241925281707294</v>
       </c>
       <c r="W28">
-        <v>0.9941047442055482</v>
+        <v>0.9526020114548929</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9434538801479432</v>
+      </c>
+      <c r="D29">
+        <v>0.9434538801479432</v>
+      </c>
+      <c r="E29">
+        <v>0.8967359615511881</v>
+      </c>
+      <c r="F29">
+        <v>1.130206450079754</v>
+      </c>
+      <c r="G29">
+        <v>1.000179114045233</v>
+      </c>
+      <c r="H29">
+        <v>0.9525375602649944</v>
+      </c>
+      <c r="I29">
+        <v>1.258027232464268</v>
+      </c>
+      <c r="J29">
+        <v>0.8728002880349747</v>
+      </c>
+      <c r="K29">
+        <v>1.1324543746853</v>
+      </c>
+      <c r="L29">
+        <v>1.258027232464268</v>
+      </c>
+      <c r="M29">
+        <v>0.9434538801479432</v>
+      </c>
+      <c r="N29">
+        <v>0.9434538801479432</v>
+      </c>
+      <c r="O29">
+        <v>1.1324543746853</v>
+      </c>
+      <c r="P29">
+        <v>1.195240803574784</v>
+      </c>
+      <c r="Q29">
+        <v>1.014595168118244</v>
+      </c>
+      <c r="R29">
+        <v>1.111311829099171</v>
+      </c>
+      <c r="S29">
+        <v>1.095739189566919</v>
+      </c>
+      <c r="T29">
+        <v>1.11131182909917</v>
+      </c>
+      <c r="U29">
+        <v>1.057667862212175</v>
+      </c>
+      <c r="V29">
+        <v>1.034825065799329</v>
+      </c>
+      <c r="W29">
+        <v>1.023299357659207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9631565221768053</v>
+      </c>
+      <c r="D30">
+        <v>0.9631565221768053</v>
+      </c>
+      <c r="E30">
+        <v>0.9471924269820814</v>
+      </c>
+      <c r="F30">
+        <v>1.041285334783568</v>
+      </c>
+      <c r="G30">
+        <v>0.9802065382338501</v>
+      </c>
+      <c r="H30">
+        <v>0.9315530026542393</v>
+      </c>
+      <c r="I30">
+        <v>0.9788329553152325</v>
+      </c>
+      <c r="J30">
+        <v>1.031823770450844</v>
+      </c>
+      <c r="K30">
+        <v>1.078787403047765</v>
+      </c>
+      <c r="L30">
+        <v>0.9788329553152325</v>
+      </c>
+      <c r="M30">
+        <v>0.9631565221768053</v>
+      </c>
+      <c r="N30">
+        <v>0.9631565221768053</v>
+      </c>
+      <c r="O30">
+        <v>1.078787403047765</v>
+      </c>
+      <c r="P30">
+        <v>1.028810179181499</v>
+      </c>
+      <c r="Q30">
+        <v>1.012989915014923</v>
+      </c>
+      <c r="R30">
+        <v>1.006925626846601</v>
+      </c>
+      <c r="S30">
+        <v>1.001604261781693</v>
+      </c>
+      <c r="T30">
+        <v>1.006925626846601</v>
+      </c>
+      <c r="U30">
+        <v>0.991992326880471</v>
+      </c>
+      <c r="V30">
+        <v>0.9862251659397379</v>
+      </c>
+      <c r="W30">
+        <v>0.9941047442055482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9461141511756737</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9461141511756737</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.011880467228794</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9359128360128885</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.014714542890092</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.038651161867745</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.167095892021029</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.027655017979422</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.8849356156856564</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.167095892021029</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9461141511756737</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9461141511756737</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.8849356156856564</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.026015753853343</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9484080414572253</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9993818862941198</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.02130399164516</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9993818862941196</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.002506531527788</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9912280554573654</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.003369960607662</v>
       </c>
     </row>
